--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>['34', '69']</t>
+  </si>
+  <si>
+    <t>['86', '90']</t>
   </si>
   <si>
     <t>['2', '35']</t>
@@ -1290,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,7 +1758,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>1.67</v>
@@ -2042,7 +2045,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ4">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2373,7 +2376,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2579,7 +2582,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2785,7 +2788,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2863,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ8">
         <v>1.13</v>
@@ -3609,7 +3612,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>29</v>
@@ -3815,7 +3818,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4639,7 +4642,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>2.63</v>
@@ -4845,7 +4848,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>1.2</v>
@@ -5257,7 +5260,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5541,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5669,7 +5672,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>13</v>
@@ -5875,7 +5878,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>2.2</v>
@@ -6162,7 +6165,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.12</v>
@@ -6287,7 +6290,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6699,7 +6702,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6777,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27">
         <v>1.75</v>
@@ -6905,7 +6908,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6986,7 +6989,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.18</v>
@@ -7111,7 +7114,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7317,7 +7320,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7935,7 +7938,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q33">
         <v>3.6</v>
@@ -8141,7 +8144,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>2.88</v>
@@ -8347,7 +8350,7 @@
         <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>1.83</v>
@@ -8553,7 +8556,7 @@
         <v>104</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9171,7 +9174,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>1.29</v>
@@ -9664,7 +9667,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.8</v>
@@ -9995,7 +9998,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10201,7 +10204,7 @@
         <v>110</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>7.5</v>
@@ -10407,7 +10410,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10613,7 +10616,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>3.5</v>
@@ -10819,7 +10822,7 @@
         <v>113</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11025,7 +11028,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11309,7 +11312,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ49">
         <v>0.9399999999999999</v>
@@ -11849,7 +11852,7 @@
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12261,7 +12264,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>8.5</v>
@@ -12339,7 +12342,7 @@
         <v>2.5</v>
       </c>
       <c r="AP54">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ54">
         <v>2.88</v>
@@ -12673,7 +12676,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -13497,7 +13500,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13578,7 +13581,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ60">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.24</v>
@@ -13703,7 +13706,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -14321,7 +14324,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -14527,7 +14530,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>2.2</v>
@@ -15429,7 +15432,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69">
         <v>0.9399999999999999</v>
@@ -15557,7 +15560,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15763,7 +15766,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15969,7 +15972,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>2.05</v>
@@ -16253,10 +16256,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ73">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16381,7 +16384,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>4.75</v>
@@ -16587,7 +16590,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -16999,7 +17002,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -17205,7 +17208,7 @@
         <v>82</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>1.8</v>
@@ -17411,7 +17414,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>2.88</v>
@@ -17823,7 +17826,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17904,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18235,7 +18238,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>1.13</v>
@@ -18647,7 +18650,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>6.5</v>
@@ -19265,7 +19268,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19343,7 +19346,7 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ88">
         <v>1.69</v>
@@ -19471,7 +19474,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19883,7 +19886,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>4.75</v>
@@ -20089,7 +20092,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20167,7 +20170,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -20295,7 +20298,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>1.62</v>
@@ -20501,7 +20504,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20707,7 +20710,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20913,7 +20916,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -21119,7 +21122,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21325,7 +21328,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q98">
         <v>4.33</v>
@@ -21612,7 +21615,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.47</v>
@@ -21943,7 +21946,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>13</v>
@@ -22149,7 +22152,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>7.5</v>
@@ -22355,7 +22358,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22767,7 +22770,7 @@
         <v>159</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22973,7 +22976,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>3.2</v>
@@ -23179,7 +23182,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23797,7 +23800,7 @@
         <v>82</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23875,7 +23878,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ110">
         <v>1.13</v>
@@ -24084,7 +24087,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ111">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.25</v>
@@ -24415,7 +24418,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>1.29</v>
@@ -24621,7 +24624,7 @@
         <v>82</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24827,7 +24830,7 @@
         <v>164</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>4.2</v>
@@ -25239,7 +25242,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>3.4</v>
@@ -25857,7 +25860,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26144,7 +26147,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ121">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.46</v>
@@ -26269,7 +26272,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26347,7 +26350,7 @@
         <v>0.78</v>
       </c>
       <c r="AP122">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ122">
         <v>0.6899999999999999</v>
@@ -26475,7 +26478,7 @@
         <v>82</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27174,7 +27177,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ126">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>2.81</v>
@@ -27505,7 +27508,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27711,7 +27714,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27917,7 +27920,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28123,7 +28126,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28329,7 +28332,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>3.9</v>
@@ -28535,7 +28538,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>1.35</v>
@@ -29153,7 +29156,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29359,7 +29362,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>2.45</v>
@@ -29440,7 +29443,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ137">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR137">
         <v>1.3</v>
@@ -29565,7 +29568,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -30595,7 +30598,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30801,7 +30804,7 @@
         <v>184</v>
       </c>
       <c r="P144" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>3.1</v>
@@ -31007,7 +31010,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31625,7 +31628,7 @@
         <v>187</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>11</v>
@@ -31703,7 +31706,7 @@
         <v>2.83</v>
       </c>
       <c r="AP148">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ148">
         <v>2.88</v>
@@ -32037,7 +32040,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32243,7 +32246,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32324,7 +32327,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.72</v>
@@ -32733,7 +32736,7 @@
         <v>1.08</v>
       </c>
       <c r="AP153">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ153">
         <v>1.13</v>
@@ -33148,7 +33151,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ155">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>2.75</v>
@@ -33891,7 +33894,7 @@
         <v>171</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34097,7 +34100,7 @@
         <v>172</v>
       </c>
       <c r="P160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>4.5</v>
@@ -34384,7 +34387,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ161">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.53</v>
@@ -34509,7 +34512,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>2.4</v>
@@ -34793,7 +34796,7 @@
         <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ163">
         <v>1.75</v>
@@ -35127,7 +35130,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q165">
         <v>8.5</v>
@@ -35333,7 +35336,7 @@
         <v>82</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>3.2</v>
@@ -35951,7 +35954,7 @@
         <v>115</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>2.6</v>
@@ -36029,10 +36032,10 @@
         <v>0.93</v>
       </c>
       <c r="AP169">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ169">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.53</v>
@@ -36157,7 +36160,7 @@
         <v>85</v>
       </c>
       <c r="P170" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36981,7 +36984,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q174">
         <v>2.63</v>
@@ -37187,7 +37190,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q175">
         <v>1.4</v>
@@ -37599,7 +37602,7 @@
         <v>82</v>
       </c>
       <c r="P177" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -38011,7 +38014,7 @@
         <v>82</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38835,7 +38838,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39041,7 +39044,7 @@
         <v>82</v>
       </c>
       <c r="P184" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -39659,7 +39662,7 @@
         <v>82</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40483,7 +40486,7 @@
         <v>211</v>
       </c>
       <c r="P191" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>2.6</v>
@@ -40561,7 +40564,7 @@
         <v>1.53</v>
       </c>
       <c r="AP191">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ191">
         <v>1.5</v>
@@ -40689,7 +40692,7 @@
         <v>186</v>
       </c>
       <c r="P192" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>2.88</v>
@@ -41052,6 +41055,212 @@
       </c>
       <c r="BP193">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7423592</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45422.65625</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>76</v>
+      </c>
+      <c r="H194" t="s">
+        <v>79</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>212</v>
+      </c>
+      <c r="P194" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q194">
+        <v>2.88</v>
+      </c>
+      <c r="R194">
+        <v>2.3</v>
+      </c>
+      <c r="S194">
+        <v>3.1</v>
+      </c>
+      <c r="T194">
+        <v>1.3</v>
+      </c>
+      <c r="U194">
+        <v>3.4</v>
+      </c>
+      <c r="V194">
+        <v>2.5</v>
+      </c>
+      <c r="W194">
+        <v>1.5</v>
+      </c>
+      <c r="X194">
+        <v>5.5</v>
+      </c>
+      <c r="Y194">
+        <v>1.13</v>
+      </c>
+      <c r="Z194">
+        <v>2.25</v>
+      </c>
+      <c r="AA194">
+        <v>3.5</v>
+      </c>
+      <c r="AB194">
+        <v>2.63</v>
+      </c>
+      <c r="AC194">
+        <v>1.01</v>
+      </c>
+      <c r="AD194">
+        <v>13</v>
+      </c>
+      <c r="AE194">
+        <v>1.16</v>
+      </c>
+      <c r="AF194">
+        <v>4.3</v>
+      </c>
+      <c r="AG194">
+        <v>1.53</v>
+      </c>
+      <c r="AH194">
+        <v>2.23</v>
+      </c>
+      <c r="AI194">
+        <v>1.57</v>
+      </c>
+      <c r="AJ194">
+        <v>2.25</v>
+      </c>
+      <c r="AK194">
+        <v>1.2</v>
+      </c>
+      <c r="AL194">
+        <v>1.27</v>
+      </c>
+      <c r="AM194">
+        <v>1.34</v>
+      </c>
+      <c r="AN194">
+        <v>1.28</v>
+      </c>
+      <c r="AO194">
+        <v>1.22</v>
+      </c>
+      <c r="AP194">
+        <v>1.33</v>
+      </c>
+      <c r="AQ194">
+        <v>1.18</v>
+      </c>
+      <c r="AR194">
+        <v>1.55</v>
+      </c>
+      <c r="AS194">
+        <v>1.02</v>
+      </c>
+      <c r="AT194">
+        <v>2.57</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>3</v>
+      </c>
+      <c r="AW194">
+        <v>5</v>
+      </c>
+      <c r="AX194">
+        <v>2</v>
+      </c>
+      <c r="AY194">
+        <v>9</v>
+      </c>
+      <c r="AZ194">
+        <v>5</v>
+      </c>
+      <c r="BA194">
+        <v>7</v>
+      </c>
+      <c r="BB194">
+        <v>2</v>
+      </c>
+      <c r="BC194">
+        <v>9</v>
+      </c>
+      <c r="BD194">
+        <v>1.76</v>
+      </c>
+      <c r="BE194">
+        <v>8.4</v>
+      </c>
+      <c r="BF194">
+        <v>2.32</v>
+      </c>
+      <c r="BG194">
+        <v>1.33</v>
+      </c>
+      <c r="BH194">
+        <v>3</v>
+      </c>
+      <c r="BI194">
+        <v>1.57</v>
+      </c>
+      <c r="BJ194">
+        <v>2.25</v>
+      </c>
+      <c r="BK194">
+        <v>2</v>
+      </c>
+      <c r="BL194">
+        <v>1.8</v>
+      </c>
+      <c r="BM194">
+        <v>2.47</v>
+      </c>
+      <c r="BN194">
+        <v>1.48</v>
+      </c>
+      <c r="BO194">
+        <v>3.3</v>
+      </c>
+      <c r="BP194">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -933,6 +933,9 @@
   <si>
     <t>['14', '20', '52']</t>
   </si>
+  <si>
+    <t>['6', '18', '33', '63', '73']</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2454,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -4105,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR14">
         <v>1.1</v>
@@ -5132,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ19">
         <v>0.9399999999999999</v>
@@ -6986,7 +6989,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7195,7 +7198,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -9870,7 +9873,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ42">
         <v>0.8100000000000001</v>
@@ -10491,7 +10494,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR45">
         <v>1.28</v>
@@ -13166,7 +13169,7 @@
         <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -13787,7 +13790,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ61">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -14402,7 +14405,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ64">
         <v>1.13</v>
@@ -15847,7 +15850,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -17698,7 +17701,7 @@
         <v>0.71</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80">
         <v>1.13</v>
@@ -18728,7 +18731,7 @@
         <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85">
         <v>2.88</v>
@@ -19349,7 +19352,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ88">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -20997,7 +21000,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ96">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR96">
         <v>1.27</v>
@@ -21612,7 +21615,7 @@
         <v>0.71</v>
       </c>
       <c r="AP99">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99">
         <v>0.9399999999999999</v>
@@ -21821,7 +21824,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR100">
         <v>1.46</v>
@@ -22848,7 +22851,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ105">
         <v>0.6899999999999999</v>
@@ -23881,7 +23884,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ110">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR110">
         <v>3.08</v>
@@ -24911,7 +24914,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR115">
         <v>1.35</v>
@@ -25320,7 +25323,7 @@
         <v>1.78</v>
       </c>
       <c r="AP117">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ117">
         <v>1.75</v>
@@ -29649,7 +29652,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ138">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -31088,7 +31091,7 @@
         <v>2</v>
       </c>
       <c r="AP145">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ145">
         <v>1.75</v>
@@ -32118,7 +32121,7 @@
         <v>1.45</v>
       </c>
       <c r="AP150">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ150">
         <v>1.5</v>
@@ -33975,7 +33978,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ159">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR159">
         <v>1.41</v>
@@ -34384,7 +34387,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -35414,7 +35417,7 @@
         <v>2.86</v>
       </c>
       <c r="AP166">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166">
         <v>2.88</v>
@@ -36241,7 +36244,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ170">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -38095,7 +38098,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ179">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR179">
         <v>1.15</v>
@@ -39328,7 +39331,7 @@
         <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ185">
         <v>1.13</v>
@@ -39743,7 +39746,7 @@
         <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR187">
         <v>1.24</v>
@@ -41197,19 +41200,19 @@
         <v>2.57</v>
       </c>
       <c r="AU194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV194">
         <v>3</v>
       </c>
       <c r="AW194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX194">
         <v>2</v>
       </c>
       <c r="AY194">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AZ194">
         <v>5</v>
@@ -41261,6 +41264,212 @@
       </c>
       <c r="BP194">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7423593</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45423.34722222222</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>74</v>
+      </c>
+      <c r="H195" t="s">
+        <v>78</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>3</v>
+      </c>
+      <c r="K195">
+        <v>3</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>5</v>
+      </c>
+      <c r="N195">
+        <v>5</v>
+      </c>
+      <c r="O195" t="s">
+        <v>82</v>
+      </c>
+      <c r="P195" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q195">
+        <v>2.3</v>
+      </c>
+      <c r="R195">
+        <v>2.2</v>
+      </c>
+      <c r="S195">
+        <v>4.33</v>
+      </c>
+      <c r="T195">
+        <v>1.36</v>
+      </c>
+      <c r="U195">
+        <v>3</v>
+      </c>
+      <c r="V195">
+        <v>2.63</v>
+      </c>
+      <c r="W195">
+        <v>1.44</v>
+      </c>
+      <c r="X195">
+        <v>6</v>
+      </c>
+      <c r="Y195">
+        <v>1.11</v>
+      </c>
+      <c r="Z195">
+        <v>1.76</v>
+      </c>
+      <c r="AA195">
+        <v>3.6</v>
+      </c>
+      <c r="AB195">
+        <v>3.95</v>
+      </c>
+      <c r="AC195">
+        <v>1.02</v>
+      </c>
+      <c r="AD195">
+        <v>10.5</v>
+      </c>
+      <c r="AE195">
+        <v>1.21</v>
+      </c>
+      <c r="AF195">
+        <v>3.74</v>
+      </c>
+      <c r="AG195">
+        <v>1.68</v>
+      </c>
+      <c r="AH195">
+        <v>1.98</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>1.18</v>
+      </c>
+      <c r="AL195">
+        <v>1.2</v>
+      </c>
+      <c r="AM195">
+        <v>1.9</v>
+      </c>
+      <c r="AN195">
+        <v>1.38</v>
+      </c>
+      <c r="AO195">
+        <v>1.53</v>
+      </c>
+      <c r="AP195">
+        <v>1.33</v>
+      </c>
+      <c r="AQ195">
+        <v>1.58</v>
+      </c>
+      <c r="AR195">
+        <v>1.52</v>
+      </c>
+      <c r="AS195">
+        <v>1.59</v>
+      </c>
+      <c r="AT195">
+        <v>3.11</v>
+      </c>
+      <c r="AU195">
+        <v>2</v>
+      </c>
+      <c r="AV195">
+        <v>3</v>
+      </c>
+      <c r="AW195">
+        <v>5</v>
+      </c>
+      <c r="AX195">
+        <v>1</v>
+      </c>
+      <c r="AY195">
+        <v>7</v>
+      </c>
+      <c r="AZ195">
+        <v>4</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
+        <v>4</v>
+      </c>
+      <c r="BC195">
+        <v>8</v>
+      </c>
+      <c r="BD195">
+        <v>1.74</v>
+      </c>
+      <c r="BE195">
+        <v>7.6</v>
+      </c>
+      <c r="BF195">
+        <v>2.43</v>
+      </c>
+      <c r="BG195">
+        <v>1.36</v>
+      </c>
+      <c r="BH195">
+        <v>2.9</v>
+      </c>
+      <c r="BI195">
+        <v>1.72</v>
+      </c>
+      <c r="BJ195">
+        <v>2.03</v>
+      </c>
+      <c r="BK195">
+        <v>2.18</v>
+      </c>
+      <c r="BL195">
+        <v>1.62</v>
+      </c>
+      <c r="BM195">
+        <v>2.95</v>
+      </c>
+      <c r="BN195">
+        <v>1.35</v>
+      </c>
+      <c r="BO195">
+        <v>3.6</v>
+      </c>
+      <c r="BP195">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -41409,19 +41409,19 @@
         <v>2</v>
       </c>
       <c r="AV195">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW195">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY195">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ195">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA195">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>['86', '90']</t>
+  </si>
+  <si>
+    <t>['20', '26', '37']</t>
   </si>
   <si>
     <t>['2', '35']</t>
@@ -1296,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1764,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>1.67</v>
@@ -2379,7 +2382,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2460,7 +2463,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2585,7 +2588,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2791,7 +2794,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2869,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ8">
         <v>1.13</v>
@@ -3615,7 +3618,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>29</v>
@@ -3821,7 +3824,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4108,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
         <v>1.1</v>
@@ -4645,7 +4648,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>2.63</v>
@@ -4851,7 +4854,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>1.2</v>
@@ -5263,7 +5266,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5547,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5675,7 +5678,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>13</v>
@@ -5881,7 +5884,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>2.2</v>
@@ -6293,7 +6296,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6705,7 +6708,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6783,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ27">
         <v>1.75</v>
@@ -6911,7 +6914,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -7117,7 +7120,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7198,7 +7201,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7323,7 +7326,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7941,7 +7944,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>3.6</v>
@@ -8147,7 +8150,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>2.88</v>
@@ -8353,7 +8356,7 @@
         <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>1.83</v>
@@ -8559,7 +8562,7 @@
         <v>104</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9177,7 +9180,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>1.29</v>
@@ -10001,7 +10004,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>2.1</v>
@@ -10207,7 +10210,7 @@
         <v>110</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>7.5</v>
@@ -10413,7 +10416,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10494,7 +10497,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.28</v>
@@ -10619,7 +10622,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>3.5</v>
@@ -10825,7 +10828,7 @@
         <v>113</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11031,7 +11034,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11315,7 +11318,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ49">
         <v>0.9399999999999999</v>
@@ -11855,7 +11858,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>8.5</v>
@@ -11933,7 +11936,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ52">
         <v>2.88</v>
@@ -12061,7 +12064,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12679,7 +12682,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -13503,7 +13506,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13709,7 +13712,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13790,7 +13793,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ61">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -14533,7 +14536,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -14739,7 +14742,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15435,7 +15438,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ69">
         <v>0.9399999999999999</v>
@@ -15563,7 +15566,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15769,7 +15772,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15850,7 +15853,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -15975,7 +15978,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>2.05</v>
@@ -16259,7 +16262,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16387,7 +16390,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>4.75</v>
@@ -16593,7 +16596,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -17005,7 +17008,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -17211,7 +17214,7 @@
         <v>82</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>1.8</v>
@@ -17417,7 +17420,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q79">
         <v>2.88</v>
@@ -17829,7 +17832,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -18241,7 +18244,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>1.13</v>
@@ -18653,7 +18656,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>6.5</v>
@@ -19271,7 +19274,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19349,10 +19352,10 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ88">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -19477,7 +19480,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19889,7 +19892,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>4.75</v>
@@ -20095,7 +20098,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20173,7 +20176,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -20301,7 +20304,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q93">
         <v>1.62</v>
@@ -20507,7 +20510,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20713,7 +20716,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20919,7 +20922,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -21000,7 +21003,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ96">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
         <v>1.27</v>
@@ -21331,7 +21334,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21743,7 +21746,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21824,7 +21827,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
         <v>1.46</v>
@@ -21949,7 +21952,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q101">
         <v>13</v>
@@ -22155,7 +22158,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>7.5</v>
@@ -22361,7 +22364,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22773,7 +22776,7 @@
         <v>159</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22979,7 +22982,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q106">
         <v>3.2</v>
@@ -23185,7 +23188,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>2.75</v>
@@ -23391,7 +23394,7 @@
         <v>82</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23469,7 +23472,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ108">
         <v>1.13</v>
@@ -23884,7 +23887,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ110">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR110">
         <v>3.08</v>
@@ -24627,7 +24630,7 @@
         <v>164</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>4.2</v>
@@ -24833,7 +24836,7 @@
         <v>82</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24914,7 +24917,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
         <v>1.35</v>
@@ -25245,7 +25248,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>3.4</v>
@@ -25451,7 +25454,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>1.29</v>
@@ -26069,7 +26072,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26275,7 +26278,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26353,7 +26356,7 @@
         <v>0.78</v>
       </c>
       <c r="AP122">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ122">
         <v>0.6899999999999999</v>
@@ -26481,7 +26484,7 @@
         <v>82</v>
       </c>
       <c r="P123" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27511,7 +27514,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27717,7 +27720,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27923,7 +27926,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28129,7 +28132,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28335,7 +28338,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q132">
         <v>3.9</v>
@@ -28541,7 +28544,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>1.35</v>
@@ -29159,7 +29162,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29365,7 +29368,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q137">
         <v>2.45</v>
@@ -29571,7 +29574,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q138">
         <v>4.2</v>
@@ -29652,7 +29655,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ138">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -30601,7 +30604,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30807,7 +30810,7 @@
         <v>184</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>3.1</v>
@@ -31013,7 +31016,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31631,7 +31634,7 @@
         <v>187</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q148">
         <v>11</v>
@@ -31709,7 +31712,7 @@
         <v>2.83</v>
       </c>
       <c r="AP148">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ148">
         <v>2.88</v>
@@ -32043,7 +32046,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32249,7 +32252,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32739,7 +32742,7 @@
         <v>1.08</v>
       </c>
       <c r="AP153">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ153">
         <v>1.13</v>
@@ -33691,7 +33694,7 @@
         <v>172</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>4.5</v>
@@ -33978,7 +33981,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ159">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR159">
         <v>1.41</v>
@@ -34103,7 +34106,7 @@
         <v>171</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>2.38</v>
@@ -34515,7 +34518,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q162">
         <v>2.4</v>
@@ -34799,7 +34802,7 @@
         <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ163">
         <v>1.75</v>
@@ -35133,7 +35136,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35339,7 +35342,7 @@
         <v>82</v>
       </c>
       <c r="P166" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q166">
         <v>8.5</v>
@@ -35957,7 +35960,7 @@
         <v>115</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>2.6</v>
@@ -36035,7 +36038,7 @@
         <v>0.93</v>
       </c>
       <c r="AP169">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36244,7 +36247,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ170">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -36575,7 +36578,7 @@
         <v>85</v>
       </c>
       <c r="P172" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -37193,7 +37196,7 @@
         <v>201</v>
       </c>
       <c r="P175" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37399,7 +37402,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37605,7 +37608,7 @@
         <v>82</v>
       </c>
       <c r="P177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -38017,7 +38020,7 @@
         <v>82</v>
       </c>
       <c r="P179" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q179">
         <v>4</v>
@@ -38098,7 +38101,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ179">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR179">
         <v>1.15</v>
@@ -38841,7 +38844,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39047,7 +39050,7 @@
         <v>82</v>
       </c>
       <c r="P184" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q184">
         <v>11</v>
@@ -39665,7 +39668,7 @@
         <v>82</v>
       </c>
       <c r="P187" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -39746,7 +39749,7 @@
         <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR187">
         <v>1.24</v>
@@ -39871,7 +39874,7 @@
         <v>208</v>
       </c>
       <c r="P188" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q188">
         <v>2.6</v>
@@ -39949,7 +39952,7 @@
         <v>1.53</v>
       </c>
       <c r="AP188">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ188">
         <v>1.5</v>
@@ -40077,7 +40080,7 @@
         <v>186</v>
       </c>
       <c r="P189" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q189">
         <v>2.88</v>
@@ -41185,7 +41188,7 @@
         <v>1.22</v>
       </c>
       <c r="AP194">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ194">
         <v>1.18</v>
@@ -41313,7 +41316,7 @@
         <v>82</v>
       </c>
       <c r="P195" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q195">
         <v>2.3</v>
@@ -41394,7 +41397,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ195">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AR195">
         <v>1.52</v>
@@ -41470,6 +41473,212 @@
       </c>
       <c r="BP195">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7432219</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45430.44791666666</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>76</v>
+      </c>
+      <c r="H196" t="s">
+        <v>78</v>
+      </c>
+      <c r="I196">
+        <v>3</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>3</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>4</v>
+      </c>
+      <c r="O196" t="s">
+        <v>213</v>
+      </c>
+      <c r="P196" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q196">
+        <v>2.88</v>
+      </c>
+      <c r="R196">
+        <v>2.38</v>
+      </c>
+      <c r="S196">
+        <v>2.88</v>
+      </c>
+      <c r="T196">
+        <v>1.28</v>
+      </c>
+      <c r="U196">
+        <v>3.4</v>
+      </c>
+      <c r="V196">
+        <v>2.25</v>
+      </c>
+      <c r="W196">
+        <v>1.57</v>
+      </c>
+      <c r="X196">
+        <v>5.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.12</v>
+      </c>
+      <c r="Z196">
+        <v>2.4</v>
+      </c>
+      <c r="AA196">
+        <v>3.5</v>
+      </c>
+      <c r="AB196">
+        <v>2.4</v>
+      </c>
+      <c r="AC196">
+        <v>1.02</v>
+      </c>
+      <c r="AD196">
+        <v>14</v>
+      </c>
+      <c r="AE196">
+        <v>1.14</v>
+      </c>
+      <c r="AF196">
+        <v>5</v>
+      </c>
+      <c r="AG196">
+        <v>1.48</v>
+      </c>
+      <c r="AH196">
+        <v>2.36</v>
+      </c>
+      <c r="AI196">
+        <v>1.44</v>
+      </c>
+      <c r="AJ196">
+        <v>2.45</v>
+      </c>
+      <c r="AK196">
+        <v>1.44</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
+        <v>1.53</v>
+      </c>
+      <c r="AN196">
+        <v>1.33</v>
+      </c>
+      <c r="AO196">
+        <v>1.58</v>
+      </c>
+      <c r="AP196">
+        <v>1.38</v>
+      </c>
+      <c r="AQ196">
+        <v>1.53</v>
+      </c>
+      <c r="AR196">
+        <v>1.53</v>
+      </c>
+      <c r="AS196">
+        <v>1.59</v>
+      </c>
+      <c r="AT196">
+        <v>3.12</v>
+      </c>
+      <c r="AU196">
+        <v>9</v>
+      </c>
+      <c r="AV196">
+        <v>5</v>
+      </c>
+      <c r="AW196">
+        <v>6</v>
+      </c>
+      <c r="AX196">
+        <v>11</v>
+      </c>
+      <c r="AY196">
+        <v>15</v>
+      </c>
+      <c r="AZ196">
+        <v>16</v>
+      </c>
+      <c r="BA196">
+        <v>4</v>
+      </c>
+      <c r="BB196">
+        <v>7</v>
+      </c>
+      <c r="BC196">
+        <v>11</v>
+      </c>
+      <c r="BD196">
+        <v>2.01</v>
+      </c>
+      <c r="BE196">
+        <v>7.2</v>
+      </c>
+      <c r="BF196">
+        <v>2.08</v>
+      </c>
+      <c r="BG196">
+        <v>0</v>
+      </c>
+      <c r="BH196">
+        <v>0</v>
+      </c>
+      <c r="BI196">
+        <v>1.38</v>
+      </c>
+      <c r="BJ196">
+        <v>2.71</v>
+      </c>
+      <c r="BK196">
+        <v>1.74</v>
+      </c>
+      <c r="BL196">
+        <v>2.01</v>
+      </c>
+      <c r="BM196">
+        <v>2.18</v>
+      </c>
+      <c r="BN196">
+        <v>1.62</v>
+      </c>
+      <c r="BO196">
+        <v>0</v>
+      </c>
+      <c r="BP196">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -41615,22 +41615,22 @@
         <v>3.12</v>
       </c>
       <c r="AU196">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV196">
+        <v>4</v>
+      </c>
+      <c r="AW196">
         <v>5</v>
       </c>
-      <c r="AW196">
-        <v>6</v>
-      </c>
       <c r="AX196">
+        <v>7</v>
+      </c>
+      <c r="AY196">
         <v>11</v>
       </c>
-      <c r="AY196">
-        <v>15</v>
-      </c>
       <c r="AZ196">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA196">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -41615,22 +41615,22 @@
         <v>3.12</v>
       </c>
       <c r="AU196">
+        <v>9</v>
+      </c>
+      <c r="AV196">
+        <v>5</v>
+      </c>
+      <c r="AW196">
         <v>6</v>
       </c>
-      <c r="AV196">
-        <v>4</v>
-      </c>
-      <c r="AW196">
-        <v>5</v>
-      </c>
       <c r="AX196">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AY196">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ196">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA196">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -41194,13 +41194,13 @@
         <v>1.18</v>
       </c>
       <c r="AR194">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AS194">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="AT194">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41400,13 +41400,13 @@
         <v>1.53</v>
       </c>
       <c r="AR195">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AS195">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AT195">
-        <v>3.11</v>
+        <v>2.97</v>
       </c>
       <c r="AU195">
         <v>2</v>
@@ -41606,13 +41606,13 @@
         <v>1.53</v>
       </c>
       <c r="AR196">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS196">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AT196">
-        <v>3.12</v>
+        <v>3.07</v>
       </c>
       <c r="AU196">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ2">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ5">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
+        <v>1.33</v>
+      </c>
+      <c r="AQ6">
         <v>1.53</v>
-      </c>
-      <c r="AQ6">
-        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ7">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2866,25 +2866,25 @@
         <v>1.55</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AU8">
         <v>4</v>
@@ -3078,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ9">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AU9">
         <v>8</v>
@@ -3278,25 +3278,25 @@
         <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ10">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3484,25 +3484,25 @@
         <v>1.3</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AU11">
         <v>2</v>
@@ -3690,25 +3690,25 @@
         <v>1.01</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ12">
         <v>2.88</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3902,19 +3902,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4102,25 +4102,25 @@
         <v>1.24</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO14">
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ14">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR14">
-        <v>1.1</v>
+        <v>1.31</v>
       </c>
       <c r="AS14">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="AT14">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4308,25 +4308,25 @@
         <v>1.42</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR15">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AS15">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AT15">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4514,25 +4514,25 @@
         <v>2</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ16">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR16">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="AS16">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT16">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4720,25 +4720,25 @@
         <v>1.71</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="AS17">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="AT17">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="AU17">
         <v>9</v>
@@ -4929,22 +4929,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP18">
         <v>2.88</v>
       </c>
       <c r="AQ18">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AS18">
-        <v>0.97</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>3.24</v>
+        <v>3.92</v>
       </c>
       <c r="AU18">
         <v>13</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR19">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AS19">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AT19">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5338,25 +5338,25 @@
         <v>1.52</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP20">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR20">
-        <v>2.03</v>
+        <v>1.32</v>
       </c>
       <c r="AS20">
-        <v>0.91</v>
+        <v>1.46</v>
       </c>
       <c r="AT20">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5544,25 +5544,25 @@
         <v>1.26</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP21">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR21">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="AS21">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="AT21">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5750,25 +5750,25 @@
         <v>1.01</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP22">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ22">
         <v>2.88</v>
       </c>
       <c r="AR22">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AS22">
-        <v>2.57</v>
+        <v>2.93</v>
       </c>
       <c r="AT22">
-        <v>3.97</v>
+        <v>4.23</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5956,25 +5956,25 @@
         <v>2.2</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="AT23">
-        <v>3.41</v>
+        <v>2.82</v>
       </c>
       <c r="AU23">
         <v>7</v>
@@ -6162,25 +6162,25 @@
         <v>1.86</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR24">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="AS24">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT24">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6368,25 +6368,25 @@
         <v>1.43</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP25">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ25">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR25">
-        <v>0.66</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS25">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="AT25">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6574,25 +6574,25 @@
         <v>11</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP26">
         <v>2.88</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR26">
-        <v>3.12</v>
+        <v>2.87</v>
       </c>
       <c r="AS26">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT26">
-        <v>4.01</v>
+        <v>3.77</v>
       </c>
       <c r="AU26">
         <v>15</v>
@@ -6783,22 +6783,22 @@
         <v>2</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
+        <v>1.84</v>
+      </c>
+      <c r="AR27">
         <v>1.75</v>
       </c>
-      <c r="AR27">
-        <v>1.77</v>
-      </c>
       <c r="AS27">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="AT27">
-        <v>3.11</v>
+        <v>3.32</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6986,25 +6986,25 @@
         <v>1.42</v>
       </c>
       <c r="AN28">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO28">
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR28">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AS28">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="AT28">
-        <v>2.16</v>
+        <v>2.37</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7192,25 +7192,25 @@
         <v>1.5</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO29">
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ29">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR29">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AS29">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AT29">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7398,25 +7398,25 @@
         <v>1.52</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO30">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ30">
+        <v>1.34</v>
+      </c>
+      <c r="AR30">
         <v>1.13</v>
       </c>
-      <c r="AR30">
-        <v>1.01</v>
-      </c>
       <c r="AS30">
-        <v>1.1</v>
+        <v>1.42</v>
       </c>
       <c r="AT30">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="AU30">
         <v>2</v>
@@ -7604,25 +7604,25 @@
         <v>1.62</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ31">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AS31">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AT31">
-        <v>2.1</v>
+        <v>2.67</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7810,25 +7810,25 @@
         <v>1.97</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ32">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR32">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AS32">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AT32">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -8016,25 +8016,25 @@
         <v>1.31</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP33">
+        <v>0.84</v>
+      </c>
+      <c r="AQ33">
+        <v>1.38</v>
+      </c>
+      <c r="AR33">
         <v>0.75</v>
       </c>
-      <c r="AQ33">
-        <v>1.13</v>
-      </c>
-      <c r="AR33">
-        <v>0.92</v>
-      </c>
       <c r="AS33">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT33">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -8222,25 +8222,25 @@
         <v>1.53</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP34">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="AS34">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AT34">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8428,25 +8428,25 @@
         <v>2.75</v>
       </c>
       <c r="AN35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ35">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR35">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AS35">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="AT35">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8634,25 +8634,25 @@
         <v>1.17</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP36">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR36">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AS36">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AT36">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8840,25 +8840,25 @@
         <v>1.08</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP37">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ37">
         <v>2.88</v>
       </c>
       <c r="AR37">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS37">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="AT37">
-        <v>3.96</v>
+        <v>4.38</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -9046,25 +9046,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP38">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR38">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
       <c r="AS38">
-        <v>0.64</v>
+        <v>0.96</v>
       </c>
       <c r="AT38">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="AU38">
         <v>9</v>
@@ -9255,22 +9255,22 @@
         <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP39">
         <v>2.88</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR39">
-        <v>3.26</v>
+        <v>2.85</v>
       </c>
       <c r="AS39">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>4.63</v>
+        <v>4.18</v>
       </c>
       <c r="AU39">
         <v>9</v>
@@ -9461,22 +9461,22 @@
         <v>1.33</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR40">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AS40">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AT40">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9664,25 +9664,25 @@
         <v>2.08</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP41">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR41">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AS41">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AT41">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9870,25 +9870,25 @@
         <v>1.88</v>
       </c>
       <c r="AN42">
+        <v>1.17</v>
+      </c>
+      <c r="AO42">
+        <v>0.5</v>
+      </c>
+      <c r="AP42">
         <v>1.33</v>
       </c>
-      <c r="AO42">
-        <v>0.33</v>
-      </c>
-      <c r="AP42">
-        <v>1.53</v>
-      </c>
       <c r="AQ42">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AS42">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AT42">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="AU42">
         <v>7</v>
@@ -10079,22 +10079,22 @@
         <v>1.33</v>
       </c>
       <c r="AO43">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP43">
+        <v>1.53</v>
+      </c>
+      <c r="AQ43">
         <v>1.38</v>
       </c>
-      <c r="AQ43">
-        <v>1.13</v>
-      </c>
       <c r="AR43">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AS43">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT43">
-        <v>3.62</v>
+        <v>3.38</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10282,25 +10282,25 @@
         <v>1.07</v>
       </c>
       <c r="AN44">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO44">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ44">
         <v>2.88</v>
       </c>
       <c r="AR44">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AS44">
-        <v>2.43</v>
+        <v>2.79</v>
       </c>
       <c r="AT44">
-        <v>3.7</v>
+        <v>3.89</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10488,25 +10488,25 @@
         <v>1.17</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AO45">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP45">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR45">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AS45">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="AT45">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AU45">
         <v>2</v>
@@ -10694,25 +10694,25 @@
         <v>1.3</v>
       </c>
       <c r="AN46">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP46">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AT46">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10900,25 +10900,25 @@
         <v>1.14</v>
       </c>
       <c r="AN47">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP47">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR47">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AS47">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="AT47">
-        <v>2.91</v>
+        <v>2.55</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -11106,25 +11106,25 @@
         <v>1.14</v>
       </c>
       <c r="AN48">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO48">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="AP48">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR48">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AS48">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT48">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11312,25 +11312,25 @@
         <v>1.52</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO49">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP49">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR49">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AS49">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AT49">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11518,25 +11518,25 @@
         <v>1.36</v>
       </c>
       <c r="AN50">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO50">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ50">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AS50">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT50">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11727,22 +11727,22 @@
         <v>1.75</v>
       </c>
       <c r="AO51">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ51">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR51">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="AS51">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT51">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11936,19 +11936,19 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>2.88</v>
       </c>
       <c r="AR52">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AS52">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="AT52">
-        <v>3.81</v>
+        <v>4.27</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12136,25 +12136,25 @@
         <v>1.85</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR53">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS53">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT53">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12342,25 +12342,25 @@
         <v>3.75</v>
       </c>
       <c r="AN54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO54">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AP54">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ54">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR54">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AS54">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AT54">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12548,25 +12548,25 @@
         <v>2.8</v>
       </c>
       <c r="AN55">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO55">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="AP55">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR55">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="AS55">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="AT55">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12754,25 +12754,25 @@
         <v>1.38</v>
       </c>
       <c r="AN56">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AO56">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AP56">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AS56">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AT56">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -12960,25 +12960,25 @@
         <v>2</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AO57">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AP57">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ57">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR57">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AS57">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="AT57">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -13166,25 +13166,25 @@
         <v>1.42</v>
       </c>
       <c r="AN58">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AO58">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP58">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR58">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AS58">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="AT58">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="AU58">
         <v>9</v>
@@ -13372,7 +13372,7 @@
         <v>5.75</v>
       </c>
       <c r="AN59">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AO59">
         <v>1</v>
@@ -13381,16 +13381,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
-        <v>3.07</v>
+        <v>2.69</v>
       </c>
       <c r="AS59">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="AT59">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13578,25 +13578,25 @@
         <v>1.32</v>
       </c>
       <c r="AN60">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR60">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AS60">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="AT60">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13784,25 +13784,25 @@
         <v>1.72</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO61">
+        <v>1.89</v>
+      </c>
+      <c r="AP61">
+        <v>1.84</v>
+      </c>
+      <c r="AQ61">
+        <v>1.53</v>
+      </c>
+      <c r="AR61">
+        <v>1.67</v>
+      </c>
+      <c r="AS61">
         <v>1.75</v>
       </c>
-      <c r="AP61">
-        <v>1.94</v>
-      </c>
-      <c r="AQ61">
-        <v>1.67</v>
-      </c>
-      <c r="AR61">
-        <v>1.79</v>
-      </c>
-      <c r="AS61">
-        <v>1.58</v>
-      </c>
       <c r="AT61">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13990,25 +13990,25 @@
         <v>1.61</v>
       </c>
       <c r="AN62">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AO62">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ62">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR62">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AS62">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AT62">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14196,25 +14196,25 @@
         <v>1.09</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO63">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AP63">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR63">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="AS63">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>2.71</v>
+        <v>2.65</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14402,25 +14402,25 @@
         <v>1.65</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AP64">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS64">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="AT64">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14608,25 +14608,25 @@
         <v>1.08</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AO65">
         <v>2.6</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ65">
         <v>2.88</v>
       </c>
       <c r="AR65">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AS65">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="AT65">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -14814,25 +14814,25 @@
         <v>2.25</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ66">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR66">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT66">
-        <v>2.2</v>
+        <v>2.53</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -15020,25 +15020,25 @@
         <v>1.42</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO67">
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ67">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR67">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AT67">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15226,25 +15226,25 @@
         <v>1.45</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AO68">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR68">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AS68">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AT68">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AU68">
         <v>13</v>
@@ -15432,25 +15432,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AO69">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="AP69">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR69">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AS69">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="AT69">
-        <v>2.23</v>
+        <v>2.52</v>
       </c>
       <c r="AU69">
         <v>7</v>
@@ -15638,25 +15638,25 @@
         <v>1.32</v>
       </c>
       <c r="AN70">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="AO70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AS70">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15844,25 +15844,25 @@
         <v>1.35</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO71">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR71">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AS71">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AT71">
-        <v>2.91</v>
+        <v>2.82</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16050,25 +16050,25 @@
         <v>2.39</v>
       </c>
       <c r="AN72">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="AO72">
-        <v>0.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP72">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR72">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AS72">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="AT72">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16259,22 +16259,22 @@
         <v>1.67</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AP73">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR73">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AT73">
-        <v>2.53</v>
+        <v>2.79</v>
       </c>
       <c r="AU73">
         <v>10</v>
@@ -16462,25 +16462,25 @@
         <v>1.16</v>
       </c>
       <c r="AN74">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR74">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AS74">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AT74">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16668,25 +16668,25 @@
         <v>1.05</v>
       </c>
       <c r="AN75">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AO75">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AP75">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>2.88</v>
       </c>
       <c r="AR75">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AS75">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="AT75">
-        <v>4.07</v>
+        <v>4.15</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16874,25 +16874,25 @@
         <v>1.95</v>
       </c>
       <c r="AN76">
-        <v>2.17</v>
+        <v>1.42</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AP76">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ76">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR76">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AS76">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT76">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17080,25 +17080,25 @@
         <v>2.4</v>
       </c>
       <c r="AN77">
-        <v>2.67</v>
+        <v>2.23</v>
       </c>
       <c r="AO77">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AP77">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AS77">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AT77">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -17286,25 +17286,25 @@
         <v>2.88</v>
       </c>
       <c r="AN78">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AO78">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR78">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AS78">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AT78">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17492,25 +17492,25 @@
         <v>1.5</v>
       </c>
       <c r="AN79">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="AO79">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP79">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ79">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS79">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AT79">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17698,25 +17698,25 @@
         <v>2.1</v>
       </c>
       <c r="AN80">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="AO80">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR80">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AS80">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AT80">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17904,25 +17904,25 @@
         <v>1.33</v>
       </c>
       <c r="AN81">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AO81">
-        <v>0.83</v>
+        <v>1.46</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT81">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18110,25 +18110,25 @@
         <v>4.33</v>
       </c>
       <c r="AN82">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AO82">
-        <v>0.67</v>
+        <v>1.54</v>
       </c>
       <c r="AP82">
         <v>2.88</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR82">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AS82">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="AT82">
-        <v>4.64</v>
+        <v>4.15</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18316,25 +18316,25 @@
         <v>5.75</v>
       </c>
       <c r="AN83">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AO83">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AP83">
         <v>2.88</v>
       </c>
       <c r="AQ83">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR83">
-        <v>3.01</v>
+        <v>2.75</v>
       </c>
       <c r="AS83">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AT83">
-        <v>4.21</v>
+        <v>3.99</v>
       </c>
       <c r="AU83">
         <v>12</v>
@@ -18522,25 +18522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN84">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AO84">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AP84">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR84">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AS84">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="AT84">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -18728,25 +18728,25 @@
         <v>1.09</v>
       </c>
       <c r="AN85">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AO85">
         <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>2.88</v>
       </c>
       <c r="AR85">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AS85">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="AT85">
-        <v>4.08</v>
+        <v>4.2</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -18934,25 +18934,25 @@
         <v>1.88</v>
       </c>
       <c r="AN86">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO86">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ86">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR86">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AS86">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT86">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="AU86">
         <v>13</v>
@@ -19140,25 +19140,25 @@
         <v>2.14</v>
       </c>
       <c r="AN87">
-        <v>2.29</v>
+        <v>1.43</v>
       </c>
       <c r="AO87">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ87">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR87">
+        <v>1.34</v>
+      </c>
+      <c r="AS87">
         <v>1.23</v>
       </c>
-      <c r="AS87">
-        <v>1.25</v>
-      </c>
       <c r="AT87">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AU87">
         <v>2</v>
@@ -19346,25 +19346,25 @@
         <v>1.65</v>
       </c>
       <c r="AN88">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="AO88">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AP88">
+        <v>1.38</v>
+      </c>
+      <c r="AQ88">
+        <v>1.53</v>
+      </c>
+      <c r="AR88">
         <v>1.61</v>
       </c>
-      <c r="AQ88">
-        <v>1.67</v>
-      </c>
-      <c r="AR88">
-        <v>1.53</v>
-      </c>
       <c r="AS88">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AT88">
-        <v>3.18</v>
+        <v>3.23</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19552,25 +19552,25 @@
         <v>1.27</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO89">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ89">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR89">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AS89">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AT89">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU89">
         <v>6</v>
@@ -19758,25 +19758,25 @@
         <v>1.14</v>
       </c>
       <c r="AN90">
-        <v>0.2</v>
+        <v>0.79</v>
       </c>
       <c r="AO90">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AP90">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.07</v>
       </c>
       <c r="AS90">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT90">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -19964,25 +19964,25 @@
         <v>1.15</v>
       </c>
       <c r="AN91">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="AO91">
-        <v>0.57</v>
+        <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR91">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AS91">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT91">
-        <v>2.67</v>
+        <v>2.44</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20170,25 +20170,25 @@
         <v>2.3</v>
       </c>
       <c r="AN92">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AO92">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="AP92">
+        <v>1.38</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AR92">
         <v>1.61</v>
       </c>
-      <c r="AQ92">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AR92">
-        <v>1.52</v>
-      </c>
       <c r="AS92">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT92">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20376,25 +20376,25 @@
         <v>3.94</v>
       </c>
       <c r="AN93">
-        <v>2.71</v>
+        <v>2.13</v>
       </c>
       <c r="AO93">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AP93">
+        <v>1.84</v>
+      </c>
+      <c r="AQ93">
+        <v>1.34</v>
+      </c>
+      <c r="AR93">
         <v>1.94</v>
       </c>
-      <c r="AQ93">
-        <v>1.13</v>
-      </c>
-      <c r="AR93">
-        <v>1.9</v>
-      </c>
       <c r="AS93">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="AT93">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20585,22 +20585,22 @@
         <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AP94">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.59</v>
       </c>
       <c r="AS94">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AT94">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20788,25 +20788,25 @@
         <v>1.87</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AO95">
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ95">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR95">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AT95">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -20994,22 +20994,22 @@
         <v>1.32</v>
       </c>
       <c r="AN96">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AO96">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AP96">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR96">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS96">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AT96">
         <v>2.86</v>
@@ -21200,25 +21200,25 @@
         <v>1.47</v>
       </c>
       <c r="AN97">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AO97">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR97">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AS97">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT97">
-        <v>2.63</v>
+        <v>2.46</v>
       </c>
       <c r="AU97">
         <v>3</v>
@@ -21406,25 +21406,25 @@
         <v>1.7</v>
       </c>
       <c r="AN98">
-        <v>2.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AP98">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AS98">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AT98">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21612,25 +21612,25 @@
         <v>2.15</v>
       </c>
       <c r="AN99">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AO99">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP99">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR99">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AS99">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21818,25 +21818,25 @@
         <v>1.22</v>
       </c>
       <c r="AN100">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO100">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AP100">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR100">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AS100">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AT100">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22024,25 +22024,25 @@
         <v>1.01</v>
       </c>
       <c r="AN101">
-        <v>0.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO101">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AP101">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ101">
         <v>2.88</v>
       </c>
       <c r="AR101">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AS101">
-        <v>2.41</v>
+        <v>2.72</v>
       </c>
       <c r="AT101">
-        <v>3.59</v>
+        <v>3.84</v>
       </c>
       <c r="AU101">
         <v>2</v>
@@ -22233,22 +22233,22 @@
         <v>0.88</v>
       </c>
       <c r="AO102">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AP102">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ102">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR102">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS102">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="AT102">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22436,25 +22436,25 @@
         <v>2.4</v>
       </c>
       <c r="AN103">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AO103">
-        <v>1.11</v>
+        <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ103">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR103">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AS103">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AT103">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22642,25 +22642,25 @@
         <v>3.75</v>
       </c>
       <c r="AN104">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="AO104">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP104">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ104">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR104">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AS104">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AT104">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22848,25 +22848,25 @@
         <v>2.4</v>
       </c>
       <c r="AN105">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="AO105">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AP105">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR105">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AS105">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AT105">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
       <c r="AU105">
         <v>8</v>
@@ -23054,25 +23054,25 @@
         <v>1.44</v>
       </c>
       <c r="AN106">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AO106">
+        <v>1.41</v>
+      </c>
+      <c r="AP106">
+        <v>0.97</v>
+      </c>
+      <c r="AQ106">
         <v>1.38</v>
-      </c>
-      <c r="AP106">
-        <v>1</v>
-      </c>
-      <c r="AQ106">
-        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
       </c>
       <c r="AS106">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT106">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="AU106">
         <v>6</v>
@@ -23260,25 +23260,25 @@
         <v>1.57</v>
       </c>
       <c r="AN107">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AO107">
-        <v>0.88</v>
+        <v>1.47</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR107">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AS107">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AT107">
-        <v>3.03</v>
+        <v>2.91</v>
       </c>
       <c r="AU107">
         <v>3</v>
@@ -23466,25 +23466,25 @@
         <v>1.5</v>
       </c>
       <c r="AN108">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO108">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AP108">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR108">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AS108">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AT108">
-        <v>2.52</v>
+        <v>2.79</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23672,25 +23672,25 @@
         <v>3.75</v>
       </c>
       <c r="AN109">
-        <v>2.44</v>
+        <v>2.11</v>
       </c>
       <c r="AO109">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR109">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT109">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23878,7 +23878,7 @@
         <v>5.5</v>
       </c>
       <c r="AN110">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AO110">
         <v>1.22</v>
@@ -23887,16 +23887,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ110">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR110">
-        <v>3.08</v>
+        <v>2.71</v>
       </c>
       <c r="AS110">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT110">
-        <v>4.63</v>
+        <v>4.23</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -24084,25 +24084,25 @@
         <v>1.55</v>
       </c>
       <c r="AN111">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO111">
-        <v>1.13</v>
+        <v>1.71</v>
       </c>
       <c r="AP111">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR111">
+        <v>1.3</v>
+      </c>
+      <c r="AS111">
         <v>1.25</v>
       </c>
-      <c r="AS111">
-        <v>1.13</v>
-      </c>
       <c r="AT111">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24290,25 +24290,25 @@
         <v>1.02</v>
       </c>
       <c r="AN112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO112">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="AP112">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ112">
         <v>2.88</v>
       </c>
       <c r="AR112">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="AT112">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="AU112">
         <v>2</v>
@@ -24496,25 +24496,25 @@
         <v>2</v>
       </c>
       <c r="AN113">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AO113">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AP113">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ113">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR113">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AT113">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="AU113">
         <v>6</v>
@@ -24705,22 +24705,22 @@
         <v>0.78</v>
       </c>
       <c r="AO114">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AP114">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ114">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR114">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AS114">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT114">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="AU114">
         <v>4</v>
@@ -24908,25 +24908,25 @@
         <v>1.44</v>
       </c>
       <c r="AN115">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="AO115">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AP115">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR115">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AS115">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT115">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25114,22 +25114,22 @@
         <v>1.4</v>
       </c>
       <c r="AN116">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="AO116">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ116">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR116">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS116">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AT116">
         <v>2.4</v>
@@ -25320,25 +25320,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO117">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="AP117">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR117">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS117">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AT117">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25526,25 +25526,25 @@
         <v>7.5</v>
       </c>
       <c r="AN118">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AO118">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AP118">
         <v>2.88</v>
       </c>
       <c r="AQ118">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
-        <v>2.87</v>
+        <v>2.57</v>
       </c>
       <c r="AS118">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AT118">
-        <v>4.53</v>
+        <v>4.13</v>
       </c>
       <c r="AU118">
         <v>10</v>
@@ -25732,25 +25732,25 @@
         <v>1.33</v>
       </c>
       <c r="AN119">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AO119">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="AP119">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR119">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AS119">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AT119">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25938,25 +25938,25 @@
         <v>1.33</v>
       </c>
       <c r="AN120">
-        <v>0.13</v>
+        <v>0.58</v>
       </c>
       <c r="AO120">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AP120">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR120">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AS120">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="AT120">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26144,25 +26144,25 @@
         <v>1.67</v>
       </c>
       <c r="AN121">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AO121">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AP121">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR121">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AS121">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT121">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26350,25 +26350,25 @@
         <v>2.3</v>
       </c>
       <c r="AN122">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AO122">
+        <v>0.74</v>
+      </c>
+      <c r="AP122">
+        <v>1.38</v>
+      </c>
+      <c r="AQ122">
         <v>0.78</v>
       </c>
-      <c r="AP122">
-        <v>1.61</v>
-      </c>
-      <c r="AQ122">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AR122">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AT122">
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26556,25 +26556,25 @@
         <v>1.12</v>
       </c>
       <c r="AN123">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO123">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="AP123">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ123">
         <v>2.88</v>
       </c>
       <c r="AR123">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AS123">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="AT123">
-        <v>4.17</v>
+        <v>4.4</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26762,22 +26762,22 @@
         <v>2.4</v>
       </c>
       <c r="AN124">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AO124">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ124">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR124">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS124">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT124">
         <v>2.8</v>
@@ -26968,22 +26968,22 @@
         <v>1.5</v>
       </c>
       <c r="AN125">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="AO125">
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ125">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR125">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AS125">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AT125">
         <v>2.4</v>
@@ -27174,25 +27174,25 @@
         <v>1.2</v>
       </c>
       <c r="AN126">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AO126">
+        <v>1.65</v>
+      </c>
+      <c r="AP126">
+        <v>1</v>
+      </c>
+      <c r="AQ126">
+        <v>1.33</v>
+      </c>
+      <c r="AR126">
+        <v>1.34</v>
+      </c>
+      <c r="AS126">
         <v>1.44</v>
       </c>
-      <c r="AP126">
-        <v>1.19</v>
-      </c>
-      <c r="AQ126">
-        <v>1.13</v>
-      </c>
-      <c r="AR126">
-        <v>1.39</v>
-      </c>
-      <c r="AS126">
-        <v>1.29</v>
-      </c>
       <c r="AT126">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="AU126">
         <v>8</v>
@@ -27380,25 +27380,25 @@
         <v>6.5</v>
       </c>
       <c r="AN127">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AO127">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="AP127">
         <v>2.88</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR127">
-        <v>2.81</v>
+        <v>2.53</v>
       </c>
       <c r="AS127">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AT127">
-        <v>3.93</v>
+        <v>3.74</v>
       </c>
       <c r="AU127">
         <v>12</v>
@@ -27586,25 +27586,25 @@
         <v>1.44</v>
       </c>
       <c r="AN128">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AO128">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AP128">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ128">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR128">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AS128">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AT128">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27792,25 +27792,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO129">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AP129">
+        <v>1.18</v>
+      </c>
+      <c r="AQ129">
         <v>1.38</v>
       </c>
-      <c r="AQ129">
-        <v>1.13</v>
-      </c>
       <c r="AR129">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AS129">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT129">
-        <v>2.87</v>
+        <v>2.69</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27998,25 +27998,25 @@
         <v>1.54</v>
       </c>
       <c r="AN130">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AO130">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="AP130">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ130">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR130">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS130">
         <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28204,25 +28204,25 @@
         <v>1.44</v>
       </c>
       <c r="AN131">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO131">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR131">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AS131">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AT131">
-        <v>2.83</v>
+        <v>2.58</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28410,25 +28410,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO132">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ132">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
       </c>
       <c r="AS132">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="AT132">
-        <v>3.34</v>
+        <v>3.26</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28616,25 +28616,25 @@
         <v>7</v>
       </c>
       <c r="AN133">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AO133">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AP133">
         <v>2.88</v>
       </c>
       <c r="AQ133">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR133">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="AS133">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AT133">
-        <v>4.08</v>
+        <v>3.97</v>
       </c>
       <c r="AU133">
         <v>-1</v>
@@ -28822,25 +28822,25 @@
         <v>3.5</v>
       </c>
       <c r="AN134">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AO134">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AP134">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ134">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR134">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AS134">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AT134">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29440,25 +29440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN137">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AO137">
+        <v>1.55</v>
+      </c>
+      <c r="AP137">
+        <v>1.59</v>
+      </c>
+      <c r="AQ137">
         <v>1.18</v>
       </c>
-      <c r="AP137">
-        <v>1.69</v>
-      </c>
-      <c r="AQ137">
-        <v>1</v>
-      </c>
       <c r="AR137">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS137">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="AT137">
-        <v>2.33</v>
+        <v>2.57</v>
       </c>
       <c r="AU137">
         <v>8</v>
@@ -29855,22 +29855,22 @@
         <v>2.82</v>
       </c>
       <c r="AO139">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AP139">
         <v>2.88</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="AS139">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AT139">
-        <v>4.08</v>
+        <v>3.97</v>
       </c>
       <c r="AU139">
         <v>9</v>
@@ -30058,25 +30058,25 @@
         <v>1.08</v>
       </c>
       <c r="AN140">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AO140">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AP140">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ140">
         <v>2.88</v>
       </c>
       <c r="AR140">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AS140">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="AT140">
-        <v>3.67</v>
+        <v>3.97</v>
       </c>
       <c r="AU140">
         <v>6</v>
@@ -30882,25 +30882,25 @@
         <v>1.4</v>
       </c>
       <c r="AN144">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="AO144">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AP144">
+        <v>1.18</v>
+      </c>
+      <c r="AQ144">
         <v>1.38</v>
       </c>
-      <c r="AQ144">
-        <v>1.13</v>
-      </c>
       <c r="AR144">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AS144">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AT144">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31088,25 +31088,25 @@
         <v>1.22</v>
       </c>
       <c r="AN145">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="AO145">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AP145">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR145">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="AS145">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AT145">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="AU145">
         <v>7</v>
@@ -31706,25 +31706,25 @@
         <v>1.02</v>
       </c>
       <c r="AN148">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AO148">
         <v>2.83</v>
       </c>
       <c r="AP148">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
         <v>2.88</v>
       </c>
       <c r="AR148">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AS148">
-        <v>2.29</v>
+        <v>2.51</v>
       </c>
       <c r="AT148">
-        <v>3.78</v>
+        <v>4.03</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -32118,25 +32118,25 @@
         <v>1.53</v>
       </c>
       <c r="AN150">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AO150">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR150">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AS150">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AT150">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="AU150">
         <v>3</v>
@@ -32324,25 +32324,25 @@
         <v>2.75</v>
       </c>
       <c r="AN151">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AO151">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR151">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AS151">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="AT151">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32530,25 +32530,25 @@
         <v>1.21</v>
       </c>
       <c r="AN152">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AO152">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="AP152">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ152">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR152">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AS152">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AT152">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32736,25 +32736,25 @@
         <v>1.5</v>
       </c>
       <c r="AN153">
+        <v>1.32</v>
+      </c>
+      <c r="AO153">
+        <v>1.32</v>
+      </c>
+      <c r="AP153">
+        <v>1.38</v>
+      </c>
+      <c r="AQ153">
         <v>1.33</v>
       </c>
-      <c r="AO153">
-        <v>1.08</v>
-      </c>
-      <c r="AP153">
-        <v>1.61</v>
-      </c>
-      <c r="AQ153">
-        <v>1.13</v>
-      </c>
       <c r="AR153">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS153">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT153">
-        <v>2.68</v>
+        <v>2.89</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -33148,25 +33148,25 @@
         <v>8</v>
       </c>
       <c r="AN155">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="AO155">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AP155">
         <v>2.88</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR155">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="AS155">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AT155">
-        <v>3.82</v>
+        <v>3.69</v>
       </c>
       <c r="AU155">
         <v>8</v>
@@ -33766,25 +33766,25 @@
         <v>1.17</v>
       </c>
       <c r="AN158">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="AO158">
         <v>2.85</v>
       </c>
       <c r="AP158">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ158">
         <v>2.88</v>
       </c>
       <c r="AR158">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AS158">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="AT158">
-        <v>4.02</v>
+        <v>4.22</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34178,25 +34178,25 @@
         <v>1.87</v>
       </c>
       <c r="AN160">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="AO160">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AP160">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ160">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR160">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AS160">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT160">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34384,25 +34384,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="AO161">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR161">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AS161">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AT161">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34796,25 +34796,25 @@
         <v>1.3</v>
       </c>
       <c r="AN163">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AO163">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR163">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AS163">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT163">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35208,25 +35208,25 @@
         <v>1.4</v>
       </c>
       <c r="AN165">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO165">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AP165">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ165">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR165">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AS165">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AT165">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35414,25 +35414,25 @@
         <v>1.02</v>
       </c>
       <c r="AN166">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AO166">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AP166">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ166">
         <v>2.88</v>
       </c>
       <c r="AR166">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AS166">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="AT166">
-        <v>3.81</v>
+        <v>3.89</v>
       </c>
       <c r="AU166">
         <v>6</v>
@@ -36032,25 +36032,25 @@
         <v>1.67</v>
       </c>
       <c r="AN169">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AO169">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AP169">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR169">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AS169">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="AT169">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36856,25 +36856,25 @@
         <v>2.65</v>
       </c>
       <c r="AN173">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AO173">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP173">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ173">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR173">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AS173">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT173">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37268,25 +37268,25 @@
         <v>1.7</v>
       </c>
       <c r="AN175">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="AP175">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ175">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR175">
+        <v>1.44</v>
+      </c>
+      <c r="AS175">
         <v>1.39</v>
       </c>
-      <c r="AS175">
-        <v>1.29</v>
-      </c>
       <c r="AT175">
-        <v>2.68</v>
+        <v>2.83</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37474,25 +37474,25 @@
         <v>5.95</v>
       </c>
       <c r="AN176">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AO176">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AP176">
         <v>2.88</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR176">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="AS176">
         <v>1.51</v>
       </c>
       <c r="AT176">
-        <v>4.2</v>
+        <v>3.99</v>
       </c>
       <c r="AU176">
         <v>19</v>
@@ -37680,25 +37680,25 @@
         <v>1.25</v>
       </c>
       <c r="AN177">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="AO177">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AP177">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ177">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR177">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AS177">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AT177">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="AU177">
         <v>0</v>
@@ -38307,16 +38307,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ180">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR180">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT180">
-        <v>4.26</v>
+        <v>3.95</v>
       </c>
       <c r="AU180">
         <v>8</v>
@@ -38710,25 +38710,25 @@
         <v>1.74</v>
       </c>
       <c r="AN182">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AO182">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AP182">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ182">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR182">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS182">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT182">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="AU182">
         <v>6</v>
@@ -39122,25 +39122,25 @@
         <v>1.01</v>
       </c>
       <c r="AN184">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AO184">
         <v>2.87</v>
       </c>
       <c r="AP184">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ184">
         <v>2.88</v>
       </c>
       <c r="AR184">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AS184">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="AT184">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39328,25 +39328,25 @@
         <v>1.8</v>
       </c>
       <c r="AN185">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AO185">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP185">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR185">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS185">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AT185">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="AU185">
         <v>10</v>
@@ -39946,25 +39946,25 @@
         <v>1.6</v>
       </c>
       <c r="AN188">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AO188">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AP188">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR188">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS188">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AT188">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU188">
         <v>10</v>
@@ -40152,25 +40152,25 @@
         <v>1.45</v>
       </c>
       <c r="AN189">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AO189">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="AP189">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ189">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR189">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AS189">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AT189">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40361,22 +40361,22 @@
         <v>2.87</v>
       </c>
       <c r="AO190">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AP190">
         <v>2.88</v>
       </c>
       <c r="AQ190">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR190">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="AS190">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AT190">
-        <v>4.45</v>
+        <v>4.19</v>
       </c>
       <c r="AU190">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ3">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2866,25 +2866,25 @@
         <v>1.55</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR8">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>4</v>
@@ -3078,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ9">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>8</v>
@@ -3278,25 +3278,25 @@
         <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3484,25 +3484,25 @@
         <v>1.3</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>2</v>
@@ -3690,25 +3690,25 @@
         <v>1.01</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.88</v>
       </c>
       <c r="AR12">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3902,19 +3902,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ13">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR13">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4102,25 +4102,25 @@
         <v>1.24</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="AS14">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="AT14">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4308,25 +4308,25 @@
         <v>1.42</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO15">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AS15">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AT15">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4514,25 +4514,25 @@
         <v>2</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR16">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="AS16">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT16">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4720,25 +4720,25 @@
         <v>1.71</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AS17">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="AT17">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="AU17">
         <v>9</v>
@@ -4929,22 +4929,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>2.88</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR18">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>0.97</v>
       </c>
       <c r="AT18">
-        <v>3.92</v>
+        <v>3.24</v>
       </c>
       <c r="AU18">
         <v>13</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ19">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AS19">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="AT19">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5338,25 +5338,25 @@
         <v>1.52</v>
       </c>
       <c r="AN20">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ20">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR20">
-        <v>1.32</v>
+        <v>2.03</v>
       </c>
       <c r="AS20">
-        <v>1.46</v>
+        <v>0.91</v>
       </c>
       <c r="AT20">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5544,25 +5544,25 @@
         <v>1.26</v>
       </c>
       <c r="AN21">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO21">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP21">
+        <v>1.61</v>
+      </c>
+      <c r="AQ21">
+        <v>1.5</v>
+      </c>
+      <c r="AR21">
         <v>1.38</v>
       </c>
-      <c r="AQ21">
-        <v>1.59</v>
-      </c>
-      <c r="AR21">
-        <v>1.62</v>
-      </c>
       <c r="AS21">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AT21">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5750,25 +5750,25 @@
         <v>1.01</v>
       </c>
       <c r="AN22">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22">
         <v>2.88</v>
       </c>
       <c r="AR22">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AS22">
-        <v>2.93</v>
+        <v>2.57</v>
       </c>
       <c r="AT22">
-        <v>4.23</v>
+        <v>3.97</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5956,25 +5956,25 @@
         <v>2.2</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="AS23">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="AU23">
         <v>7</v>
@@ -6162,25 +6162,25 @@
         <v>1.86</v>
       </c>
       <c r="AN24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="AS24">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AT24">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6368,25 +6368,25 @@
         <v>1.43</v>
       </c>
       <c r="AN25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ25">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR25">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AS25">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="AT25">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6574,25 +6574,25 @@
         <v>11</v>
       </c>
       <c r="AN26">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP26">
         <v>2.88</v>
       </c>
       <c r="AQ26">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
-        <v>2.87</v>
+        <v>3.12</v>
       </c>
       <c r="AS26">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AT26">
-        <v>3.77</v>
+        <v>4.01</v>
       </c>
       <c r="AU26">
         <v>15</v>
@@ -6783,22 +6783,22 @@
         <v>2</v>
       </c>
       <c r="AO27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ27">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="AS27">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="AT27">
-        <v>3.32</v>
+        <v>3.11</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6986,25 +6986,25 @@
         <v>1.42</v>
       </c>
       <c r="AN28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
         <v>1.18</v>
       </c>
-      <c r="AR28">
-        <v>1.25</v>
-      </c>
       <c r="AS28">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="AT28">
-        <v>2.37</v>
+        <v>2.16</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7192,25 +7192,25 @@
         <v>1.5</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO29">
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR29">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AS29">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7398,25 +7398,25 @@
         <v>1.52</v>
       </c>
       <c r="AN30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AS30">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="AT30">
-        <v>2.55</v>
+        <v>2.11</v>
       </c>
       <c r="AU30">
         <v>2</v>
@@ -7604,25 +7604,25 @@
         <v>1.62</v>
       </c>
       <c r="AN31">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO31">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR31">
+        <v>1.13</v>
+      </c>
+      <c r="AS31">
         <v>0.97</v>
       </c>
-      <c r="AQ31">
-        <v>1</v>
-      </c>
-      <c r="AR31">
-        <v>1.38</v>
-      </c>
-      <c r="AS31">
-        <v>1.29</v>
-      </c>
       <c r="AT31">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7810,25 +7810,25 @@
         <v>1.97</v>
       </c>
       <c r="AN32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR32">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AS32">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
-        <v>2.68</v>
+        <v>2.89</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -8016,25 +8016,25 @@
         <v>1.31</v>
       </c>
       <c r="AN33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AS33">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AT33">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -8222,25 +8222,25 @@
         <v>1.53</v>
       </c>
       <c r="AN34">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR34">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="AS34">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT34">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8428,25 +8428,25 @@
         <v>2.75</v>
       </c>
       <c r="AN35">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO35">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR35">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="AT35">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8634,25 +8634,25 @@
         <v>1.17</v>
       </c>
       <c r="AN36">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ36">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AS36">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8840,25 +8840,25 @@
         <v>1.08</v>
       </c>
       <c r="AN37">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ37">
         <v>2.88</v>
       </c>
       <c r="AR37">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="AT37">
-        <v>4.38</v>
+        <v>3.96</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -9046,25 +9046,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP38">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ38">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="AS38">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="AT38">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AU38">
         <v>9</v>
@@ -9255,22 +9255,22 @@
         <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP39">
         <v>2.88</v>
       </c>
       <c r="AQ39">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
-        <v>2.85</v>
+        <v>3.26</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AT39">
-        <v>4.18</v>
+        <v>4.63</v>
       </c>
       <c r="AU39">
         <v>9</v>
@@ -9461,22 +9461,22 @@
         <v>1.33</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
+        <v>1.39</v>
+      </c>
+      <c r="AS40">
         <v>1.43</v>
       </c>
-      <c r="AS40">
-        <v>1.21</v>
-      </c>
       <c r="AT40">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9664,25 +9664,25 @@
         <v>2.08</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ41">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AS41">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AT41">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9870,25 +9870,25 @@
         <v>1.88</v>
       </c>
       <c r="AN42">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR42">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS42">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AT42">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="AU42">
         <v>7</v>
@@ -10079,22 +10079,22 @@
         <v>1.33</v>
       </c>
       <c r="AO43">
+        <v>2.33</v>
+      </c>
+      <c r="AP43">
+        <v>1.38</v>
+      </c>
+      <c r="AQ43">
+        <v>1.13</v>
+      </c>
+      <c r="AR43">
         <v>1.83</v>
       </c>
-      <c r="AP43">
-        <v>1.53</v>
-      </c>
-      <c r="AQ43">
-        <v>1.38</v>
-      </c>
-      <c r="AR43">
-        <v>1.74</v>
-      </c>
       <c r="AS43">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AT43">
-        <v>3.38</v>
+        <v>3.62</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10282,25 +10282,25 @@
         <v>1.07</v>
       </c>
       <c r="AN44">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="AO44">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>2.88</v>
       </c>
       <c r="AR44">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AS44">
-        <v>2.79</v>
+        <v>2.43</v>
       </c>
       <c r="AT44">
-        <v>3.89</v>
+        <v>3.7</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10488,25 +10488,25 @@
         <v>1.17</v>
       </c>
       <c r="AN45">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AS45">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="AT45">
-        <v>2.85</v>
+        <v>2.93</v>
       </c>
       <c r="AU45">
         <v>2</v>
@@ -10694,25 +10694,25 @@
         <v>1.3</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO46">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
       </c>
       <c r="AS46">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10900,25 +10900,25 @@
         <v>1.14</v>
       </c>
       <c r="AN47">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AO47">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ47">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AS47">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="AT47">
-        <v>2.55</v>
+        <v>2.91</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -11106,25 +11106,25 @@
         <v>1.14</v>
       </c>
       <c r="AN48">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO48">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AS48">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AT48">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11312,25 +11312,25 @@
         <v>1.52</v>
       </c>
       <c r="AN49">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ49">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS49">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT49">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11518,25 +11518,25 @@
         <v>1.36</v>
       </c>
       <c r="AN50">
+        <v>1.25</v>
+      </c>
+      <c r="AO50">
+        <v>1.5</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
         <v>1.13</v>
       </c>
-      <c r="AO50">
-        <v>1.63</v>
-      </c>
-      <c r="AP50">
-        <v>0.97</v>
-      </c>
-      <c r="AQ50">
-        <v>1.33</v>
-      </c>
       <c r="AR50">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS50">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT50">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11727,22 +11727,22 @@
         <v>1.75</v>
       </c>
       <c r="AO51">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR51">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="AS51">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11936,19 +11936,19 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ52">
         <v>2.88</v>
       </c>
       <c r="AR52">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AS52">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>4.27</v>
+        <v>3.81</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12136,25 +12136,25 @@
         <v>1.85</v>
       </c>
       <c r="AN53">
+        <v>1.75</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
         <v>1.38</v>
       </c>
-      <c r="AO53">
-        <v>0.75</v>
-      </c>
-      <c r="AP53">
-        <v>1.18</v>
-      </c>
       <c r="AQ53">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS53">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AT53">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12342,25 +12342,25 @@
         <v>3.75</v>
       </c>
       <c r="AN54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO54">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ54">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR54">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AS54">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AT54">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12548,25 +12548,25 @@
         <v>2.8</v>
       </c>
       <c r="AN55">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="AO55">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR55">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="AS55">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT55">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12754,25 +12754,25 @@
         <v>1.38</v>
       </c>
       <c r="AN56">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AO56">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AS56">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AT56">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -12960,25 +12960,25 @@
         <v>2</v>
       </c>
       <c r="AN57">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AP57">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AS57">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="AT57">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -13166,25 +13166,25 @@
         <v>1.42</v>
       </c>
       <c r="AN58">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AO58">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AS58">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AT58">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="AU58">
         <v>9</v>
@@ -13372,7 +13372,7 @@
         <v>5.75</v>
       </c>
       <c r="AN59">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AO59">
         <v>1</v>
@@ -13381,16 +13381,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ59">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
-        <v>2.69</v>
+        <v>3.07</v>
       </c>
       <c r="AS59">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT59">
-        <v>4.04</v>
+        <v>4.5</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13578,25 +13578,25 @@
         <v>1.32</v>
       </c>
       <c r="AN60">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AO60">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AS60">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="AT60">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13784,25 +13784,25 @@
         <v>1.72</v>
       </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ61">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="AT61">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13990,25 +13990,25 @@
         <v>1.61</v>
       </c>
       <c r="AN62">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO62">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP62">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR62">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS62">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AT62">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14196,25 +14196,25 @@
         <v>1.09</v>
       </c>
       <c r="AN63">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AP63">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ63">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT63">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14402,25 +14402,25 @@
         <v>1.65</v>
       </c>
       <c r="AN64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS64">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="AT64">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14608,25 +14608,25 @@
         <v>1.08</v>
       </c>
       <c r="AN65">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO65">
         <v>2.6</v>
       </c>
       <c r="AP65">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>2.88</v>
       </c>
       <c r="AR65">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="AS65">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="AT65">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -14814,25 +14814,25 @@
         <v>2.25</v>
       </c>
       <c r="AN66">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ66">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR66">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="AS66">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT66">
-        <v>2.53</v>
+        <v>2.2</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -15020,25 +15020,25 @@
         <v>1.42</v>
       </c>
       <c r="AN67">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO67">
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS67">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15226,25 +15226,25 @@
         <v>1.45</v>
       </c>
       <c r="AN68">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ68">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT68">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU68">
         <v>13</v>
@@ -15432,25 +15432,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ69">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AS69">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="AT69">
-        <v>2.52</v>
+        <v>2.23</v>
       </c>
       <c r="AU69">
         <v>7</v>
@@ -15638,25 +15638,25 @@
         <v>1.32</v>
       </c>
       <c r="AN70">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AO70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP70">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AT70">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15844,25 +15844,25 @@
         <v>1.35</v>
       </c>
       <c r="AN71">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AP71">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AS71">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT71">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16050,25 +16050,25 @@
         <v>2.39</v>
       </c>
       <c r="AN72">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="AO72">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="AP72">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ72">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS72">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AT72">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16259,22 +16259,22 @@
         <v>1.67</v>
       </c>
       <c r="AO73">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ73">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR73">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS73">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AT73">
-        <v>2.79</v>
+        <v>2.53</v>
       </c>
       <c r="AU73">
         <v>10</v>
@@ -16462,25 +16462,25 @@
         <v>1.16</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO74">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR74">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AS74">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AT74">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16668,25 +16668,25 @@
         <v>1.05</v>
       </c>
       <c r="AN75">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO75">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ75">
         <v>2.88</v>
       </c>
       <c r="AR75">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AS75">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="AT75">
-        <v>4.15</v>
+        <v>4.07</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16874,25 +16874,25 @@
         <v>1.95</v>
       </c>
       <c r="AN76">
-        <v>1.42</v>
+        <v>2.17</v>
       </c>
       <c r="AO76">
+        <v>0.83</v>
+      </c>
+      <c r="AP76">
+        <v>1.69</v>
+      </c>
+      <c r="AQ76">
+        <v>1.13</v>
+      </c>
+      <c r="AR76">
+        <v>1.16</v>
+      </c>
+      <c r="AS76">
         <v>1.08</v>
       </c>
-      <c r="AP76">
-        <v>1.59</v>
-      </c>
-      <c r="AQ76">
-        <v>1.34</v>
-      </c>
-      <c r="AR76">
-        <v>1.38</v>
-      </c>
-      <c r="AS76">
-        <v>1.2</v>
-      </c>
       <c r="AT76">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17080,25 +17080,25 @@
         <v>2.4</v>
       </c>
       <c r="AN77">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="AO77">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AS77">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AT77">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -17286,25 +17286,25 @@
         <v>2.88</v>
       </c>
       <c r="AN78">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AO78">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="AP78">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AS78">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="AT78">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17492,25 +17492,25 @@
         <v>1.5</v>
       </c>
       <c r="AN79">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AO79">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AP79">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR79">
+        <v>1.25</v>
+      </c>
+      <c r="AS79">
         <v>1.23</v>
       </c>
-      <c r="AS79">
-        <v>1.39</v>
-      </c>
       <c r="AT79">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17698,25 +17698,25 @@
         <v>2.1</v>
       </c>
       <c r="AN80">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR80">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AS80">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT80">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17904,25 +17904,25 @@
         <v>1.33</v>
       </c>
       <c r="AN81">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AO81">
-        <v>1.46</v>
+        <v>0.83</v>
       </c>
       <c r="AP81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AT81">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18110,25 +18110,25 @@
         <v>4.33</v>
       </c>
       <c r="AN82">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AO82">
-        <v>1.54</v>
+        <v>0.67</v>
       </c>
       <c r="AP82">
         <v>2.88</v>
       </c>
       <c r="AQ82">
+        <v>1.5</v>
+      </c>
+      <c r="AR82">
+        <v>3.05</v>
+      </c>
+      <c r="AS82">
         <v>1.59</v>
       </c>
-      <c r="AR82">
-        <v>2.75</v>
-      </c>
-      <c r="AS82">
-        <v>1.4</v>
-      </c>
       <c r="AT82">
-        <v>4.15</v>
+        <v>4.64</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18316,25 +18316,25 @@
         <v>5.75</v>
       </c>
       <c r="AN83">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AO83">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AP83">
         <v>2.88</v>
       </c>
       <c r="AQ83">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR83">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="AS83">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AT83">
-        <v>3.99</v>
+        <v>4.21</v>
       </c>
       <c r="AU83">
         <v>12</v>
@@ -18522,25 +18522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN84">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AO84">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ84">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AS84">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="AT84">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -18728,25 +18728,25 @@
         <v>1.09</v>
       </c>
       <c r="AN85">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AO85">
         <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85">
         <v>2.88</v>
       </c>
       <c r="AR85">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AS85">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="AT85">
-        <v>4.2</v>
+        <v>4.08</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -18934,25 +18934,25 @@
         <v>1.88</v>
       </c>
       <c r="AN86">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO86">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR86">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AS86">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AT86">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="AU86">
         <v>13</v>
@@ -19140,25 +19140,25 @@
         <v>2.14</v>
       </c>
       <c r="AN87">
-        <v>1.43</v>
+        <v>2.29</v>
       </c>
       <c r="AO87">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ87">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR87">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="AS87">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AU87">
         <v>2</v>
@@ -19346,25 +19346,25 @@
         <v>1.65</v>
       </c>
       <c r="AN88">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="AO88">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ88">
+        <v>1.67</v>
+      </c>
+      <c r="AR88">
         <v>1.53</v>
       </c>
-      <c r="AR88">
-        <v>1.61</v>
-      </c>
       <c r="AS88">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT88">
-        <v>3.23</v>
+        <v>3.18</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19552,25 +19552,25 @@
         <v>1.27</v>
       </c>
       <c r="AN89">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AP89">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR89">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AT89">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU89">
         <v>6</v>
@@ -19758,25 +19758,25 @@
         <v>1.14</v>
       </c>
       <c r="AN90">
-        <v>0.79</v>
+        <v>0.2</v>
       </c>
       <c r="AO90">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.07</v>
       </c>
       <c r="AS90">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AT90">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -19964,25 +19964,25 @@
         <v>1.15</v>
       </c>
       <c r="AN91">
-        <v>0.73</v>
+        <v>0.17</v>
       </c>
       <c r="AO91">
-        <v>1.4</v>
+        <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ91">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AS91">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AT91">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20170,25 +20170,25 @@
         <v>2.3</v>
       </c>
       <c r="AN92">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AO92">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AS92">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AT92">
-        <v>2.97</v>
+        <v>2.76</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20376,25 +20376,25 @@
         <v>3.94</v>
       </c>
       <c r="AN93">
-        <v>2.13</v>
+        <v>2.71</v>
       </c>
       <c r="AO93">
+        <v>0.75</v>
+      </c>
+      <c r="AP93">
+        <v>1.94</v>
+      </c>
+      <c r="AQ93">
         <v>1.13</v>
       </c>
-      <c r="AP93">
-        <v>1.84</v>
-      </c>
-      <c r="AQ93">
-        <v>1.34</v>
-      </c>
       <c r="AR93">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="AS93">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="AT93">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20585,22 +20585,22 @@
         <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AP94">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR94">
         <v>1.59</v>
       </c>
       <c r="AS94">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT94">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20788,25 +20788,25 @@
         <v>1.87</v>
       </c>
       <c r="AN95">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AO95">
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR95">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AS95">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -20994,22 +20994,22 @@
         <v>1.32</v>
       </c>
       <c r="AN96">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="AO96">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ96">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AS96">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AT96">
         <v>2.86</v>
@@ -21200,25 +21200,25 @@
         <v>1.47</v>
       </c>
       <c r="AN97">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AO97">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="AP97">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AS97">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT97">
-        <v>2.46</v>
+        <v>2.63</v>
       </c>
       <c r="AU97">
         <v>3</v>
@@ -21406,25 +21406,25 @@
         <v>1.7</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>2.13</v>
       </c>
       <c r="AO98">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AS98">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AT98">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21612,25 +21612,25 @@
         <v>2.15</v>
       </c>
       <c r="AN99">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="AO99">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR99">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AS99">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21818,25 +21818,25 @@
         <v>1.22</v>
       </c>
       <c r="AN100">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO100">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AS100">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT100">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22024,25 +22024,25 @@
         <v>1.01</v>
       </c>
       <c r="AN101">
-        <v>0.6899999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="AO101">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AP101">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101">
         <v>2.88</v>
       </c>
       <c r="AR101">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AS101">
-        <v>2.72</v>
+        <v>2.41</v>
       </c>
       <c r="AT101">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="AU101">
         <v>2</v>
@@ -22233,22 +22233,22 @@
         <v>0.88</v>
       </c>
       <c r="AO102">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP102">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ102">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR102">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AS102">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="AT102">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22436,25 +22436,25 @@
         <v>2.4</v>
       </c>
       <c r="AN103">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>0.65</v>
+        <v>1.11</v>
       </c>
       <c r="AP103">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AT103">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22642,25 +22642,25 @@
         <v>3.75</v>
       </c>
       <c r="AN104">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="AO104">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AS104">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT104">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22848,25 +22848,25 @@
         <v>2.4</v>
       </c>
       <c r="AN105">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AO105">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ105">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR105">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AS105">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT105">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
       <c r="AU105">
         <v>8</v>
@@ -23054,25 +23054,25 @@
         <v>1.44</v>
       </c>
       <c r="AN106">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AO106">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AP106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
       </c>
       <c r="AS106">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AT106">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="AU106">
         <v>6</v>
@@ -23260,25 +23260,25 @@
         <v>1.57</v>
       </c>
       <c r="AN107">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AO107">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AP107">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS107">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AT107">
-        <v>2.91</v>
+        <v>3.03</v>
       </c>
       <c r="AU107">
         <v>3</v>
@@ -23466,25 +23466,25 @@
         <v>1.5</v>
       </c>
       <c r="AN108">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO108">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ108">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AS108">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AT108">
-        <v>2.79</v>
+        <v>2.52</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23672,25 +23672,25 @@
         <v>3.75</v>
       </c>
       <c r="AN109">
-        <v>2.11</v>
+        <v>2.44</v>
       </c>
       <c r="AO109">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="AP109">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AS109">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23878,7 +23878,7 @@
         <v>5.5</v>
       </c>
       <c r="AN110">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AO110">
         <v>1.22</v>
@@ -23887,16 +23887,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ110">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR110">
-        <v>2.71</v>
+        <v>3.08</v>
       </c>
       <c r="AS110">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AT110">
-        <v>4.23</v>
+        <v>4.63</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -24084,25 +24084,25 @@
         <v>1.55</v>
       </c>
       <c r="AN111">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO111">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="AP111">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ111">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR111">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AS111">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AT111">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24290,25 +24290,25 @@
         <v>1.02</v>
       </c>
       <c r="AN112">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO112">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AP112">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ112">
         <v>2.88</v>
       </c>
       <c r="AR112">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AS112">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="AT112">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="AU112">
         <v>2</v>
@@ -24496,25 +24496,25 @@
         <v>2</v>
       </c>
       <c r="AN113">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AO113">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AP113">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR113">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AS113">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AT113">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="AU113">
         <v>6</v>
@@ -24705,22 +24705,22 @@
         <v>0.78</v>
       </c>
       <c r="AO114">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AP114">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ114">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR114">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT114">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="AU114">
         <v>4</v>
@@ -24908,25 +24908,25 @@
         <v>1.44</v>
       </c>
       <c r="AN115">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="AO115">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AP115">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AS115">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT115">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25114,22 +25114,22 @@
         <v>1.4</v>
       </c>
       <c r="AN116">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="AO116">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR116">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS116">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT116">
         <v>2.4</v>
@@ -25320,25 +25320,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO117">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ117">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR117">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AS117">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AT117">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25526,25 +25526,25 @@
         <v>7.5</v>
       </c>
       <c r="AN118">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="AO118">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AP118">
         <v>2.88</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR118">
-        <v>2.57</v>
+        <v>2.87</v>
       </c>
       <c r="AS118">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AT118">
-        <v>4.13</v>
+        <v>4.53</v>
       </c>
       <c r="AU118">
         <v>10</v>
@@ -25732,25 +25732,25 @@
         <v>1.33</v>
       </c>
       <c r="AN119">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ119">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR119">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AS119">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AT119">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25938,25 +25938,25 @@
         <v>1.33</v>
       </c>
       <c r="AN120">
-        <v>0.58</v>
+        <v>0.13</v>
       </c>
       <c r="AO120">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AP120">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ120">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR120">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AS120">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="AT120">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26144,25 +26144,25 @@
         <v>1.67</v>
       </c>
       <c r="AN121">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO121">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR121">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AS121">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT121">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26350,25 +26350,25 @@
         <v>2.3</v>
       </c>
       <c r="AN122">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AO122">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ122">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR122">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AS122">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26556,25 +26556,25 @@
         <v>1.12</v>
       </c>
       <c r="AN123">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AO123">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AP123">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ123">
         <v>2.88</v>
       </c>
       <c r="AR123">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AS123">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="AT123">
-        <v>4.4</v>
+        <v>4.17</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26762,22 +26762,22 @@
         <v>2.4</v>
       </c>
       <c r="AN124">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AO124">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP124">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS124">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT124">
         <v>2.8</v>
@@ -26968,22 +26968,22 @@
         <v>1.5</v>
       </c>
       <c r="AN125">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="AO125">
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ125">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR125">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS125">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT125">
         <v>2.4</v>
@@ -27174,25 +27174,25 @@
         <v>1.2</v>
       </c>
       <c r="AN126">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AO126">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ126">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR126">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS126">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AU126">
         <v>8</v>
@@ -27380,25 +27380,25 @@
         <v>6.5</v>
       </c>
       <c r="AN127">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="AO127">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="AP127">
         <v>2.88</v>
       </c>
       <c r="AQ127">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR127">
-        <v>2.53</v>
+        <v>2.81</v>
       </c>
       <c r="AS127">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AT127">
-        <v>3.74</v>
+        <v>3.93</v>
       </c>
       <c r="AU127">
         <v>12</v>
@@ -27586,25 +27586,25 @@
         <v>1.44</v>
       </c>
       <c r="AN128">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AO128">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="AP128">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR128">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS128">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT128">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27792,25 +27792,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1.4</v>
+      </c>
+      <c r="AP129">
+        <v>1.38</v>
+      </c>
+      <c r="AQ129">
+        <v>1.13</v>
+      </c>
+      <c r="AR129">
+        <v>1.3</v>
+      </c>
+      <c r="AS129">
         <v>1.57</v>
       </c>
-      <c r="AO129">
-        <v>1.43</v>
-      </c>
-      <c r="AP129">
-        <v>1.18</v>
-      </c>
-      <c r="AQ129">
-        <v>1.38</v>
-      </c>
-      <c r="AR129">
-        <v>1.16</v>
-      </c>
-      <c r="AS129">
-        <v>1.53</v>
-      </c>
       <c r="AT129">
-        <v>2.69</v>
+        <v>2.87</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27998,25 +27998,25 @@
         <v>1.54</v>
       </c>
       <c r="AN130">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AO130">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ130">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR130">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS130">
         <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28204,25 +28204,25 @@
         <v>1.44</v>
       </c>
       <c r="AN131">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO131">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AS131">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AT131">
-        <v>2.58</v>
+        <v>2.83</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28410,25 +28410,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO132">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AP132">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
       </c>
       <c r="AS132">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="AT132">
-        <v>3.26</v>
+        <v>3.34</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28616,25 +28616,25 @@
         <v>7</v>
       </c>
       <c r="AN133">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="AO133">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AP133">
         <v>2.88</v>
       </c>
       <c r="AQ133">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR133">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AS133">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AT133">
-        <v>3.97</v>
+        <v>4.08</v>
       </c>
       <c r="AU133">
         <v>-1</v>
@@ -28822,25 +28822,25 @@
         <v>3.5</v>
       </c>
       <c r="AN134">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AO134">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AP134">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR134">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AS134">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29440,25 +29440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN137">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AO137">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AP137">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ137">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR137">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS137">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AT137">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU137">
         <v>8</v>
@@ -29855,22 +29855,22 @@
         <v>2.82</v>
       </c>
       <c r="AO139">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AP139">
         <v>2.88</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AS139">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AT139">
-        <v>3.97</v>
+        <v>4.08</v>
       </c>
       <c r="AU139">
         <v>9</v>
@@ -30058,25 +30058,25 @@
         <v>1.08</v>
       </c>
       <c r="AN140">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AO140">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AP140">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ140">
         <v>2.88</v>
       </c>
       <c r="AR140">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AS140">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="AT140">
-        <v>3.97</v>
+        <v>3.67</v>
       </c>
       <c r="AU140">
         <v>6</v>
@@ -30882,25 +30882,25 @@
         <v>1.4</v>
       </c>
       <c r="AN144">
+        <v>1.91</v>
+      </c>
+      <c r="AO144">
+        <v>1.33</v>
+      </c>
+      <c r="AP144">
+        <v>1.38</v>
+      </c>
+      <c r="AQ144">
+        <v>1.13</v>
+      </c>
+      <c r="AR144">
+        <v>1.28</v>
+      </c>
+      <c r="AS144">
         <v>1.52</v>
       </c>
-      <c r="AO144">
-        <v>1.39</v>
-      </c>
-      <c r="AP144">
-        <v>1.18</v>
-      </c>
-      <c r="AQ144">
-        <v>1.38</v>
-      </c>
-      <c r="AR144">
-        <v>1.15</v>
-      </c>
-      <c r="AS144">
-        <v>1.51</v>
-      </c>
       <c r="AT144">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31088,25 +31088,25 @@
         <v>1.22</v>
       </c>
       <c r="AN145">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="AO145">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ145">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR145">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AT145">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="AU145">
         <v>7</v>
@@ -31706,25 +31706,25 @@
         <v>1.02</v>
       </c>
       <c r="AN148">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AO148">
         <v>2.83</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ148">
         <v>2.88</v>
       </c>
       <c r="AR148">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS148">
-        <v>2.51</v>
+        <v>2.29</v>
       </c>
       <c r="AT148">
-        <v>4.03</v>
+        <v>3.78</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -32118,25 +32118,25 @@
         <v>1.53</v>
       </c>
       <c r="AN150">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AO150">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AP150">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ150">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AS150">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AT150">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="AU150">
         <v>3</v>
@@ -32324,25 +32324,25 @@
         <v>2.75</v>
       </c>
       <c r="AN151">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AO151">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP151">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR151">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AS151">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="AT151">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32530,25 +32530,25 @@
         <v>1.21</v>
       </c>
       <c r="AN152">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AO152">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="AP152">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ152">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR152">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="AT152">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32736,25 +32736,25 @@
         <v>1.5</v>
       </c>
       <c r="AN153">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AO153">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="AP153">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ153">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT153">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -33148,25 +33148,25 @@
         <v>8</v>
       </c>
       <c r="AN155">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="AO155">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AP155">
         <v>2.88</v>
       </c>
       <c r="AQ155">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="AS155">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AT155">
-        <v>3.69</v>
+        <v>3.82</v>
       </c>
       <c r="AU155">
         <v>8</v>
@@ -33766,25 +33766,25 @@
         <v>1.17</v>
       </c>
       <c r="AN158">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="AO158">
         <v>2.85</v>
       </c>
       <c r="AP158">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158">
         <v>2.88</v>
       </c>
       <c r="AR158">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AS158">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="AT158">
-        <v>4.22</v>
+        <v>4.02</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34178,25 +34178,25 @@
         <v>1.87</v>
       </c>
       <c r="AN160">
+        <v>1.79</v>
+      </c>
+      <c r="AO160">
+        <v>1.31</v>
+      </c>
+      <c r="AP160">
         <v>1.69</v>
       </c>
-      <c r="AO160">
-        <v>1.38</v>
-      </c>
-      <c r="AP160">
-        <v>1.59</v>
-      </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR160">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT160">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34384,25 +34384,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AO161">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR161">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AS161">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT161">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34796,25 +34796,25 @@
         <v>1.3</v>
       </c>
       <c r="AN163">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AO163">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ163">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR163">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS163">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AT163">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35208,25 +35208,25 @@
         <v>1.4</v>
       </c>
       <c r="AN165">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO165">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP165">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ165">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AS165">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AT165">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35414,25 +35414,25 @@
         <v>1.02</v>
       </c>
       <c r="AN166">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AO166">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166">
         <v>2.88</v>
       </c>
       <c r="AR166">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AS166">
-        <v>2.49</v>
+        <v>2.32</v>
       </c>
       <c r="AT166">
-        <v>3.89</v>
+        <v>3.81</v>
       </c>
       <c r="AU166">
         <v>6</v>
@@ -36032,25 +36032,25 @@
         <v>1.67</v>
       </c>
       <c r="AN169">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AO169">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AP169">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ169">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR169">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AS169">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="AT169">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36856,25 +36856,25 @@
         <v>2.65</v>
       </c>
       <c r="AN173">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="AO173">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ173">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR173">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AS173">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37268,25 +37268,25 @@
         <v>1.7</v>
       </c>
       <c r="AN175">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AO175">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ175">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR175">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AS175">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT175">
-        <v>2.83</v>
+        <v>2.68</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37474,25 +37474,25 @@
         <v>5.95</v>
       </c>
       <c r="AN176">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AO176">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AP176">
         <v>2.88</v>
       </c>
       <c r="AQ176">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR176">
-        <v>2.48</v>
+        <v>2.69</v>
       </c>
       <c r="AS176">
         <v>1.51</v>
       </c>
       <c r="AT176">
-        <v>3.99</v>
+        <v>4.2</v>
       </c>
       <c r="AU176">
         <v>19</v>
@@ -37680,25 +37680,25 @@
         <v>1.25</v>
       </c>
       <c r="AN177">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="AO177">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AP177">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR177">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AS177">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT177">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU177">
         <v>0</v>
@@ -38307,16 +38307,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ180">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR180">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="AS180">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>3.95</v>
+        <v>4.26</v>
       </c>
       <c r="AU180">
         <v>8</v>
@@ -38710,25 +38710,25 @@
         <v>1.74</v>
       </c>
       <c r="AN182">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AO182">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AP182">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ182">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AS182">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT182">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU182">
         <v>6</v>
@@ -39122,25 +39122,25 @@
         <v>1.01</v>
       </c>
       <c r="AN184">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AO184">
         <v>2.87</v>
       </c>
       <c r="AP184">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184">
         <v>2.88</v>
       </c>
       <c r="AR184">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AS184">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="AT184">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39328,25 +39328,25 @@
         <v>1.8</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="AO185">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ185">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR185">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS185">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AT185">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="AU185">
         <v>10</v>
@@ -39946,25 +39946,25 @@
         <v>1.6</v>
       </c>
       <c r="AN188">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AO188">
+        <v>1.53</v>
+      </c>
+      <c r="AP188">
         <v>1.61</v>
       </c>
-      <c r="AP188">
-        <v>1.38</v>
-      </c>
       <c r="AQ188">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AS188">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AT188">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU188">
         <v>10</v>
@@ -40152,25 +40152,25 @@
         <v>1.45</v>
       </c>
       <c r="AN189">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AO189">
-        <v>1.32</v>
+        <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ189">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR189">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AS189">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT189">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40361,22 +40361,22 @@
         <v>2.87</v>
       </c>
       <c r="AO190">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AP190">
         <v>2.88</v>
       </c>
       <c r="AQ190">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR190">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="AS190">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AT190">
-        <v>4.19</v>
+        <v>4.45</v>
       </c>
       <c r="AU190">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -28822,25 +28822,25 @@
         <v>3.5</v>
       </c>
       <c r="AN134">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AO134">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AP134">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ134">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR134">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AS134">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AT134">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29440,25 +29440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN137">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AO137">
+        <v>1.55</v>
+      </c>
+      <c r="AP137">
+        <v>1.59</v>
+      </c>
+      <c r="AQ137">
         <v>1.18</v>
       </c>
-      <c r="AP137">
-        <v>1.69</v>
-      </c>
-      <c r="AQ137">
-        <v>1</v>
-      </c>
       <c r="AR137">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS137">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="AT137">
-        <v>2.33</v>
+        <v>2.57</v>
       </c>
       <c r="AU137">
         <v>8</v>
@@ -29855,22 +29855,22 @@
         <v>2.82</v>
       </c>
       <c r="AO139">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AP139">
         <v>2.88</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="AS139">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AT139">
-        <v>4.08</v>
+        <v>3.97</v>
       </c>
       <c r="AU139">
         <v>9</v>
@@ -30058,25 +30058,25 @@
         <v>1.08</v>
       </c>
       <c r="AN140">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AO140">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AP140">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ140">
         <v>2.88</v>
       </c>
       <c r="AR140">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AS140">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="AT140">
-        <v>3.67</v>
+        <v>3.97</v>
       </c>
       <c r="AU140">
         <v>6</v>
@@ -30882,25 +30882,25 @@
         <v>1.4</v>
       </c>
       <c r="AN144">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="AO144">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AP144">
+        <v>1.18</v>
+      </c>
+      <c r="AQ144">
         <v>1.38</v>
       </c>
-      <c r="AQ144">
-        <v>1.13</v>
-      </c>
       <c r="AR144">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AS144">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AT144">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31088,25 +31088,25 @@
         <v>1.22</v>
       </c>
       <c r="AN145">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="AO145">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AP145">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR145">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="AS145">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AT145">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="AU145">
         <v>7</v>
@@ -31706,25 +31706,25 @@
         <v>1.02</v>
       </c>
       <c r="AN148">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AO148">
         <v>2.83</v>
       </c>
       <c r="AP148">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
         <v>2.88</v>
       </c>
       <c r="AR148">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AS148">
-        <v>2.29</v>
+        <v>2.51</v>
       </c>
       <c r="AT148">
-        <v>3.78</v>
+        <v>4.03</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -32118,25 +32118,25 @@
         <v>1.53</v>
       </c>
       <c r="AN150">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AO150">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR150">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AS150">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AT150">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="AU150">
         <v>3</v>
@@ -32324,25 +32324,25 @@
         <v>2.75</v>
       </c>
       <c r="AN151">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AO151">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR151">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AS151">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="AT151">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32530,25 +32530,25 @@
         <v>1.21</v>
       </c>
       <c r="AN152">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AO152">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="AP152">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ152">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR152">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AS152">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AT152">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32736,25 +32736,25 @@
         <v>1.5</v>
       </c>
       <c r="AN153">
+        <v>1.32</v>
+      </c>
+      <c r="AO153">
+        <v>1.32</v>
+      </c>
+      <c r="AP153">
+        <v>1.38</v>
+      </c>
+      <c r="AQ153">
         <v>1.33</v>
       </c>
-      <c r="AO153">
-        <v>1.08</v>
-      </c>
-      <c r="AP153">
-        <v>1.61</v>
-      </c>
-      <c r="AQ153">
-        <v>1.13</v>
-      </c>
       <c r="AR153">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS153">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT153">
-        <v>2.68</v>
+        <v>2.89</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -33148,25 +33148,25 @@
         <v>8</v>
       </c>
       <c r="AN155">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="AO155">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AP155">
         <v>2.88</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR155">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="AS155">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AT155">
-        <v>3.82</v>
+        <v>3.69</v>
       </c>
       <c r="AU155">
         <v>8</v>
@@ -33766,25 +33766,25 @@
         <v>1.17</v>
       </c>
       <c r="AN158">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="AO158">
         <v>2.85</v>
       </c>
       <c r="AP158">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ158">
         <v>2.88</v>
       </c>
       <c r="AR158">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AS158">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="AT158">
-        <v>4.02</v>
+        <v>4.22</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34178,25 +34178,25 @@
         <v>1.87</v>
       </c>
       <c r="AN160">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="AO160">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AP160">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ160">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR160">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AS160">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT160">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34384,25 +34384,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="AO161">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR161">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AS161">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AT161">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34796,25 +34796,25 @@
         <v>1.3</v>
       </c>
       <c r="AN163">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AO163">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR163">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AS163">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT163">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35208,25 +35208,25 @@
         <v>1.4</v>
       </c>
       <c r="AN165">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO165">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AP165">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ165">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR165">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AS165">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AT165">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35414,25 +35414,25 @@
         <v>1.02</v>
       </c>
       <c r="AN166">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AO166">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AP166">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ166">
         <v>2.88</v>
       </c>
       <c r="AR166">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AS166">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="AT166">
-        <v>3.81</v>
+        <v>3.89</v>
       </c>
       <c r="AU166">
         <v>6</v>
@@ -36032,25 +36032,25 @@
         <v>1.67</v>
       </c>
       <c r="AN169">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AO169">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AP169">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR169">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AS169">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="AT169">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36856,25 +36856,25 @@
         <v>2.65</v>
       </c>
       <c r="AN173">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AO173">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP173">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ173">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR173">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AS173">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT173">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37268,25 +37268,25 @@
         <v>1.7</v>
       </c>
       <c r="AN175">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="AP175">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ175">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR175">
+        <v>1.44</v>
+      </c>
+      <c r="AS175">
         <v>1.39</v>
       </c>
-      <c r="AS175">
-        <v>1.29</v>
-      </c>
       <c r="AT175">
-        <v>2.68</v>
+        <v>2.83</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37474,25 +37474,25 @@
         <v>5.95</v>
       </c>
       <c r="AN176">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AO176">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AP176">
         <v>2.88</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR176">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="AS176">
         <v>1.51</v>
       </c>
       <c r="AT176">
-        <v>4.2</v>
+        <v>3.99</v>
       </c>
       <c r="AU176">
         <v>19</v>
@@ -37680,25 +37680,25 @@
         <v>1.25</v>
       </c>
       <c r="AN177">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="AO177">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AP177">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ177">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR177">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AS177">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AT177">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="AU177">
         <v>0</v>
@@ -38307,16 +38307,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ180">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR180">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT180">
-        <v>4.26</v>
+        <v>3.95</v>
       </c>
       <c r="AU180">
         <v>8</v>
@@ -38710,25 +38710,25 @@
         <v>1.74</v>
       </c>
       <c r="AN182">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AO182">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AP182">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ182">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR182">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS182">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT182">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="AU182">
         <v>6</v>
@@ -39122,25 +39122,25 @@
         <v>1.01</v>
       </c>
       <c r="AN184">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AO184">
         <v>2.87</v>
       </c>
       <c r="AP184">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ184">
         <v>2.88</v>
       </c>
       <c r="AR184">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AS184">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="AT184">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39328,25 +39328,25 @@
         <v>1.8</v>
       </c>
       <c r="AN185">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AO185">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP185">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR185">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS185">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AT185">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="AU185">
         <v>10</v>
@@ -39946,25 +39946,25 @@
         <v>1.6</v>
       </c>
       <c r="AN188">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AO188">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AP188">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR188">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS188">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AT188">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU188">
         <v>10</v>
@@ -40152,25 +40152,25 @@
         <v>1.45</v>
       </c>
       <c r="AN189">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AO189">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="AP189">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ189">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR189">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AS189">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AT189">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40361,22 +40361,22 @@
         <v>2.87</v>
       </c>
       <c r="AO190">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AP190">
         <v>2.88</v>
       </c>
       <c r="AQ190">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR190">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="AS190">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AT190">
-        <v>4.45</v>
+        <v>4.19</v>
       </c>
       <c r="AU190">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -28822,25 +28822,25 @@
         <v>3.5</v>
       </c>
       <c r="AN134">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AO134">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AP134">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR134">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AS134">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29440,25 +29440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN137">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AO137">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AP137">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ137">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR137">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS137">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AT137">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU137">
         <v>8</v>
@@ -29855,22 +29855,22 @@
         <v>2.82</v>
       </c>
       <c r="AO139">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AP139">
         <v>2.88</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AS139">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AT139">
-        <v>3.97</v>
+        <v>4.08</v>
       </c>
       <c r="AU139">
         <v>9</v>
@@ -30058,25 +30058,25 @@
         <v>1.08</v>
       </c>
       <c r="AN140">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AO140">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AP140">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ140">
         <v>2.88</v>
       </c>
       <c r="AR140">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AS140">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="AT140">
-        <v>3.97</v>
+        <v>3.67</v>
       </c>
       <c r="AU140">
         <v>6</v>
@@ -30882,25 +30882,25 @@
         <v>1.4</v>
       </c>
       <c r="AN144">
+        <v>1.91</v>
+      </c>
+      <c r="AO144">
+        <v>1.33</v>
+      </c>
+      <c r="AP144">
+        <v>1.38</v>
+      </c>
+      <c r="AQ144">
+        <v>1.13</v>
+      </c>
+      <c r="AR144">
+        <v>1.28</v>
+      </c>
+      <c r="AS144">
         <v>1.52</v>
       </c>
-      <c r="AO144">
-        <v>1.39</v>
-      </c>
-      <c r="AP144">
-        <v>1.18</v>
-      </c>
-      <c r="AQ144">
-        <v>1.38</v>
-      </c>
-      <c r="AR144">
-        <v>1.15</v>
-      </c>
-      <c r="AS144">
-        <v>1.51</v>
-      </c>
       <c r="AT144">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31088,25 +31088,25 @@
         <v>1.22</v>
       </c>
       <c r="AN145">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="AO145">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ145">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR145">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AT145">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="AU145">
         <v>7</v>
@@ -31706,25 +31706,25 @@
         <v>1.02</v>
       </c>
       <c r="AN148">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AO148">
         <v>2.83</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ148">
         <v>2.88</v>
       </c>
       <c r="AR148">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS148">
-        <v>2.51</v>
+        <v>2.29</v>
       </c>
       <c r="AT148">
-        <v>4.03</v>
+        <v>3.78</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -32118,25 +32118,25 @@
         <v>1.53</v>
       </c>
       <c r="AN150">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AO150">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AP150">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ150">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AS150">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AT150">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="AU150">
         <v>3</v>
@@ -32324,25 +32324,25 @@
         <v>2.75</v>
       </c>
       <c r="AN151">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AO151">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP151">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR151">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AS151">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="AT151">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32530,25 +32530,25 @@
         <v>1.21</v>
       </c>
       <c r="AN152">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AO152">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="AP152">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ152">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR152">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="AT152">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32736,25 +32736,25 @@
         <v>1.5</v>
       </c>
       <c r="AN153">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AO153">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="AP153">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ153">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT153">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -33148,25 +33148,25 @@
         <v>8</v>
       </c>
       <c r="AN155">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="AO155">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AP155">
         <v>2.88</v>
       </c>
       <c r="AQ155">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="AS155">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AT155">
-        <v>3.69</v>
+        <v>3.82</v>
       </c>
       <c r="AU155">
         <v>8</v>
@@ -33766,25 +33766,25 @@
         <v>1.17</v>
       </c>
       <c r="AN158">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="AO158">
         <v>2.85</v>
       </c>
       <c r="AP158">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158">
         <v>2.88</v>
       </c>
       <c r="AR158">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AS158">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="AT158">
-        <v>4.22</v>
+        <v>4.02</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34178,25 +34178,25 @@
         <v>1.87</v>
       </c>
       <c r="AN160">
+        <v>1.79</v>
+      </c>
+      <c r="AO160">
+        <v>1.31</v>
+      </c>
+      <c r="AP160">
         <v>1.69</v>
       </c>
-      <c r="AO160">
-        <v>1.38</v>
-      </c>
-      <c r="AP160">
-        <v>1.59</v>
-      </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR160">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT160">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34384,25 +34384,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AO161">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR161">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AS161">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT161">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34796,25 +34796,25 @@
         <v>1.3</v>
       </c>
       <c r="AN163">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AO163">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ163">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR163">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS163">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AT163">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35208,25 +35208,25 @@
         <v>1.4</v>
       </c>
       <c r="AN165">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO165">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP165">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ165">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AS165">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AT165">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35414,25 +35414,25 @@
         <v>1.02</v>
       </c>
       <c r="AN166">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AO166">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166">
         <v>2.88</v>
       </c>
       <c r="AR166">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AS166">
-        <v>2.49</v>
+        <v>2.32</v>
       </c>
       <c r="AT166">
-        <v>3.89</v>
+        <v>3.81</v>
       </c>
       <c r="AU166">
         <v>6</v>
@@ -36032,25 +36032,25 @@
         <v>1.67</v>
       </c>
       <c r="AN169">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AO169">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AP169">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ169">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR169">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AS169">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="AT169">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36856,25 +36856,25 @@
         <v>2.65</v>
       </c>
       <c r="AN173">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="AO173">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ173">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR173">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AS173">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37268,25 +37268,25 @@
         <v>1.7</v>
       </c>
       <c r="AN175">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AO175">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ175">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR175">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AS175">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT175">
-        <v>2.83</v>
+        <v>2.68</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37474,25 +37474,25 @@
         <v>5.95</v>
       </c>
       <c r="AN176">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AO176">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AP176">
         <v>2.88</v>
       </c>
       <c r="AQ176">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR176">
-        <v>2.48</v>
+        <v>2.69</v>
       </c>
       <c r="AS176">
         <v>1.51</v>
       </c>
       <c r="AT176">
-        <v>3.99</v>
+        <v>4.2</v>
       </c>
       <c r="AU176">
         <v>19</v>
@@ -37680,25 +37680,25 @@
         <v>1.25</v>
       </c>
       <c r="AN177">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="AO177">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AP177">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR177">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AS177">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT177">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU177">
         <v>0</v>
@@ -38307,16 +38307,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ180">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR180">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="AS180">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>3.95</v>
+        <v>4.26</v>
       </c>
       <c r="AU180">
         <v>8</v>
@@ -38710,25 +38710,25 @@
         <v>1.74</v>
       </c>
       <c r="AN182">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AO182">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AP182">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ182">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AS182">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT182">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU182">
         <v>6</v>
@@ -39122,25 +39122,25 @@
         <v>1.01</v>
       </c>
       <c r="AN184">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AO184">
         <v>2.87</v>
       </c>
       <c r="AP184">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184">
         <v>2.88</v>
       </c>
       <c r="AR184">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AS184">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="AT184">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39328,25 +39328,25 @@
         <v>1.8</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="AO185">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ185">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR185">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS185">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AT185">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="AU185">
         <v>10</v>
@@ -39946,25 +39946,25 @@
         <v>1.6</v>
       </c>
       <c r="AN188">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AO188">
+        <v>1.53</v>
+      </c>
+      <c r="AP188">
         <v>1.61</v>
       </c>
-      <c r="AP188">
-        <v>1.38</v>
-      </c>
       <c r="AQ188">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AS188">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AT188">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU188">
         <v>10</v>
@@ -40152,25 +40152,25 @@
         <v>1.45</v>
       </c>
       <c r="AN189">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AO189">
-        <v>1.32</v>
+        <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ189">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR189">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AS189">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT189">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40361,22 +40361,22 @@
         <v>2.87</v>
       </c>
       <c r="AO190">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AP190">
         <v>2.88</v>
       </c>
       <c r="AQ190">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR190">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="AS190">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AT190">
-        <v>4.19</v>
+        <v>4.45</v>
       </c>
       <c r="AU190">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ3">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2866,25 +2866,25 @@
         <v>1.55</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR8">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>4</v>
@@ -3078,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ9">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>8</v>
@@ -3278,25 +3278,25 @@
         <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3484,25 +3484,25 @@
         <v>1.3</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>2</v>
@@ -3690,25 +3690,25 @@
         <v>1.01</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.88</v>
       </c>
       <c r="AR12">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3902,19 +3902,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ13">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR13">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4102,25 +4102,25 @@
         <v>1.24</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="AS14">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="AT14">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4308,25 +4308,25 @@
         <v>1.42</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO15">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AS15">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AT15">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4514,25 +4514,25 @@
         <v>2</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR16">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="AS16">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT16">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4720,25 +4720,25 @@
         <v>1.71</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AS17">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="AT17">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="AU17">
         <v>9</v>
@@ -4929,22 +4929,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>2.88</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR18">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>0.97</v>
       </c>
       <c r="AT18">
-        <v>3.92</v>
+        <v>3.24</v>
       </c>
       <c r="AU18">
         <v>13</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ19">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AS19">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="AT19">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5338,25 +5338,25 @@
         <v>1.52</v>
       </c>
       <c r="AN20">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ20">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR20">
-        <v>1.32</v>
+        <v>2.03</v>
       </c>
       <c r="AS20">
-        <v>1.46</v>
+        <v>0.91</v>
       </c>
       <c r="AT20">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5544,25 +5544,25 @@
         <v>1.26</v>
       </c>
       <c r="AN21">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO21">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP21">
+        <v>1.61</v>
+      </c>
+      <c r="AQ21">
+        <v>1.5</v>
+      </c>
+      <c r="AR21">
         <v>1.38</v>
       </c>
-      <c r="AQ21">
-        <v>1.59</v>
-      </c>
-      <c r="AR21">
-        <v>1.62</v>
-      </c>
       <c r="AS21">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AT21">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5750,25 +5750,25 @@
         <v>1.01</v>
       </c>
       <c r="AN22">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22">
         <v>2.88</v>
       </c>
       <c r="AR22">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AS22">
-        <v>2.93</v>
+        <v>2.57</v>
       </c>
       <c r="AT22">
-        <v>4.23</v>
+        <v>3.97</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5956,25 +5956,25 @@
         <v>2.2</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="AS23">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="AU23">
         <v>7</v>
@@ -6162,25 +6162,25 @@
         <v>1.86</v>
       </c>
       <c r="AN24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="AS24">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AT24">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6368,25 +6368,25 @@
         <v>1.43</v>
       </c>
       <c r="AN25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ25">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR25">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AS25">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="AT25">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6574,25 +6574,25 @@
         <v>11</v>
       </c>
       <c r="AN26">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP26">
         <v>2.88</v>
       </c>
       <c r="AQ26">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
-        <v>2.87</v>
+        <v>3.12</v>
       </c>
       <c r="AS26">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AT26">
-        <v>3.77</v>
+        <v>4.01</v>
       </c>
       <c r="AU26">
         <v>15</v>
@@ -6783,22 +6783,22 @@
         <v>2</v>
       </c>
       <c r="AO27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ27">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="AS27">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="AT27">
-        <v>3.32</v>
+        <v>3.11</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6986,25 +6986,25 @@
         <v>1.42</v>
       </c>
       <c r="AN28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
         <v>1.18</v>
       </c>
-      <c r="AR28">
-        <v>1.25</v>
-      </c>
       <c r="AS28">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="AT28">
-        <v>2.37</v>
+        <v>2.16</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7192,25 +7192,25 @@
         <v>1.5</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO29">
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR29">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AS29">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7398,25 +7398,25 @@
         <v>1.52</v>
       </c>
       <c r="AN30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AS30">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="AT30">
-        <v>2.55</v>
+        <v>2.11</v>
       </c>
       <c r="AU30">
         <v>2</v>
@@ -7604,25 +7604,25 @@
         <v>1.62</v>
       </c>
       <c r="AN31">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO31">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR31">
+        <v>1.13</v>
+      </c>
+      <c r="AS31">
         <v>0.97</v>
       </c>
-      <c r="AQ31">
-        <v>1</v>
-      </c>
-      <c r="AR31">
-        <v>1.38</v>
-      </c>
-      <c r="AS31">
-        <v>1.29</v>
-      </c>
       <c r="AT31">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7810,25 +7810,25 @@
         <v>1.97</v>
       </c>
       <c r="AN32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR32">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AS32">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
-        <v>2.68</v>
+        <v>2.89</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -8016,25 +8016,25 @@
         <v>1.31</v>
       </c>
       <c r="AN33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AS33">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AT33">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -8222,25 +8222,25 @@
         <v>1.53</v>
       </c>
       <c r="AN34">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR34">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="AS34">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT34">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8428,25 +8428,25 @@
         <v>2.75</v>
       </c>
       <c r="AN35">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO35">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR35">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="AT35">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8634,25 +8634,25 @@
         <v>1.17</v>
       </c>
       <c r="AN36">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ36">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AS36">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8840,25 +8840,25 @@
         <v>1.08</v>
       </c>
       <c r="AN37">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ37">
         <v>2.88</v>
       </c>
       <c r="AR37">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="AT37">
-        <v>4.38</v>
+        <v>3.96</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -9046,25 +9046,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP38">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ38">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="AS38">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="AT38">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AU38">
         <v>9</v>
@@ -9255,22 +9255,22 @@
         <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP39">
         <v>2.88</v>
       </c>
       <c r="AQ39">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
-        <v>2.85</v>
+        <v>3.26</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AT39">
-        <v>4.18</v>
+        <v>4.63</v>
       </c>
       <c r="AU39">
         <v>9</v>
@@ -9461,22 +9461,22 @@
         <v>1.33</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
+        <v>1.39</v>
+      </c>
+      <c r="AS40">
         <v>1.43</v>
       </c>
-      <c r="AS40">
-        <v>1.21</v>
-      </c>
       <c r="AT40">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9664,25 +9664,25 @@
         <v>2.08</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ41">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AS41">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AT41">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9870,25 +9870,25 @@
         <v>1.88</v>
       </c>
       <c r="AN42">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR42">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS42">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AT42">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="AU42">
         <v>7</v>
@@ -10079,22 +10079,22 @@
         <v>1.33</v>
       </c>
       <c r="AO43">
+        <v>2.33</v>
+      </c>
+      <c r="AP43">
+        <v>1.38</v>
+      </c>
+      <c r="AQ43">
+        <v>1.13</v>
+      </c>
+      <c r="AR43">
         <v>1.83</v>
       </c>
-      <c r="AP43">
-        <v>1.53</v>
-      </c>
-      <c r="AQ43">
-        <v>1.38</v>
-      </c>
-      <c r="AR43">
-        <v>1.74</v>
-      </c>
       <c r="AS43">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AT43">
-        <v>3.38</v>
+        <v>3.62</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10282,25 +10282,25 @@
         <v>1.07</v>
       </c>
       <c r="AN44">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="AO44">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>2.88</v>
       </c>
       <c r="AR44">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AS44">
-        <v>2.79</v>
+        <v>2.43</v>
       </c>
       <c r="AT44">
-        <v>3.89</v>
+        <v>3.7</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10488,25 +10488,25 @@
         <v>1.17</v>
       </c>
       <c r="AN45">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AS45">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="AT45">
-        <v>2.85</v>
+        <v>2.93</v>
       </c>
       <c r="AU45">
         <v>2</v>
@@ -10694,25 +10694,25 @@
         <v>1.3</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO46">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
       </c>
       <c r="AS46">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10900,25 +10900,25 @@
         <v>1.14</v>
       </c>
       <c r="AN47">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AO47">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ47">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AS47">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="AT47">
-        <v>2.55</v>
+        <v>2.91</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -11106,25 +11106,25 @@
         <v>1.14</v>
       </c>
       <c r="AN48">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO48">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AS48">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AT48">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11312,25 +11312,25 @@
         <v>1.52</v>
       </c>
       <c r="AN49">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ49">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS49">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT49">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11518,25 +11518,25 @@
         <v>1.36</v>
       </c>
       <c r="AN50">
+        <v>1.25</v>
+      </c>
+      <c r="AO50">
+        <v>1.5</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
         <v>1.13</v>
       </c>
-      <c r="AO50">
-        <v>1.63</v>
-      </c>
-      <c r="AP50">
-        <v>0.97</v>
-      </c>
-      <c r="AQ50">
-        <v>1.33</v>
-      </c>
       <c r="AR50">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS50">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT50">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11727,22 +11727,22 @@
         <v>1.75</v>
       </c>
       <c r="AO51">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR51">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="AS51">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11936,19 +11936,19 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ52">
         <v>2.88</v>
       </c>
       <c r="AR52">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AS52">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>4.27</v>
+        <v>3.81</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12136,25 +12136,25 @@
         <v>1.85</v>
       </c>
       <c r="AN53">
+        <v>1.75</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
         <v>1.38</v>
       </c>
-      <c r="AO53">
-        <v>0.75</v>
-      </c>
-      <c r="AP53">
-        <v>1.18</v>
-      </c>
       <c r="AQ53">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS53">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AT53">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12342,25 +12342,25 @@
         <v>3.75</v>
       </c>
       <c r="AN54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO54">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ54">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR54">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AS54">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AT54">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12548,25 +12548,25 @@
         <v>2.8</v>
       </c>
       <c r="AN55">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="AO55">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR55">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="AS55">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT55">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12754,25 +12754,25 @@
         <v>1.38</v>
       </c>
       <c r="AN56">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AO56">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AS56">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AT56">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -12960,25 +12960,25 @@
         <v>2</v>
       </c>
       <c r="AN57">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AP57">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AS57">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="AT57">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -13166,25 +13166,25 @@
         <v>1.42</v>
       </c>
       <c r="AN58">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AO58">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AS58">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AT58">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="AU58">
         <v>9</v>
@@ -13372,7 +13372,7 @@
         <v>5.75</v>
       </c>
       <c r="AN59">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AO59">
         <v>1</v>
@@ -13381,16 +13381,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ59">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
-        <v>2.69</v>
+        <v>3.07</v>
       </c>
       <c r="AS59">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT59">
-        <v>4.04</v>
+        <v>4.5</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13578,25 +13578,25 @@
         <v>1.32</v>
       </c>
       <c r="AN60">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AO60">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AS60">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="AT60">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13784,25 +13784,25 @@
         <v>1.72</v>
       </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ61">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="AT61">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13990,25 +13990,25 @@
         <v>1.61</v>
       </c>
       <c r="AN62">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO62">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP62">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR62">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS62">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AT62">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14196,25 +14196,25 @@
         <v>1.09</v>
       </c>
       <c r="AN63">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AP63">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ63">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT63">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14402,25 +14402,25 @@
         <v>1.65</v>
       </c>
       <c r="AN64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS64">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="AT64">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14608,25 +14608,25 @@
         <v>1.08</v>
       </c>
       <c r="AN65">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO65">
         <v>2.6</v>
       </c>
       <c r="AP65">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>2.88</v>
       </c>
       <c r="AR65">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="AS65">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="AT65">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -14814,25 +14814,25 @@
         <v>2.25</v>
       </c>
       <c r="AN66">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ66">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR66">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="AS66">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT66">
-        <v>2.53</v>
+        <v>2.2</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -15020,25 +15020,25 @@
         <v>1.42</v>
       </c>
       <c r="AN67">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO67">
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS67">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15226,25 +15226,25 @@
         <v>1.45</v>
       </c>
       <c r="AN68">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ68">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT68">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU68">
         <v>13</v>
@@ -15432,25 +15432,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ69">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AS69">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="AT69">
-        <v>2.52</v>
+        <v>2.23</v>
       </c>
       <c r="AU69">
         <v>7</v>
@@ -15638,25 +15638,25 @@
         <v>1.32</v>
       </c>
       <c r="AN70">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AO70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP70">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AT70">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15844,25 +15844,25 @@
         <v>1.35</v>
       </c>
       <c r="AN71">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AP71">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AS71">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT71">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16050,25 +16050,25 @@
         <v>2.39</v>
       </c>
       <c r="AN72">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="AO72">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="AP72">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ72">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS72">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AT72">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16259,22 +16259,22 @@
         <v>1.67</v>
       </c>
       <c r="AO73">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ73">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR73">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS73">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AT73">
-        <v>2.79</v>
+        <v>2.53</v>
       </c>
       <c r="AU73">
         <v>10</v>
@@ -16462,25 +16462,25 @@
         <v>1.16</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO74">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR74">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AS74">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AT74">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16668,25 +16668,25 @@
         <v>1.05</v>
       </c>
       <c r="AN75">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO75">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ75">
         <v>2.88</v>
       </c>
       <c r="AR75">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AS75">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="AT75">
-        <v>4.15</v>
+        <v>4.07</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16874,25 +16874,25 @@
         <v>1.95</v>
       </c>
       <c r="AN76">
-        <v>1.42</v>
+        <v>2.17</v>
       </c>
       <c r="AO76">
+        <v>0.83</v>
+      </c>
+      <c r="AP76">
+        <v>1.69</v>
+      </c>
+      <c r="AQ76">
+        <v>1.13</v>
+      </c>
+      <c r="AR76">
+        <v>1.16</v>
+      </c>
+      <c r="AS76">
         <v>1.08</v>
       </c>
-      <c r="AP76">
-        <v>1.59</v>
-      </c>
-      <c r="AQ76">
-        <v>1.34</v>
-      </c>
-      <c r="AR76">
-        <v>1.38</v>
-      </c>
-      <c r="AS76">
-        <v>1.2</v>
-      </c>
       <c r="AT76">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17080,25 +17080,25 @@
         <v>2.4</v>
       </c>
       <c r="AN77">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="AO77">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AS77">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AT77">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -17286,25 +17286,25 @@
         <v>2.88</v>
       </c>
       <c r="AN78">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AO78">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="AP78">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AS78">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="AT78">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17492,25 +17492,25 @@
         <v>1.5</v>
       </c>
       <c r="AN79">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AO79">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AP79">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR79">
+        <v>1.25</v>
+      </c>
+      <c r="AS79">
         <v>1.23</v>
       </c>
-      <c r="AS79">
-        <v>1.39</v>
-      </c>
       <c r="AT79">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17698,25 +17698,25 @@
         <v>2.1</v>
       </c>
       <c r="AN80">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR80">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AS80">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT80">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17904,25 +17904,25 @@
         <v>1.33</v>
       </c>
       <c r="AN81">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AO81">
-        <v>1.46</v>
+        <v>0.83</v>
       </c>
       <c r="AP81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AT81">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18110,25 +18110,25 @@
         <v>4.33</v>
       </c>
       <c r="AN82">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AO82">
-        <v>1.54</v>
+        <v>0.67</v>
       </c>
       <c r="AP82">
         <v>2.88</v>
       </c>
       <c r="AQ82">
+        <v>1.5</v>
+      </c>
+      <c r="AR82">
+        <v>3.05</v>
+      </c>
+      <c r="AS82">
         <v>1.59</v>
       </c>
-      <c r="AR82">
-        <v>2.75</v>
-      </c>
-      <c r="AS82">
-        <v>1.4</v>
-      </c>
       <c r="AT82">
-        <v>4.15</v>
+        <v>4.64</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18316,25 +18316,25 @@
         <v>5.75</v>
       </c>
       <c r="AN83">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AO83">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AP83">
         <v>2.88</v>
       </c>
       <c r="AQ83">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR83">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="AS83">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AT83">
-        <v>3.99</v>
+        <v>4.21</v>
       </c>
       <c r="AU83">
         <v>12</v>
@@ -18522,25 +18522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN84">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AO84">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ84">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AS84">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="AT84">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -18728,25 +18728,25 @@
         <v>1.09</v>
       </c>
       <c r="AN85">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AO85">
         <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85">
         <v>2.88</v>
       </c>
       <c r="AR85">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AS85">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="AT85">
-        <v>4.2</v>
+        <v>4.08</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -18934,25 +18934,25 @@
         <v>1.88</v>
       </c>
       <c r="AN86">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO86">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR86">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AS86">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AT86">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="AU86">
         <v>13</v>
@@ -19140,25 +19140,25 @@
         <v>2.14</v>
       </c>
       <c r="AN87">
-        <v>1.43</v>
+        <v>2.29</v>
       </c>
       <c r="AO87">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ87">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR87">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="AS87">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AU87">
         <v>2</v>
@@ -19346,25 +19346,25 @@
         <v>1.65</v>
       </c>
       <c r="AN88">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="AO88">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ88">
+        <v>1.67</v>
+      </c>
+      <c r="AR88">
         <v>1.53</v>
       </c>
-      <c r="AR88">
-        <v>1.61</v>
-      </c>
       <c r="AS88">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT88">
-        <v>3.23</v>
+        <v>3.18</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19552,25 +19552,25 @@
         <v>1.27</v>
       </c>
       <c r="AN89">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AP89">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR89">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AT89">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU89">
         <v>6</v>
@@ -19758,25 +19758,25 @@
         <v>1.14</v>
       </c>
       <c r="AN90">
-        <v>0.79</v>
+        <v>0.2</v>
       </c>
       <c r="AO90">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.07</v>
       </c>
       <c r="AS90">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AT90">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -19964,25 +19964,25 @@
         <v>1.15</v>
       </c>
       <c r="AN91">
-        <v>0.73</v>
+        <v>0.17</v>
       </c>
       <c r="AO91">
-        <v>1.4</v>
+        <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ91">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AS91">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AT91">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20170,25 +20170,25 @@
         <v>2.3</v>
       </c>
       <c r="AN92">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AO92">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AS92">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AT92">
-        <v>2.97</v>
+        <v>2.76</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20376,25 +20376,25 @@
         <v>3.94</v>
       </c>
       <c r="AN93">
-        <v>2.13</v>
+        <v>2.71</v>
       </c>
       <c r="AO93">
+        <v>0.75</v>
+      </c>
+      <c r="AP93">
+        <v>1.94</v>
+      </c>
+      <c r="AQ93">
         <v>1.13</v>
       </c>
-      <c r="AP93">
-        <v>1.84</v>
-      </c>
-      <c r="AQ93">
-        <v>1.34</v>
-      </c>
       <c r="AR93">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="AS93">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="AT93">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20585,22 +20585,22 @@
         <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AP94">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR94">
         <v>1.59</v>
       </c>
       <c r="AS94">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT94">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20788,25 +20788,25 @@
         <v>1.87</v>
       </c>
       <c r="AN95">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AO95">
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR95">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AS95">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -20994,22 +20994,22 @@
         <v>1.32</v>
       </c>
       <c r="AN96">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="AO96">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ96">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AS96">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AT96">
         <v>2.86</v>
@@ -21200,25 +21200,25 @@
         <v>1.47</v>
       </c>
       <c r="AN97">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AO97">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="AP97">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AS97">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT97">
-        <v>2.46</v>
+        <v>2.63</v>
       </c>
       <c r="AU97">
         <v>3</v>
@@ -21406,25 +21406,25 @@
         <v>1.7</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>2.13</v>
       </c>
       <c r="AO98">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AS98">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AT98">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21612,25 +21612,25 @@
         <v>2.15</v>
       </c>
       <c r="AN99">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="AO99">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR99">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AS99">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21818,25 +21818,25 @@
         <v>1.22</v>
       </c>
       <c r="AN100">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO100">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AS100">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT100">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22024,25 +22024,25 @@
         <v>1.01</v>
       </c>
       <c r="AN101">
-        <v>0.6899999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="AO101">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AP101">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101">
         <v>2.88</v>
       </c>
       <c r="AR101">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AS101">
-        <v>2.72</v>
+        <v>2.41</v>
       </c>
       <c r="AT101">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="AU101">
         <v>2</v>
@@ -22233,22 +22233,22 @@
         <v>0.88</v>
       </c>
       <c r="AO102">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP102">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ102">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR102">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AS102">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="AT102">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22436,25 +22436,25 @@
         <v>2.4</v>
       </c>
       <c r="AN103">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>0.65</v>
+        <v>1.11</v>
       </c>
       <c r="AP103">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AT103">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22642,25 +22642,25 @@
         <v>3.75</v>
       </c>
       <c r="AN104">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="AO104">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AS104">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT104">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22848,25 +22848,25 @@
         <v>2.4</v>
       </c>
       <c r="AN105">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AO105">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ105">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR105">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AS105">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT105">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
       <c r="AU105">
         <v>8</v>
@@ -23054,25 +23054,25 @@
         <v>1.44</v>
       </c>
       <c r="AN106">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AO106">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AP106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
       </c>
       <c r="AS106">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AT106">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="AU106">
         <v>6</v>
@@ -23260,25 +23260,25 @@
         <v>1.57</v>
       </c>
       <c r="AN107">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AO107">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AP107">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS107">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AT107">
-        <v>2.91</v>
+        <v>3.03</v>
       </c>
       <c r="AU107">
         <v>3</v>
@@ -23466,25 +23466,25 @@
         <v>1.5</v>
       </c>
       <c r="AN108">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO108">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ108">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AS108">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AT108">
-        <v>2.79</v>
+        <v>2.52</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23672,25 +23672,25 @@
         <v>3.75</v>
       </c>
       <c r="AN109">
-        <v>2.11</v>
+        <v>2.44</v>
       </c>
       <c r="AO109">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="AP109">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AS109">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23878,7 +23878,7 @@
         <v>5.5</v>
       </c>
       <c r="AN110">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AO110">
         <v>1.22</v>
@@ -23887,16 +23887,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ110">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR110">
-        <v>2.71</v>
+        <v>3.08</v>
       </c>
       <c r="AS110">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AT110">
-        <v>4.23</v>
+        <v>4.63</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -24084,25 +24084,25 @@
         <v>1.55</v>
       </c>
       <c r="AN111">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO111">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="AP111">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ111">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR111">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AS111">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AT111">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24290,25 +24290,25 @@
         <v>1.02</v>
       </c>
       <c r="AN112">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO112">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AP112">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ112">
         <v>2.88</v>
       </c>
       <c r="AR112">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AS112">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="AT112">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="AU112">
         <v>2</v>
@@ -24496,25 +24496,25 @@
         <v>2</v>
       </c>
       <c r="AN113">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AO113">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AP113">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR113">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AS113">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AT113">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="AU113">
         <v>6</v>
@@ -24705,22 +24705,22 @@
         <v>0.78</v>
       </c>
       <c r="AO114">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AP114">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ114">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR114">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT114">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="AU114">
         <v>4</v>
@@ -24908,25 +24908,25 @@
         <v>1.44</v>
       </c>
       <c r="AN115">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="AO115">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AP115">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AS115">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT115">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25114,22 +25114,22 @@
         <v>1.4</v>
       </c>
       <c r="AN116">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="AO116">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR116">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS116">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT116">
         <v>2.4</v>
@@ -25320,25 +25320,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO117">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ117">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR117">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AS117">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AT117">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25526,25 +25526,25 @@
         <v>7.5</v>
       </c>
       <c r="AN118">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="AO118">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AP118">
         <v>2.88</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR118">
-        <v>2.57</v>
+        <v>2.87</v>
       </c>
       <c r="AS118">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AT118">
-        <v>4.13</v>
+        <v>4.53</v>
       </c>
       <c r="AU118">
         <v>10</v>
@@ -25732,25 +25732,25 @@
         <v>1.33</v>
       </c>
       <c r="AN119">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ119">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR119">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AS119">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AT119">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25938,25 +25938,25 @@
         <v>1.33</v>
       </c>
       <c r="AN120">
-        <v>0.58</v>
+        <v>0.13</v>
       </c>
       <c r="AO120">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AP120">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ120">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR120">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AS120">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="AT120">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26144,25 +26144,25 @@
         <v>1.67</v>
       </c>
       <c r="AN121">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO121">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR121">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AS121">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT121">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26350,25 +26350,25 @@
         <v>2.3</v>
       </c>
       <c r="AN122">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AO122">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ122">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR122">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AS122">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26556,25 +26556,25 @@
         <v>1.12</v>
       </c>
       <c r="AN123">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AO123">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AP123">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ123">
         <v>2.88</v>
       </c>
       <c r="AR123">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AS123">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="AT123">
-        <v>4.4</v>
+        <v>4.17</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26762,22 +26762,22 @@
         <v>2.4</v>
       </c>
       <c r="AN124">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AO124">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP124">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS124">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT124">
         <v>2.8</v>
@@ -26968,22 +26968,22 @@
         <v>1.5</v>
       </c>
       <c r="AN125">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="AO125">
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ125">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR125">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS125">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT125">
         <v>2.4</v>
@@ -27174,25 +27174,25 @@
         <v>1.2</v>
       </c>
       <c r="AN126">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AO126">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ126">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR126">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS126">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AU126">
         <v>8</v>
@@ -27380,25 +27380,25 @@
         <v>6.5</v>
       </c>
       <c r="AN127">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="AO127">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="AP127">
         <v>2.88</v>
       </c>
       <c r="AQ127">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR127">
-        <v>2.53</v>
+        <v>2.81</v>
       </c>
       <c r="AS127">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AT127">
-        <v>3.74</v>
+        <v>3.93</v>
       </c>
       <c r="AU127">
         <v>12</v>
@@ -27586,25 +27586,25 @@
         <v>1.44</v>
       </c>
       <c r="AN128">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AO128">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="AP128">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR128">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS128">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT128">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27792,25 +27792,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1.4</v>
+      </c>
+      <c r="AP129">
+        <v>1.38</v>
+      </c>
+      <c r="AQ129">
+        <v>1.13</v>
+      </c>
+      <c r="AR129">
+        <v>1.3</v>
+      </c>
+      <c r="AS129">
         <v>1.57</v>
       </c>
-      <c r="AO129">
-        <v>1.43</v>
-      </c>
-      <c r="AP129">
-        <v>1.18</v>
-      </c>
-      <c r="AQ129">
-        <v>1.38</v>
-      </c>
-      <c r="AR129">
-        <v>1.16</v>
-      </c>
-      <c r="AS129">
-        <v>1.53</v>
-      </c>
       <c r="AT129">
-        <v>2.69</v>
+        <v>2.87</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27998,25 +27998,25 @@
         <v>1.54</v>
       </c>
       <c r="AN130">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AO130">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ130">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR130">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS130">
         <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28204,25 +28204,25 @@
         <v>1.44</v>
       </c>
       <c r="AN131">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO131">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AS131">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AT131">
-        <v>2.58</v>
+        <v>2.83</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28410,25 +28410,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO132">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AP132">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
       </c>
       <c r="AS132">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="AT132">
-        <v>3.26</v>
+        <v>3.34</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28616,25 +28616,25 @@
         <v>7</v>
       </c>
       <c r="AN133">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="AO133">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AP133">
         <v>2.88</v>
       </c>
       <c r="AQ133">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR133">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AS133">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AT133">
-        <v>3.97</v>
+        <v>4.08</v>
       </c>
       <c r="AU133">
         <v>-1</v>
@@ -28822,25 +28822,25 @@
         <v>3.5</v>
       </c>
       <c r="AN134">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AO134">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AP134">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR134">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AS134">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29028,25 +29028,25 @@
         <v>1.22</v>
       </c>
       <c r="AN135">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="AO135">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AP135">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ135">
+        <v>1.34</v>
+      </c>
+      <c r="AR135">
         <v>1.13</v>
       </c>
-      <c r="AR135">
-        <v>1.14</v>
-      </c>
       <c r="AS135">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="AT135">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29234,25 +29234,25 @@
         <v>1.53</v>
       </c>
       <c r="AN136">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="AO136">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP136">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR136">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS136">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT136">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29440,25 +29440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN137">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AO137">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AP137">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ137">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR137">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS137">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AT137">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU137">
         <v>8</v>
@@ -29652,19 +29652,19 @@
         <v>1.27</v>
       </c>
       <c r="AP138">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ138">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
       </c>
       <c r="AS138">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT138">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -29855,22 +29855,22 @@
         <v>2.82</v>
       </c>
       <c r="AO139">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AP139">
         <v>2.88</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AS139">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AT139">
-        <v>3.97</v>
+        <v>4.08</v>
       </c>
       <c r="AU139">
         <v>9</v>
@@ -30058,25 +30058,25 @@
         <v>1.08</v>
       </c>
       <c r="AN140">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AO140">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AP140">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ140">
         <v>2.88</v>
       </c>
       <c r="AR140">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AS140">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="AT140">
-        <v>3.97</v>
+        <v>3.67</v>
       </c>
       <c r="AU140">
         <v>6</v>
@@ -30264,25 +30264,25 @@
         <v>1.75</v>
       </c>
       <c r="AN141">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AO141">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="AP141">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ141">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR141">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AS141">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AT141">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30470,25 +30470,25 @@
         <v>1.57</v>
       </c>
       <c r="AN142">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="AO142">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="AP142">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ142">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR142">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AS142">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT142">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AU142">
         <v>3</v>
@@ -30676,25 +30676,25 @@
         <v>2.4</v>
       </c>
       <c r="AN143">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AO143">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ143">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR143">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AS143">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT143">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="AU143">
         <v>4</v>
@@ -30882,25 +30882,25 @@
         <v>1.4</v>
       </c>
       <c r="AN144">
+        <v>1.91</v>
+      </c>
+      <c r="AO144">
+        <v>1.33</v>
+      </c>
+      <c r="AP144">
+        <v>1.38</v>
+      </c>
+      <c r="AQ144">
+        <v>1.13</v>
+      </c>
+      <c r="AR144">
+        <v>1.28</v>
+      </c>
+      <c r="AS144">
         <v>1.52</v>
       </c>
-      <c r="AO144">
-        <v>1.39</v>
-      </c>
-      <c r="AP144">
-        <v>1.18</v>
-      </c>
-      <c r="AQ144">
-        <v>1.38</v>
-      </c>
-      <c r="AR144">
-        <v>1.15</v>
-      </c>
-      <c r="AS144">
-        <v>1.51</v>
-      </c>
       <c r="AT144">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31088,25 +31088,25 @@
         <v>1.22</v>
       </c>
       <c r="AN145">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="AO145">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ145">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR145">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AT145">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="AU145">
         <v>7</v>
@@ -31294,25 +31294,25 @@
         <v>1.57</v>
       </c>
       <c r="AN146">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO146">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AP146">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR146">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS146">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="AT146">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31500,25 +31500,25 @@
         <v>2.3</v>
       </c>
       <c r="AN147">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO147">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AS147">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT147">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31706,25 +31706,25 @@
         <v>1.02</v>
       </c>
       <c r="AN148">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AO148">
         <v>2.83</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ148">
         <v>2.88</v>
       </c>
       <c r="AR148">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS148">
-        <v>2.51</v>
+        <v>2.29</v>
       </c>
       <c r="AT148">
-        <v>4.03</v>
+        <v>3.78</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -31912,25 +31912,25 @@
         <v>1.83</v>
       </c>
       <c r="AN149">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AO149">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ149">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR149">
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT149">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32118,25 +32118,25 @@
         <v>1.53</v>
       </c>
       <c r="AN150">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AO150">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AP150">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ150">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AS150">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AT150">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="AU150">
         <v>3</v>
@@ -32324,25 +32324,25 @@
         <v>2.75</v>
       </c>
       <c r="AN151">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AO151">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP151">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR151">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AS151">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="AT151">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32530,25 +32530,25 @@
         <v>1.21</v>
       </c>
       <c r="AN152">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AO152">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="AP152">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ152">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR152">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="AT152">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32736,25 +32736,25 @@
         <v>1.5</v>
       </c>
       <c r="AN153">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AO153">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="AP153">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ153">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT153">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -32942,25 +32942,25 @@
         <v>1.28</v>
       </c>
       <c r="AN154">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="AO154">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AP154">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ154">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR154">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AS154">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AT154">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33148,25 +33148,25 @@
         <v>8</v>
       </c>
       <c r="AN155">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="AO155">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AP155">
         <v>2.88</v>
       </c>
       <c r="AQ155">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="AS155">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AT155">
-        <v>3.69</v>
+        <v>3.82</v>
       </c>
       <c r="AU155">
         <v>8</v>
@@ -33354,25 +33354,25 @@
         <v>1.38</v>
       </c>
       <c r="AN156">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="AO156">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP156">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ156">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR156">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AS156">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT156">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33560,25 +33560,25 @@
         <v>2.24</v>
       </c>
       <c r="AN157">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AO157">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="AP157">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ157">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR157">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS157">
         <v>1.34</v>
       </c>
       <c r="AT157">
-        <v>2.79</v>
+        <v>2.83</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33766,25 +33766,25 @@
         <v>1.17</v>
       </c>
       <c r="AN158">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="AO158">
         <v>2.85</v>
       </c>
       <c r="AP158">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158">
         <v>2.88</v>
       </c>
       <c r="AR158">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AS158">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="AT158">
-        <v>4.22</v>
+        <v>4.02</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -33972,25 +33972,25 @@
         <v>1.45</v>
       </c>
       <c r="AN159">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AO159">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AP159">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ159">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR159">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="AS159">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT159">
-        <v>2.93</v>
+        <v>2.71</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34178,25 +34178,25 @@
         <v>1.87</v>
       </c>
       <c r="AN160">
+        <v>1.79</v>
+      </c>
+      <c r="AO160">
+        <v>1.31</v>
+      </c>
+      <c r="AP160">
         <v>1.69</v>
       </c>
-      <c r="AO160">
-        <v>1.38</v>
-      </c>
-      <c r="AP160">
-        <v>1.59</v>
-      </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR160">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT160">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34384,25 +34384,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AO161">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR161">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AS161">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT161">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34590,25 +34590,25 @@
         <v>1.87</v>
       </c>
       <c r="AN162">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO162">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP162">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ162">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR162">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS162">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT162">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -34796,25 +34796,25 @@
         <v>1.3</v>
       </c>
       <c r="AN163">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AO163">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ163">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR163">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS163">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AT163">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35002,25 +35002,25 @@
         <v>2.1</v>
       </c>
       <c r="AN164">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AO164">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="AP164">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ164">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR164">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AS164">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AT164">
-        <v>2.47</v>
+        <v>2.34</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35208,25 +35208,25 @@
         <v>1.4</v>
       </c>
       <c r="AN165">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO165">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP165">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ165">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AS165">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AT165">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35414,25 +35414,25 @@
         <v>1.02</v>
       </c>
       <c r="AN166">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AO166">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166">
         <v>2.88</v>
       </c>
       <c r="AR166">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AS166">
-        <v>2.49</v>
+        <v>2.32</v>
       </c>
       <c r="AT166">
-        <v>3.89</v>
+        <v>3.81</v>
       </c>
       <c r="AU166">
         <v>6</v>
@@ -35620,25 +35620,25 @@
         <v>2.57</v>
       </c>
       <c r="AN167">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO167">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ167">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR167">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS167">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT167">
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
       <c r="AU167">
         <v>12</v>
@@ -35826,25 +35826,25 @@
         <v>1.41</v>
       </c>
       <c r="AN168">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AO168">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP168">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ168">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR168">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS168">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AT168">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -36032,25 +36032,25 @@
         <v>1.67</v>
       </c>
       <c r="AN169">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AO169">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AP169">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ169">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR169">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AS169">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="AT169">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36238,25 +36238,25 @@
         <v>1.35</v>
       </c>
       <c r="AN170">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO170">
+        <v>1.39</v>
+      </c>
+      <c r="AP170">
+        <v>1</v>
+      </c>
+      <c r="AQ170">
+        <v>1.53</v>
+      </c>
+      <c r="AR170">
+        <v>1.37</v>
+      </c>
+      <c r="AS170">
         <v>1.54</v>
       </c>
-      <c r="AP170">
-        <v>1.19</v>
-      </c>
-      <c r="AQ170">
-        <v>1.67</v>
-      </c>
-      <c r="AR170">
-        <v>1.43</v>
-      </c>
-      <c r="AS170">
-        <v>1.52</v>
-      </c>
       <c r="AT170">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="AU170">
         <v>2</v>
@@ -36444,25 +36444,25 @@
         <v>1.53</v>
       </c>
       <c r="AN171">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AO171">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="AP171">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ171">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR171">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AS171">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="AT171">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="AU171">
         <v>2</v>
@@ -36650,25 +36650,25 @@
         <v>1.6</v>
       </c>
       <c r="AN172">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="AO172">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="AP172">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ172">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR172">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS172">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT172">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AU172">
         <v>2</v>
@@ -36856,25 +36856,25 @@
         <v>2.65</v>
       </c>
       <c r="AN173">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="AO173">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ173">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR173">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AS173">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37062,25 +37062,25 @@
         <v>1.77</v>
       </c>
       <c r="AN174">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AO174">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ174">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR174">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AS174">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT174">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="AU174">
         <v>9</v>
@@ -37268,25 +37268,25 @@
         <v>1.7</v>
       </c>
       <c r="AN175">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AO175">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ175">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR175">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AS175">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT175">
-        <v>2.83</v>
+        <v>2.68</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37474,25 +37474,25 @@
         <v>5.95</v>
       </c>
       <c r="AN176">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AO176">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AP176">
         <v>2.88</v>
       </c>
       <c r="AQ176">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR176">
-        <v>2.48</v>
+        <v>2.69</v>
       </c>
       <c r="AS176">
         <v>1.51</v>
       </c>
       <c r="AT176">
-        <v>3.99</v>
+        <v>4.2</v>
       </c>
       <c r="AU176">
         <v>19</v>
@@ -37680,25 +37680,25 @@
         <v>1.25</v>
       </c>
       <c r="AN177">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="AO177">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AP177">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR177">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AS177">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT177">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU177">
         <v>0</v>
@@ -37886,25 +37886,25 @@
         <v>1.42</v>
       </c>
       <c r="AN178">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="AO178">
         <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ178">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR178">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AS178">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT178">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38092,25 +38092,25 @@
         <v>1.17</v>
       </c>
       <c r="AN179">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="AO179">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP179">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ179">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR179">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AS179">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AT179">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU179">
         <v>3</v>
@@ -38307,16 +38307,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ180">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR180">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="AS180">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>3.95</v>
+        <v>4.26</v>
       </c>
       <c r="AU180">
         <v>8</v>
@@ -38504,25 +38504,25 @@
         <v>1.65</v>
       </c>
       <c r="AN181">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AO181">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ181">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR181">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS181">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AT181">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38710,25 +38710,25 @@
         <v>1.74</v>
       </c>
       <c r="AN182">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AO182">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AP182">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ182">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AS182">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT182">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU182">
         <v>6</v>
@@ -38916,25 +38916,25 @@
         <v>2</v>
       </c>
       <c r="AN183">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AO183">
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ183">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR183">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AS183">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT183">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39122,25 +39122,25 @@
         <v>1.01</v>
       </c>
       <c r="AN184">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AO184">
         <v>2.87</v>
       </c>
       <c r="AP184">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184">
         <v>2.88</v>
       </c>
       <c r="AR184">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AS184">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="AT184">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39328,25 +39328,25 @@
         <v>1.8</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="AO185">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ185">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR185">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS185">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AT185">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="AU185">
         <v>10</v>
@@ -39534,25 +39534,25 @@
         <v>1.42</v>
       </c>
       <c r="AN186">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="AO186">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP186">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR186">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="AT186">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU186">
         <v>7</v>
@@ -39740,25 +39740,25 @@
         <v>1.19</v>
       </c>
       <c r="AN187">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AO187">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ187">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR187">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS187">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT187">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AU187">
         <v>0</v>
@@ -39946,25 +39946,25 @@
         <v>1.6</v>
       </c>
       <c r="AN188">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AO188">
+        <v>1.53</v>
+      </c>
+      <c r="AP188">
         <v>1.61</v>
       </c>
-      <c r="AP188">
-        <v>1.38</v>
-      </c>
       <c r="AQ188">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AS188">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AT188">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU188">
         <v>10</v>
@@ -40152,25 +40152,25 @@
         <v>1.45</v>
       </c>
       <c r="AN189">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AO189">
-        <v>1.32</v>
+        <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ189">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR189">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AS189">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT189">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40361,22 +40361,22 @@
         <v>2.87</v>
       </c>
       <c r="AO190">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AP190">
         <v>2.88</v>
       </c>
       <c r="AQ190">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR190">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="AS190">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AT190">
-        <v>4.19</v>
+        <v>4.45</v>
       </c>
       <c r="AU190">
         <v>9</v>
@@ -40564,25 +40564,25 @@
         <v>1.28</v>
       </c>
       <c r="AN191">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="AO191">
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ191">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR191">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AS191">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT191">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40770,25 +40770,25 @@
         <v>1.82</v>
       </c>
       <c r="AN192">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AO192">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="AP192">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ192">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR192">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS192">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AT192">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -40976,25 +40976,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AO193">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ193">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR193">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AS193">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="AT193">
-        <v>2.64</v>
+        <v>2.87</v>
       </c>
       <c r="AU193">
         <v>-1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -29028,25 +29028,25 @@
         <v>1.22</v>
       </c>
       <c r="AN135">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="AO135">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AP135">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ135">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR135">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AS135">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AT135">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29234,25 +29234,25 @@
         <v>1.53</v>
       </c>
       <c r="AN136">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AO136">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ136">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR136">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AS136">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AT136">
-        <v>2.71</v>
+        <v>2.79</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29652,19 +29652,19 @@
         <v>1.27</v>
       </c>
       <c r="AP138">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ138">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
       </c>
       <c r="AS138">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT138">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -30264,25 +30264,25 @@
         <v>1.75</v>
       </c>
       <c r="AN141">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AO141">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AP141">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ141">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR141">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AS141">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT141">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30470,25 +30470,25 @@
         <v>1.57</v>
       </c>
       <c r="AN142">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="AO142">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ142">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR142">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AS142">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT142">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AU142">
         <v>3</v>
@@ -30676,25 +30676,25 @@
         <v>2.4</v>
       </c>
       <c r="AN143">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR143">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AS143">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT143">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="AU143">
         <v>4</v>
@@ -31294,25 +31294,25 @@
         <v>1.57</v>
       </c>
       <c r="AN146">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO146">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ146">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR146">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS146">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="AT146">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31500,25 +31500,25 @@
         <v>2.3</v>
       </c>
       <c r="AN147">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO147">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AP147">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR147">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AT147">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31912,25 +31912,25 @@
         <v>1.83</v>
       </c>
       <c r="AN149">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AO149">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AP149">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR149">
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT149">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32942,25 +32942,25 @@
         <v>1.28</v>
       </c>
       <c r="AN154">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="AO154">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ154">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR154">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AS154">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AT154">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33354,25 +33354,25 @@
         <v>1.38</v>
       </c>
       <c r="AN156">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="AO156">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP156">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR156">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AS156">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT156">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33560,25 +33560,25 @@
         <v>2.24</v>
       </c>
       <c r="AN157">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AO157">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="AP157">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ157">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR157">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS157">
         <v>1.34</v>
       </c>
       <c r="AT157">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33972,25 +33972,25 @@
         <v>1.45</v>
       </c>
       <c r="AN159">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AO159">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AP159">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ159">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR159">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="AS159">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT159">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34590,25 +34590,25 @@
         <v>1.87</v>
       </c>
       <c r="AN162">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO162">
+        <v>0.77</v>
+      </c>
+      <c r="AP162">
+        <v>1.19</v>
+      </c>
+      <c r="AQ162">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AP162">
-        <v>1</v>
-      </c>
-      <c r="AQ162">
-        <v>0.78</v>
-      </c>
       <c r="AR162">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT162">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -35002,25 +35002,25 @@
         <v>2.1</v>
       </c>
       <c r="AN164">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AO164">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="AP164">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ164">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR164">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS164">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AT164">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35620,25 +35620,25 @@
         <v>2.57</v>
       </c>
       <c r="AN167">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO167">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="AP167">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR167">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS167">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT167">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
       <c r="AU167">
         <v>12</v>
@@ -35826,25 +35826,25 @@
         <v>1.41</v>
       </c>
       <c r="AN168">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AO168">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP168">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR168">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS168">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT168">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -36238,25 +36238,25 @@
         <v>1.35</v>
       </c>
       <c r="AN170">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO170">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ170">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR170">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AS170">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AT170">
-        <v>2.91</v>
+        <v>2.95</v>
       </c>
       <c r="AU170">
         <v>2</v>
@@ -36444,25 +36444,25 @@
         <v>1.53</v>
       </c>
       <c r="AN171">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AO171">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AP171">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR171">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AS171">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="AT171">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="AU171">
         <v>2</v>
@@ -36650,25 +36650,25 @@
         <v>1.6</v>
       </c>
       <c r="AN172">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="AO172">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AP172">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ172">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR172">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS172">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT172">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AU172">
         <v>2</v>
@@ -37062,25 +37062,25 @@
         <v>1.77</v>
       </c>
       <c r="AN174">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AO174">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP174">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR174">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="AS174">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT174">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
       <c r="AU174">
         <v>9</v>
@@ -37886,25 +37886,25 @@
         <v>1.42</v>
       </c>
       <c r="AN178">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="AO178">
         <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ178">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR178">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AS178">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT178">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38092,25 +38092,25 @@
         <v>1.17</v>
       </c>
       <c r="AN179">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="AO179">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP179">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ179">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR179">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AS179">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AT179">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU179">
         <v>3</v>
@@ -38504,25 +38504,25 @@
         <v>1.65</v>
       </c>
       <c r="AN181">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AO181">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AP181">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ181">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR181">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS181">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AT181">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38916,25 +38916,25 @@
         <v>2</v>
       </c>
       <c r="AN183">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AO183">
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR183">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AS183">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT183">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39534,25 +39534,25 @@
         <v>1.42</v>
       </c>
       <c r="AN186">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="AO186">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ186">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR186">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS186">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AT186">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="AU186">
         <v>7</v>
@@ -39740,25 +39740,25 @@
         <v>1.19</v>
       </c>
       <c r="AN187">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AO187">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AP187">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR187">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS187">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AT187">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="AU187">
         <v>0</v>
@@ -40564,25 +40564,25 @@
         <v>1.28</v>
       </c>
       <c r="AN191">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="AO191">
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ191">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR191">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AS191">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AT191">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40770,25 +40770,25 @@
         <v>1.82</v>
       </c>
       <c r="AN192">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AO192">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="AP192">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR192">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AS192">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AT192">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -40976,25 +40976,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AO193">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ193">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR193">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AS193">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AT193">
-        <v>2.87</v>
+        <v>2.64</v>
       </c>
       <c r="AU193">
         <v>-1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -28822,25 +28822,25 @@
         <v>3.5</v>
       </c>
       <c r="AN134">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AO134">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AP134">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ134">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR134">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AS134">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AT134">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29028,25 +29028,25 @@
         <v>1.22</v>
       </c>
       <c r="AN135">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="AO135">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AP135">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ135">
+        <v>1.34</v>
+      </c>
+      <c r="AR135">
         <v>1.13</v>
       </c>
-      <c r="AR135">
-        <v>1.14</v>
-      </c>
       <c r="AS135">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="AT135">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29234,25 +29234,25 @@
         <v>1.53</v>
       </c>
       <c r="AN136">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="AO136">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP136">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR136">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS136">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT136">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29440,25 +29440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN137">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AO137">
+        <v>1.55</v>
+      </c>
+      <c r="AP137">
+        <v>1.59</v>
+      </c>
+      <c r="AQ137">
         <v>1.18</v>
       </c>
-      <c r="AP137">
-        <v>1.69</v>
-      </c>
-      <c r="AQ137">
-        <v>1</v>
-      </c>
       <c r="AR137">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS137">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="AT137">
-        <v>2.33</v>
+        <v>2.57</v>
       </c>
       <c r="AU137">
         <v>8</v>
@@ -29652,19 +29652,19 @@
         <v>1.27</v>
       </c>
       <c r="AP138">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ138">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
       </c>
       <c r="AS138">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT138">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -29855,22 +29855,22 @@
         <v>2.82</v>
       </c>
       <c r="AO139">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AP139">
         <v>2.88</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="AS139">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AT139">
-        <v>4.08</v>
+        <v>3.97</v>
       </c>
       <c r="AU139">
         <v>9</v>
@@ -30058,25 +30058,25 @@
         <v>1.08</v>
       </c>
       <c r="AN140">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AO140">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AP140">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ140">
         <v>2.88</v>
       </c>
       <c r="AR140">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AS140">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="AT140">
-        <v>3.67</v>
+        <v>3.97</v>
       </c>
       <c r="AU140">
         <v>6</v>
@@ -30264,25 +30264,25 @@
         <v>1.75</v>
       </c>
       <c r="AN141">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AO141">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="AP141">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ141">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR141">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AS141">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AT141">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30470,25 +30470,25 @@
         <v>1.57</v>
       </c>
       <c r="AN142">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="AO142">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="AP142">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ142">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR142">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AS142">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT142">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AU142">
         <v>3</v>
@@ -30676,25 +30676,25 @@
         <v>2.4</v>
       </c>
       <c r="AN143">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AO143">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ143">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR143">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AS143">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT143">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="AU143">
         <v>4</v>
@@ -30882,25 +30882,25 @@
         <v>1.4</v>
       </c>
       <c r="AN144">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="AO144">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AP144">
+        <v>1.18</v>
+      </c>
+      <c r="AQ144">
         <v>1.38</v>
       </c>
-      <c r="AQ144">
-        <v>1.13</v>
-      </c>
       <c r="AR144">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AS144">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AT144">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31088,25 +31088,25 @@
         <v>1.22</v>
       </c>
       <c r="AN145">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="AO145">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AP145">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR145">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="AS145">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AT145">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="AU145">
         <v>7</v>
@@ -31294,25 +31294,25 @@
         <v>1.57</v>
       </c>
       <c r="AN146">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO146">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AP146">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR146">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS146">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="AT146">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31500,25 +31500,25 @@
         <v>2.3</v>
       </c>
       <c r="AN147">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO147">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AS147">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT147">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31706,25 +31706,25 @@
         <v>1.02</v>
       </c>
       <c r="AN148">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AO148">
         <v>2.83</v>
       </c>
       <c r="AP148">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
         <v>2.88</v>
       </c>
       <c r="AR148">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AS148">
-        <v>2.29</v>
+        <v>2.51</v>
       </c>
       <c r="AT148">
-        <v>3.78</v>
+        <v>4.03</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -31912,25 +31912,25 @@
         <v>1.83</v>
       </c>
       <c r="AN149">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AO149">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ149">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR149">
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT149">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32118,25 +32118,25 @@
         <v>1.53</v>
       </c>
       <c r="AN150">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AO150">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR150">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AS150">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AT150">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="AU150">
         <v>3</v>
@@ -32324,25 +32324,25 @@
         <v>2.75</v>
       </c>
       <c r="AN151">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AO151">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR151">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AS151">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="AT151">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32530,25 +32530,25 @@
         <v>1.21</v>
       </c>
       <c r="AN152">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AO152">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="AP152">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ152">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR152">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AS152">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AT152">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32736,25 +32736,25 @@
         <v>1.5</v>
       </c>
       <c r="AN153">
+        <v>1.32</v>
+      </c>
+      <c r="AO153">
+        <v>1.32</v>
+      </c>
+      <c r="AP153">
+        <v>1.38</v>
+      </c>
+      <c r="AQ153">
         <v>1.33</v>
       </c>
-      <c r="AO153">
-        <v>1.08</v>
-      </c>
-      <c r="AP153">
-        <v>1.61</v>
-      </c>
-      <c r="AQ153">
-        <v>1.13</v>
-      </c>
       <c r="AR153">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS153">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT153">
-        <v>2.68</v>
+        <v>2.89</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -32942,25 +32942,25 @@
         <v>1.28</v>
       </c>
       <c r="AN154">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="AO154">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AP154">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ154">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR154">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AS154">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AT154">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33148,25 +33148,25 @@
         <v>8</v>
       </c>
       <c r="AN155">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="AO155">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AP155">
         <v>2.88</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR155">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="AS155">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AT155">
-        <v>3.82</v>
+        <v>3.69</v>
       </c>
       <c r="AU155">
         <v>8</v>
@@ -33354,25 +33354,25 @@
         <v>1.38</v>
       </c>
       <c r="AN156">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="AO156">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP156">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ156">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR156">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AS156">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT156">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33560,25 +33560,25 @@
         <v>2.24</v>
       </c>
       <c r="AN157">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AO157">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="AP157">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ157">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR157">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS157">
         <v>1.34</v>
       </c>
       <c r="AT157">
-        <v>2.79</v>
+        <v>2.83</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33766,25 +33766,25 @@
         <v>1.17</v>
       </c>
       <c r="AN158">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="AO158">
         <v>2.85</v>
       </c>
       <c r="AP158">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ158">
         <v>2.88</v>
       </c>
       <c r="AR158">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AS158">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="AT158">
-        <v>4.02</v>
+        <v>4.22</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -33972,25 +33972,25 @@
         <v>1.45</v>
       </c>
       <c r="AN159">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AO159">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AP159">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ159">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR159">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="AS159">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT159">
-        <v>2.93</v>
+        <v>2.71</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34178,25 +34178,25 @@
         <v>1.87</v>
       </c>
       <c r="AN160">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="AO160">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AP160">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ160">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR160">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AS160">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT160">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34384,25 +34384,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="AO161">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR161">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AS161">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AT161">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34590,25 +34590,25 @@
         <v>1.87</v>
       </c>
       <c r="AN162">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO162">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP162">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ162">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR162">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS162">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT162">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -34796,25 +34796,25 @@
         <v>1.3</v>
       </c>
       <c r="AN163">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AO163">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR163">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AS163">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT163">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35002,25 +35002,25 @@
         <v>2.1</v>
       </c>
       <c r="AN164">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AO164">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="AP164">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ164">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR164">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AS164">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AT164">
-        <v>2.47</v>
+        <v>2.34</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35208,25 +35208,25 @@
         <v>1.4</v>
       </c>
       <c r="AN165">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO165">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AP165">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ165">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR165">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AS165">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AT165">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35414,25 +35414,25 @@
         <v>1.02</v>
       </c>
       <c r="AN166">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AO166">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AP166">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ166">
         <v>2.88</v>
       </c>
       <c r="AR166">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AS166">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="AT166">
-        <v>3.81</v>
+        <v>3.89</v>
       </c>
       <c r="AU166">
         <v>6</v>
@@ -35620,25 +35620,25 @@
         <v>2.57</v>
       </c>
       <c r="AN167">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO167">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ167">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR167">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS167">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT167">
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
       <c r="AU167">
         <v>12</v>
@@ -35826,25 +35826,25 @@
         <v>1.41</v>
       </c>
       <c r="AN168">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AO168">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP168">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ168">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR168">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS168">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AT168">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -36032,25 +36032,25 @@
         <v>1.67</v>
       </c>
       <c r="AN169">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AO169">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AP169">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR169">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AS169">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="AT169">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36238,25 +36238,25 @@
         <v>1.35</v>
       </c>
       <c r="AN170">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO170">
+        <v>1.39</v>
+      </c>
+      <c r="AP170">
+        <v>1</v>
+      </c>
+      <c r="AQ170">
+        <v>1.53</v>
+      </c>
+      <c r="AR170">
+        <v>1.37</v>
+      </c>
+      <c r="AS170">
         <v>1.54</v>
       </c>
-      <c r="AP170">
-        <v>1.19</v>
-      </c>
-      <c r="AQ170">
-        <v>1.67</v>
-      </c>
-      <c r="AR170">
-        <v>1.43</v>
-      </c>
-      <c r="AS170">
-        <v>1.52</v>
-      </c>
       <c r="AT170">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="AU170">
         <v>2</v>
@@ -36444,25 +36444,25 @@
         <v>1.53</v>
       </c>
       <c r="AN171">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AO171">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="AP171">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ171">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR171">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AS171">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="AT171">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="AU171">
         <v>2</v>
@@ -36650,25 +36650,25 @@
         <v>1.6</v>
       </c>
       <c r="AN172">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="AO172">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="AP172">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ172">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR172">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS172">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT172">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AU172">
         <v>2</v>
@@ -36856,25 +36856,25 @@
         <v>2.65</v>
       </c>
       <c r="AN173">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AO173">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP173">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ173">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR173">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AS173">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT173">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37062,25 +37062,25 @@
         <v>1.77</v>
       </c>
       <c r="AN174">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AO174">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ174">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR174">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AS174">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT174">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="AU174">
         <v>9</v>
@@ -37268,25 +37268,25 @@
         <v>1.7</v>
       </c>
       <c r="AN175">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="AP175">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ175">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR175">
+        <v>1.44</v>
+      </c>
+      <c r="AS175">
         <v>1.39</v>
       </c>
-      <c r="AS175">
-        <v>1.29</v>
-      </c>
       <c r="AT175">
-        <v>2.68</v>
+        <v>2.83</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37474,25 +37474,25 @@
         <v>5.95</v>
       </c>
       <c r="AN176">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AO176">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AP176">
         <v>2.88</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR176">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="AS176">
         <v>1.51</v>
       </c>
       <c r="AT176">
-        <v>4.2</v>
+        <v>3.99</v>
       </c>
       <c r="AU176">
         <v>19</v>
@@ -37680,25 +37680,25 @@
         <v>1.25</v>
       </c>
       <c r="AN177">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="AO177">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AP177">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ177">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR177">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AS177">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AT177">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="AU177">
         <v>0</v>
@@ -37886,25 +37886,25 @@
         <v>1.42</v>
       </c>
       <c r="AN178">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="AO178">
         <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ178">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR178">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AS178">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT178">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38092,25 +38092,25 @@
         <v>1.17</v>
       </c>
       <c r="AN179">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="AO179">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP179">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ179">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR179">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AS179">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AT179">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU179">
         <v>3</v>
@@ -38307,16 +38307,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ180">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR180">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT180">
-        <v>4.26</v>
+        <v>3.95</v>
       </c>
       <c r="AU180">
         <v>8</v>
@@ -38504,25 +38504,25 @@
         <v>1.65</v>
       </c>
       <c r="AN181">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AO181">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ181">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR181">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS181">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AT181">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38710,25 +38710,25 @@
         <v>1.74</v>
       </c>
       <c r="AN182">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AO182">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AP182">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ182">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR182">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS182">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT182">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="AU182">
         <v>6</v>
@@ -38916,25 +38916,25 @@
         <v>2</v>
       </c>
       <c r="AN183">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AO183">
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ183">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR183">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AS183">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT183">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39122,25 +39122,25 @@
         <v>1.01</v>
       </c>
       <c r="AN184">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AO184">
         <v>2.87</v>
       </c>
       <c r="AP184">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ184">
         <v>2.88</v>
       </c>
       <c r="AR184">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AS184">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="AT184">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39328,25 +39328,25 @@
         <v>1.8</v>
       </c>
       <c r="AN185">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AO185">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP185">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR185">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS185">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AT185">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="AU185">
         <v>10</v>
@@ -39534,25 +39534,25 @@
         <v>1.42</v>
       </c>
       <c r="AN186">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="AO186">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP186">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR186">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="AT186">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU186">
         <v>7</v>
@@ -39740,25 +39740,25 @@
         <v>1.19</v>
       </c>
       <c r="AN187">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AO187">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ187">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR187">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS187">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT187">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AU187">
         <v>0</v>
@@ -39946,25 +39946,25 @@
         <v>1.6</v>
       </c>
       <c r="AN188">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AO188">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AP188">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR188">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS188">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AT188">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU188">
         <v>10</v>
@@ -40152,25 +40152,25 @@
         <v>1.45</v>
       </c>
       <c r="AN189">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AO189">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="AP189">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ189">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR189">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AS189">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AT189">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40361,22 +40361,22 @@
         <v>2.87</v>
       </c>
       <c r="AO190">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AP190">
         <v>2.88</v>
       </c>
       <c r="AQ190">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR190">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="AS190">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AT190">
-        <v>4.45</v>
+        <v>4.19</v>
       </c>
       <c r="AU190">
         <v>9</v>
@@ -40564,25 +40564,25 @@
         <v>1.28</v>
       </c>
       <c r="AN191">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="AO191">
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ191">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR191">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AS191">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT191">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40770,25 +40770,25 @@
         <v>1.82</v>
       </c>
       <c r="AN192">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AO192">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="AP192">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ192">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR192">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS192">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AT192">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -40976,25 +40976,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AO193">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ193">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR193">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AS193">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="AT193">
-        <v>2.64</v>
+        <v>2.87</v>
       </c>
       <c r="AU193">
         <v>-1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -28822,25 +28822,25 @@
         <v>3.5</v>
       </c>
       <c r="AN134">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AO134">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AP134">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR134">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AS134">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29028,25 +29028,25 @@
         <v>1.22</v>
       </c>
       <c r="AN135">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="AO135">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AP135">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ135">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR135">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AS135">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AT135">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29234,25 +29234,25 @@
         <v>1.53</v>
       </c>
       <c r="AN136">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AO136">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ136">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR136">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AS136">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AT136">
-        <v>2.71</v>
+        <v>2.79</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29440,25 +29440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN137">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AO137">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AP137">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ137">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR137">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS137">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AT137">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="AU137">
         <v>8</v>
@@ -29652,19 +29652,19 @@
         <v>1.27</v>
       </c>
       <c r="AP138">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ138">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
       </c>
       <c r="AS138">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT138">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -29855,22 +29855,22 @@
         <v>2.82</v>
       </c>
       <c r="AO139">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AP139">
         <v>2.88</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AS139">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AT139">
-        <v>3.97</v>
+        <v>4.08</v>
       </c>
       <c r="AU139">
         <v>9</v>
@@ -30058,25 +30058,25 @@
         <v>1.08</v>
       </c>
       <c r="AN140">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AO140">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AP140">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ140">
         <v>2.88</v>
       </c>
       <c r="AR140">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AS140">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="AT140">
-        <v>3.97</v>
+        <v>3.67</v>
       </c>
       <c r="AU140">
         <v>6</v>
@@ -30264,25 +30264,25 @@
         <v>1.75</v>
       </c>
       <c r="AN141">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AO141">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AP141">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ141">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR141">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AS141">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT141">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30470,25 +30470,25 @@
         <v>1.57</v>
       </c>
       <c r="AN142">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="AO142">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ142">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR142">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AS142">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT142">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AU142">
         <v>3</v>
@@ -30676,25 +30676,25 @@
         <v>2.4</v>
       </c>
       <c r="AN143">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR143">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AS143">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT143">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="AU143">
         <v>4</v>
@@ -30882,25 +30882,25 @@
         <v>1.4</v>
       </c>
       <c r="AN144">
+        <v>1.91</v>
+      </c>
+      <c r="AO144">
+        <v>1.33</v>
+      </c>
+      <c r="AP144">
+        <v>1.38</v>
+      </c>
+      <c r="AQ144">
+        <v>1.13</v>
+      </c>
+      <c r="AR144">
+        <v>1.28</v>
+      </c>
+      <c r="AS144">
         <v>1.52</v>
       </c>
-      <c r="AO144">
-        <v>1.39</v>
-      </c>
-      <c r="AP144">
-        <v>1.18</v>
-      </c>
-      <c r="AQ144">
-        <v>1.38</v>
-      </c>
-      <c r="AR144">
-        <v>1.15</v>
-      </c>
-      <c r="AS144">
-        <v>1.51</v>
-      </c>
       <c r="AT144">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31088,25 +31088,25 @@
         <v>1.22</v>
       </c>
       <c r="AN145">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="AO145">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ145">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR145">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AT145">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="AU145">
         <v>7</v>
@@ -31294,25 +31294,25 @@
         <v>1.57</v>
       </c>
       <c r="AN146">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO146">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ146">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR146">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS146">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="AT146">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31500,25 +31500,25 @@
         <v>2.3</v>
       </c>
       <c r="AN147">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO147">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AP147">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR147">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AT147">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31706,25 +31706,25 @@
         <v>1.02</v>
       </c>
       <c r="AN148">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AO148">
         <v>2.83</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ148">
         <v>2.88</v>
       </c>
       <c r="AR148">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS148">
-        <v>2.51</v>
+        <v>2.29</v>
       </c>
       <c r="AT148">
-        <v>4.03</v>
+        <v>3.78</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -31912,25 +31912,25 @@
         <v>1.83</v>
       </c>
       <c r="AN149">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AO149">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AP149">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR149">
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT149">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32118,25 +32118,25 @@
         <v>1.53</v>
       </c>
       <c r="AN150">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AO150">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AP150">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ150">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AS150">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AT150">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="AU150">
         <v>3</v>
@@ -32324,25 +32324,25 @@
         <v>2.75</v>
       </c>
       <c r="AN151">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AO151">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP151">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR151">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AS151">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="AT151">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32530,25 +32530,25 @@
         <v>1.21</v>
       </c>
       <c r="AN152">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AO152">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="AP152">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ152">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR152">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="AT152">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32736,25 +32736,25 @@
         <v>1.5</v>
       </c>
       <c r="AN153">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AO153">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="AP153">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ153">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT153">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -32942,25 +32942,25 @@
         <v>1.28</v>
       </c>
       <c r="AN154">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="AO154">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ154">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR154">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AS154">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AT154">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33148,25 +33148,25 @@
         <v>8</v>
       </c>
       <c r="AN155">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="AO155">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AP155">
         <v>2.88</v>
       </c>
       <c r="AQ155">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="AS155">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AT155">
-        <v>3.69</v>
+        <v>3.82</v>
       </c>
       <c r="AU155">
         <v>8</v>
@@ -33354,25 +33354,25 @@
         <v>1.38</v>
       </c>
       <c r="AN156">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="AO156">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP156">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR156">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AS156">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT156">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33560,25 +33560,25 @@
         <v>2.24</v>
       </c>
       <c r="AN157">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AO157">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="AP157">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ157">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR157">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS157">
         <v>1.34</v>
       </c>
       <c r="AT157">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33766,25 +33766,25 @@
         <v>1.17</v>
       </c>
       <c r="AN158">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="AO158">
         <v>2.85</v>
       </c>
       <c r="AP158">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158">
         <v>2.88</v>
       </c>
       <c r="AR158">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AS158">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="AT158">
-        <v>4.22</v>
+        <v>4.02</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -33972,25 +33972,25 @@
         <v>1.45</v>
       </c>
       <c r="AN159">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AO159">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AP159">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ159">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR159">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="AS159">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT159">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34178,25 +34178,25 @@
         <v>1.87</v>
       </c>
       <c r="AN160">
+        <v>1.79</v>
+      </c>
+      <c r="AO160">
+        <v>1.31</v>
+      </c>
+      <c r="AP160">
         <v>1.69</v>
       </c>
-      <c r="AO160">
-        <v>1.38</v>
-      </c>
-      <c r="AP160">
-        <v>1.59</v>
-      </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR160">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT160">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34384,25 +34384,25 @@
         <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AO161">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR161">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AS161">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT161">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34590,25 +34590,25 @@
         <v>1.87</v>
       </c>
       <c r="AN162">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO162">
+        <v>0.77</v>
+      </c>
+      <c r="AP162">
+        <v>1.19</v>
+      </c>
+      <c r="AQ162">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AP162">
-        <v>1</v>
-      </c>
-      <c r="AQ162">
-        <v>0.78</v>
-      </c>
       <c r="AR162">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT162">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -34796,25 +34796,25 @@
         <v>1.3</v>
       </c>
       <c r="AN163">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AO163">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AP163">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ163">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR163">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS163">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AT163">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35002,25 +35002,25 @@
         <v>2.1</v>
       </c>
       <c r="AN164">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AO164">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="AP164">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ164">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR164">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS164">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AT164">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35208,25 +35208,25 @@
         <v>1.4</v>
       </c>
       <c r="AN165">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO165">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP165">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ165">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AS165">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AT165">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35414,25 +35414,25 @@
         <v>1.02</v>
       </c>
       <c r="AN166">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AO166">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166">
         <v>2.88</v>
       </c>
       <c r="AR166">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AS166">
-        <v>2.49</v>
+        <v>2.32</v>
       </c>
       <c r="AT166">
-        <v>3.89</v>
+        <v>3.81</v>
       </c>
       <c r="AU166">
         <v>6</v>
@@ -35620,25 +35620,25 @@
         <v>2.57</v>
       </c>
       <c r="AN167">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO167">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="AP167">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR167">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS167">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT167">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
       <c r="AU167">
         <v>12</v>
@@ -35826,25 +35826,25 @@
         <v>1.41</v>
       </c>
       <c r="AN168">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AO168">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP168">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR168">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS168">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT168">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -36032,25 +36032,25 @@
         <v>1.67</v>
       </c>
       <c r="AN169">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AO169">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AP169">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ169">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR169">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AS169">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="AT169">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36238,25 +36238,25 @@
         <v>1.35</v>
       </c>
       <c r="AN170">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO170">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ170">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR170">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AS170">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AT170">
-        <v>2.91</v>
+        <v>2.95</v>
       </c>
       <c r="AU170">
         <v>2</v>
@@ -36444,25 +36444,25 @@
         <v>1.53</v>
       </c>
       <c r="AN171">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AO171">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AP171">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR171">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AS171">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="AT171">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="AU171">
         <v>2</v>
@@ -36650,25 +36650,25 @@
         <v>1.6</v>
       </c>
       <c r="AN172">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="AO172">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AP172">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ172">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR172">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS172">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT172">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AU172">
         <v>2</v>
@@ -36856,25 +36856,25 @@
         <v>2.65</v>
       </c>
       <c r="AN173">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="AO173">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ173">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR173">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AS173">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37062,25 +37062,25 @@
         <v>1.77</v>
       </c>
       <c r="AN174">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AO174">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP174">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR174">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="AS174">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT174">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
       <c r="AU174">
         <v>9</v>
@@ -37268,25 +37268,25 @@
         <v>1.7</v>
       </c>
       <c r="AN175">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AO175">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ175">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR175">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AS175">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT175">
-        <v>2.83</v>
+        <v>2.68</v>
       </c>
       <c r="AU175">
         <v>3</v>
@@ -37474,25 +37474,25 @@
         <v>5.95</v>
       </c>
       <c r="AN176">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AO176">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AP176">
         <v>2.88</v>
       </c>
       <c r="AQ176">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR176">
-        <v>2.48</v>
+        <v>2.69</v>
       </c>
       <c r="AS176">
         <v>1.51</v>
       </c>
       <c r="AT176">
-        <v>3.99</v>
+        <v>4.2</v>
       </c>
       <c r="AU176">
         <v>19</v>
@@ -37680,25 +37680,25 @@
         <v>1.25</v>
       </c>
       <c r="AN177">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="AO177">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AP177">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR177">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AS177">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT177">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU177">
         <v>0</v>
@@ -37886,25 +37886,25 @@
         <v>1.42</v>
       </c>
       <c r="AN178">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="AO178">
         <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ178">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR178">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AS178">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT178">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38092,25 +38092,25 @@
         <v>1.17</v>
       </c>
       <c r="AN179">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="AO179">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP179">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ179">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR179">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AS179">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AT179">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU179">
         <v>3</v>
@@ -38307,16 +38307,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ180">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR180">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="AS180">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>3.95</v>
+        <v>4.26</v>
       </c>
       <c r="AU180">
         <v>8</v>
@@ -38504,25 +38504,25 @@
         <v>1.65</v>
       </c>
       <c r="AN181">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AO181">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AP181">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ181">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR181">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS181">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AT181">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38710,25 +38710,25 @@
         <v>1.74</v>
       </c>
       <c r="AN182">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AO182">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AP182">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ182">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AS182">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT182">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU182">
         <v>6</v>
@@ -38916,25 +38916,25 @@
         <v>2</v>
       </c>
       <c r="AN183">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AO183">
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR183">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AS183">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT183">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39122,25 +39122,25 @@
         <v>1.01</v>
       </c>
       <c r="AN184">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AO184">
         <v>2.87</v>
       </c>
       <c r="AP184">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184">
         <v>2.88</v>
       </c>
       <c r="AR184">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AS184">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="AT184">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39328,25 +39328,25 @@
         <v>1.8</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="AO185">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ185">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR185">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS185">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AT185">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="AU185">
         <v>10</v>
@@ -39534,25 +39534,25 @@
         <v>1.42</v>
       </c>
       <c r="AN186">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="AO186">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ186">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR186">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS186">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AT186">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="AU186">
         <v>7</v>
@@ -39740,25 +39740,25 @@
         <v>1.19</v>
       </c>
       <c r="AN187">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AO187">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AP187">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR187">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS187">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AT187">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="AU187">
         <v>0</v>
@@ -39946,25 +39946,25 @@
         <v>1.6</v>
       </c>
       <c r="AN188">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AO188">
+        <v>1.53</v>
+      </c>
+      <c r="AP188">
         <v>1.61</v>
       </c>
-      <c r="AP188">
-        <v>1.38</v>
-      </c>
       <c r="AQ188">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AS188">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AT188">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU188">
         <v>10</v>
@@ -40152,25 +40152,25 @@
         <v>1.45</v>
       </c>
       <c r="AN189">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AO189">
-        <v>1.32</v>
+        <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ189">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR189">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AS189">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT189">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40361,22 +40361,22 @@
         <v>2.87</v>
       </c>
       <c r="AO190">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AP190">
         <v>2.88</v>
       </c>
       <c r="AQ190">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR190">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="AS190">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AT190">
-        <v>4.19</v>
+        <v>4.45</v>
       </c>
       <c r="AU190">
         <v>9</v>
@@ -40564,25 +40564,25 @@
         <v>1.28</v>
       </c>
       <c r="AN191">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="AO191">
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ191">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR191">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AS191">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AT191">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40770,25 +40770,25 @@
         <v>1.82</v>
       </c>
       <c r="AN192">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AO192">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="AP192">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR192">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AS192">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AT192">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -40976,25 +40976,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AO193">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ193">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR193">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AS193">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AT193">
-        <v>2.87</v>
+        <v>2.64</v>
       </c>
       <c r="AU193">
         <v>-1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ2">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ5">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
+        <v>1.33</v>
+      </c>
+      <c r="AQ6">
         <v>1.53</v>
-      </c>
-      <c r="AQ6">
-        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ7">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2866,25 +2866,25 @@
         <v>1.55</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AU8">
         <v>4</v>
@@ -3078,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ9">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AU9">
         <v>8</v>
@@ -3278,25 +3278,25 @@
         <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ10">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3484,25 +3484,25 @@
         <v>1.3</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AU11">
         <v>2</v>
@@ -3690,25 +3690,25 @@
         <v>1.01</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ12">
         <v>2.88</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3902,19 +3902,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4102,25 +4102,25 @@
         <v>1.24</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO14">
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ14">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR14">
-        <v>1.1</v>
+        <v>1.31</v>
       </c>
       <c r="AS14">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="AT14">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4308,25 +4308,25 @@
         <v>1.42</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR15">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AS15">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AT15">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4514,25 +4514,25 @@
         <v>2</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ16">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR16">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="AS16">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT16">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4720,25 +4720,25 @@
         <v>1.71</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="AS17">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="AT17">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="AU17">
         <v>9</v>
@@ -4929,22 +4929,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP18">
         <v>2.88</v>
       </c>
       <c r="AQ18">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AS18">
-        <v>0.97</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>3.24</v>
+        <v>3.92</v>
       </c>
       <c r="AU18">
         <v>13</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR19">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AS19">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AT19">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5338,25 +5338,25 @@
         <v>1.52</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP20">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR20">
-        <v>2.03</v>
+        <v>1.32</v>
       </c>
       <c r="AS20">
-        <v>0.91</v>
+        <v>1.46</v>
       </c>
       <c r="AT20">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5544,25 +5544,25 @@
         <v>1.26</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP21">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR21">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="AS21">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="AT21">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5750,25 +5750,25 @@
         <v>1.01</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP22">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ22">
         <v>2.88</v>
       </c>
       <c r="AR22">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AS22">
-        <v>2.57</v>
+        <v>2.93</v>
       </c>
       <c r="AT22">
-        <v>3.97</v>
+        <v>4.23</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5956,25 +5956,25 @@
         <v>2.2</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="AT23">
-        <v>3.41</v>
+        <v>2.82</v>
       </c>
       <c r="AU23">
         <v>7</v>
@@ -6162,25 +6162,25 @@
         <v>1.86</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR24">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="AS24">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT24">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6368,25 +6368,25 @@
         <v>1.43</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP25">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ25">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR25">
-        <v>0.66</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS25">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="AT25">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6574,25 +6574,25 @@
         <v>11</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP26">
         <v>2.88</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR26">
-        <v>3.12</v>
+        <v>2.87</v>
       </c>
       <c r="AS26">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT26">
-        <v>4.01</v>
+        <v>3.77</v>
       </c>
       <c r="AU26">
         <v>15</v>
@@ -6783,22 +6783,22 @@
         <v>2</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
+        <v>1.84</v>
+      </c>
+      <c r="AR27">
         <v>1.75</v>
       </c>
-      <c r="AR27">
-        <v>1.77</v>
-      </c>
       <c r="AS27">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="AT27">
-        <v>3.11</v>
+        <v>3.32</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6986,25 +6986,25 @@
         <v>1.42</v>
       </c>
       <c r="AN28">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO28">
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR28">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AS28">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="AT28">
-        <v>2.16</v>
+        <v>2.37</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7192,25 +7192,25 @@
         <v>1.5</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO29">
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ29">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR29">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AS29">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AT29">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7398,25 +7398,25 @@
         <v>1.52</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO30">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ30">
+        <v>1.34</v>
+      </c>
+      <c r="AR30">
         <v>1.13</v>
       </c>
-      <c r="AR30">
-        <v>1.01</v>
-      </c>
       <c r="AS30">
-        <v>1.1</v>
+        <v>1.42</v>
       </c>
       <c r="AT30">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="AU30">
         <v>2</v>
@@ -7604,25 +7604,25 @@
         <v>1.62</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ31">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AS31">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AT31">
-        <v>2.1</v>
+        <v>2.67</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7810,25 +7810,25 @@
         <v>1.97</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ32">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR32">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AS32">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AT32">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -8016,25 +8016,25 @@
         <v>1.31</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP33">
+        <v>0.84</v>
+      </c>
+      <c r="AQ33">
+        <v>1.38</v>
+      </c>
+      <c r="AR33">
         <v>0.75</v>
       </c>
-      <c r="AQ33">
-        <v>1.13</v>
-      </c>
-      <c r="AR33">
-        <v>0.92</v>
-      </c>
       <c r="AS33">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT33">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -8222,25 +8222,25 @@
         <v>1.53</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP34">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="AS34">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AT34">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8428,25 +8428,25 @@
         <v>2.75</v>
       </c>
       <c r="AN35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ35">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR35">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AS35">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="AT35">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8634,25 +8634,25 @@
         <v>1.17</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP36">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR36">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AS36">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AT36">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8840,25 +8840,25 @@
         <v>1.08</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP37">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ37">
         <v>2.88</v>
       </c>
       <c r="AR37">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS37">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="AT37">
-        <v>3.96</v>
+        <v>4.38</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -9046,25 +9046,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP38">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR38">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
       <c r="AS38">
-        <v>0.64</v>
+        <v>0.96</v>
       </c>
       <c r="AT38">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="AU38">
         <v>9</v>
@@ -9255,22 +9255,22 @@
         <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP39">
         <v>2.88</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR39">
-        <v>3.26</v>
+        <v>2.85</v>
       </c>
       <c r="AS39">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>4.63</v>
+        <v>4.18</v>
       </c>
       <c r="AU39">
         <v>9</v>
@@ -9461,22 +9461,22 @@
         <v>1.33</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR40">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AS40">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AT40">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9664,25 +9664,25 @@
         <v>2.08</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP41">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR41">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AS41">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AT41">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9870,25 +9870,25 @@
         <v>1.88</v>
       </c>
       <c r="AN42">
+        <v>1.17</v>
+      </c>
+      <c r="AO42">
+        <v>0.5</v>
+      </c>
+      <c r="AP42">
         <v>1.33</v>
       </c>
-      <c r="AO42">
-        <v>0.33</v>
-      </c>
-      <c r="AP42">
-        <v>1.53</v>
-      </c>
       <c r="AQ42">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AS42">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AT42">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="AU42">
         <v>7</v>
@@ -10079,22 +10079,22 @@
         <v>1.33</v>
       </c>
       <c r="AO43">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP43">
+        <v>1.53</v>
+      </c>
+      <c r="AQ43">
         <v>1.38</v>
       </c>
-      <c r="AQ43">
-        <v>1.13</v>
-      </c>
       <c r="AR43">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AS43">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT43">
-        <v>3.62</v>
+        <v>3.38</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10282,25 +10282,25 @@
         <v>1.07</v>
       </c>
       <c r="AN44">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO44">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ44">
         <v>2.88</v>
       </c>
       <c r="AR44">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AS44">
-        <v>2.43</v>
+        <v>2.79</v>
       </c>
       <c r="AT44">
-        <v>3.7</v>
+        <v>3.89</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10488,25 +10488,25 @@
         <v>1.17</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AO45">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP45">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR45">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AS45">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="AT45">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AU45">
         <v>2</v>
@@ -10694,25 +10694,25 @@
         <v>1.3</v>
       </c>
       <c r="AN46">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP46">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AT46">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10900,25 +10900,25 @@
         <v>1.14</v>
       </c>
       <c r="AN47">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP47">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR47">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AS47">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="AT47">
-        <v>2.91</v>
+        <v>2.55</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -11106,25 +11106,25 @@
         <v>1.14</v>
       </c>
       <c r="AN48">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO48">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="AP48">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR48">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AS48">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT48">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11312,25 +11312,25 @@
         <v>1.52</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO49">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP49">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR49">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AS49">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AT49">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11518,25 +11518,25 @@
         <v>1.36</v>
       </c>
       <c r="AN50">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO50">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ50">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AS50">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT50">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11727,22 +11727,22 @@
         <v>1.75</v>
       </c>
       <c r="AO51">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ51">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR51">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="AS51">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT51">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11936,19 +11936,19 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>2.88</v>
       </c>
       <c r="AR52">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AS52">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="AT52">
-        <v>3.81</v>
+        <v>4.27</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12136,25 +12136,25 @@
         <v>1.85</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR53">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS53">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT53">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12342,25 +12342,25 @@
         <v>3.75</v>
       </c>
       <c r="AN54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO54">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AP54">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ54">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR54">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AS54">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AT54">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12548,25 +12548,25 @@
         <v>2.8</v>
       </c>
       <c r="AN55">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO55">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="AP55">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR55">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="AS55">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="AT55">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12754,25 +12754,25 @@
         <v>1.38</v>
       </c>
       <c r="AN56">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AO56">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AP56">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AS56">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AT56">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -12960,25 +12960,25 @@
         <v>2</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AO57">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AP57">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ57">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR57">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AS57">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="AT57">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -13166,25 +13166,25 @@
         <v>1.42</v>
       </c>
       <c r="AN58">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AO58">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP58">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR58">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AS58">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="AT58">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="AU58">
         <v>9</v>
@@ -13372,7 +13372,7 @@
         <v>5.75</v>
       </c>
       <c r="AN59">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AO59">
         <v>1</v>
@@ -13381,16 +13381,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
-        <v>3.07</v>
+        <v>2.69</v>
       </c>
       <c r="AS59">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="AT59">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13578,25 +13578,25 @@
         <v>1.32</v>
       </c>
       <c r="AN60">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR60">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AS60">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="AT60">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13784,25 +13784,25 @@
         <v>1.72</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO61">
+        <v>1.89</v>
+      </c>
+      <c r="AP61">
+        <v>1.84</v>
+      </c>
+      <c r="AQ61">
+        <v>1.53</v>
+      </c>
+      <c r="AR61">
+        <v>1.67</v>
+      </c>
+      <c r="AS61">
         <v>1.75</v>
       </c>
-      <c r="AP61">
-        <v>1.94</v>
-      </c>
-      <c r="AQ61">
-        <v>1.67</v>
-      </c>
-      <c r="AR61">
-        <v>1.79</v>
-      </c>
-      <c r="AS61">
-        <v>1.58</v>
-      </c>
       <c r="AT61">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13990,25 +13990,25 @@
         <v>1.61</v>
       </c>
       <c r="AN62">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AO62">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ62">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR62">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AS62">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AT62">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14196,25 +14196,25 @@
         <v>1.09</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO63">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AP63">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR63">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="AS63">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>2.71</v>
+        <v>2.65</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14402,25 +14402,25 @@
         <v>1.65</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AP64">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS64">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="AT64">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14608,25 +14608,25 @@
         <v>1.08</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AO65">
         <v>2.6</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ65">
         <v>2.88</v>
       </c>
       <c r="AR65">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AS65">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="AT65">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -14814,25 +14814,25 @@
         <v>2.25</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ66">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR66">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT66">
-        <v>2.2</v>
+        <v>2.53</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -15020,25 +15020,25 @@
         <v>1.42</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO67">
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ67">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR67">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AT67">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15226,25 +15226,25 @@
         <v>1.45</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AO68">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR68">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AS68">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AT68">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AU68">
         <v>13</v>
@@ -15432,25 +15432,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AO69">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="AP69">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR69">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AS69">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="AT69">
-        <v>2.23</v>
+        <v>2.52</v>
       </c>
       <c r="AU69">
         <v>7</v>
@@ -15638,25 +15638,25 @@
         <v>1.32</v>
       </c>
       <c r="AN70">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="AO70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AS70">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15844,25 +15844,25 @@
         <v>1.35</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO71">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR71">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AS71">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AT71">
-        <v>2.91</v>
+        <v>2.82</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16050,25 +16050,25 @@
         <v>2.39</v>
       </c>
       <c r="AN72">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="AO72">
-        <v>0.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP72">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR72">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AS72">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="AT72">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16259,22 +16259,22 @@
         <v>1.67</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AP73">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR73">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AT73">
-        <v>2.53</v>
+        <v>2.79</v>
       </c>
       <c r="AU73">
         <v>10</v>
@@ -16462,25 +16462,25 @@
         <v>1.16</v>
       </c>
       <c r="AN74">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR74">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AS74">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AT74">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16668,25 +16668,25 @@
         <v>1.05</v>
       </c>
       <c r="AN75">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AO75">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AP75">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>2.88</v>
       </c>
       <c r="AR75">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AS75">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="AT75">
-        <v>4.07</v>
+        <v>4.15</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16874,25 +16874,25 @@
         <v>1.95</v>
       </c>
       <c r="AN76">
-        <v>2.17</v>
+        <v>1.42</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AP76">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ76">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR76">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AS76">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT76">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17080,25 +17080,25 @@
         <v>2.4</v>
       </c>
       <c r="AN77">
-        <v>2.67</v>
+        <v>2.23</v>
       </c>
       <c r="AO77">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AP77">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AS77">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AT77">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -17286,25 +17286,25 @@
         <v>2.88</v>
       </c>
       <c r="AN78">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AO78">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR78">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AS78">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AT78">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17492,25 +17492,25 @@
         <v>1.5</v>
       </c>
       <c r="AN79">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="AO79">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP79">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ79">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS79">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AT79">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17698,25 +17698,25 @@
         <v>2.1</v>
       </c>
       <c r="AN80">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="AO80">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR80">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AS80">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AT80">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17904,25 +17904,25 @@
         <v>1.33</v>
       </c>
       <c r="AN81">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AO81">
-        <v>0.83</v>
+        <v>1.46</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT81">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18110,25 +18110,25 @@
         <v>4.33</v>
       </c>
       <c r="AN82">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AO82">
-        <v>0.67</v>
+        <v>1.54</v>
       </c>
       <c r="AP82">
         <v>2.88</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR82">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AS82">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="AT82">
-        <v>4.64</v>
+        <v>4.15</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18316,25 +18316,25 @@
         <v>5.75</v>
       </c>
       <c r="AN83">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AO83">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AP83">
         <v>2.88</v>
       </c>
       <c r="AQ83">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR83">
-        <v>3.01</v>
+        <v>2.75</v>
       </c>
       <c r="AS83">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AT83">
-        <v>4.21</v>
+        <v>3.99</v>
       </c>
       <c r="AU83">
         <v>12</v>
@@ -18522,25 +18522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN84">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AO84">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AP84">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR84">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AS84">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="AT84">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -18728,25 +18728,25 @@
         <v>1.09</v>
       </c>
       <c r="AN85">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AO85">
         <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>2.88</v>
       </c>
       <c r="AR85">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AS85">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="AT85">
-        <v>4.08</v>
+        <v>4.2</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -18934,25 +18934,25 @@
         <v>1.88</v>
       </c>
       <c r="AN86">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO86">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ86">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR86">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AS86">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT86">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="AU86">
         <v>13</v>
@@ -19140,25 +19140,25 @@
         <v>2.14</v>
       </c>
       <c r="AN87">
-        <v>2.29</v>
+        <v>1.43</v>
       </c>
       <c r="AO87">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ87">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR87">
+        <v>1.34</v>
+      </c>
+      <c r="AS87">
         <v>1.23</v>
       </c>
-      <c r="AS87">
-        <v>1.25</v>
-      </c>
       <c r="AT87">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AU87">
         <v>2</v>
@@ -19346,25 +19346,25 @@
         <v>1.65</v>
       </c>
       <c r="AN88">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="AO88">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AP88">
+        <v>1.38</v>
+      </c>
+      <c r="AQ88">
+        <v>1.53</v>
+      </c>
+      <c r="AR88">
         <v>1.61</v>
       </c>
-      <c r="AQ88">
-        <v>1.67</v>
-      </c>
-      <c r="AR88">
-        <v>1.53</v>
-      </c>
       <c r="AS88">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AT88">
-        <v>3.18</v>
+        <v>3.23</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19552,25 +19552,25 @@
         <v>1.27</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO89">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ89">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR89">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AS89">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AT89">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU89">
         <v>6</v>
@@ -19758,25 +19758,25 @@
         <v>1.14</v>
       </c>
       <c r="AN90">
-        <v>0.2</v>
+        <v>0.79</v>
       </c>
       <c r="AO90">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AP90">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.07</v>
       </c>
       <c r="AS90">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT90">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -19964,25 +19964,25 @@
         <v>1.15</v>
       </c>
       <c r="AN91">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="AO91">
-        <v>0.57</v>
+        <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR91">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AS91">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT91">
-        <v>2.67</v>
+        <v>2.44</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20170,25 +20170,25 @@
         <v>2.3</v>
       </c>
       <c r="AN92">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AO92">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="AP92">
+        <v>1.38</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AR92">
         <v>1.61</v>
       </c>
-      <c r="AQ92">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AR92">
-        <v>1.52</v>
-      </c>
       <c r="AS92">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT92">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20376,25 +20376,25 @@
         <v>3.94</v>
       </c>
       <c r="AN93">
-        <v>2.71</v>
+        <v>2.13</v>
       </c>
       <c r="AO93">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AP93">
+        <v>1.84</v>
+      </c>
+      <c r="AQ93">
+        <v>1.34</v>
+      </c>
+      <c r="AR93">
         <v>1.94</v>
       </c>
-      <c r="AQ93">
-        <v>1.13</v>
-      </c>
-      <c r="AR93">
-        <v>1.9</v>
-      </c>
       <c r="AS93">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="AT93">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20585,22 +20585,22 @@
         <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AP94">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.59</v>
       </c>
       <c r="AS94">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AT94">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20788,25 +20788,25 @@
         <v>1.87</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AO95">
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ95">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR95">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AT95">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -20994,22 +20994,22 @@
         <v>1.32</v>
       </c>
       <c r="AN96">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AO96">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AP96">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR96">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS96">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AT96">
         <v>2.86</v>
@@ -21200,25 +21200,25 @@
         <v>1.47</v>
       </c>
       <c r="AN97">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AO97">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR97">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AS97">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT97">
-        <v>2.63</v>
+        <v>2.46</v>
       </c>
       <c r="AU97">
         <v>3</v>
@@ -21406,25 +21406,25 @@
         <v>1.7</v>
       </c>
       <c r="AN98">
-        <v>2.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AP98">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AS98">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AT98">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21612,25 +21612,25 @@
         <v>2.15</v>
       </c>
       <c r="AN99">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AO99">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP99">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR99">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AS99">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21818,25 +21818,25 @@
         <v>1.22</v>
       </c>
       <c r="AN100">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO100">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AP100">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR100">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AS100">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AT100">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22024,25 +22024,25 @@
         <v>1.01</v>
       </c>
       <c r="AN101">
-        <v>0.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO101">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AP101">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ101">
         <v>2.88</v>
       </c>
       <c r="AR101">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AS101">
-        <v>2.41</v>
+        <v>2.72</v>
       </c>
       <c r="AT101">
-        <v>3.59</v>
+        <v>3.84</v>
       </c>
       <c r="AU101">
         <v>2</v>
@@ -22233,22 +22233,22 @@
         <v>0.88</v>
       </c>
       <c r="AO102">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AP102">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ102">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR102">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS102">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="AT102">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22436,25 +22436,25 @@
         <v>2.4</v>
       </c>
       <c r="AN103">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AO103">
-        <v>1.11</v>
+        <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ103">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR103">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AS103">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AT103">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22642,25 +22642,25 @@
         <v>3.75</v>
       </c>
       <c r="AN104">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="AO104">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP104">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ104">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR104">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AS104">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AT104">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22848,25 +22848,25 @@
         <v>2.4</v>
       </c>
       <c r="AN105">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="AO105">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AP105">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR105">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AS105">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AT105">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
       <c r="AU105">
         <v>8</v>
@@ -23054,25 +23054,25 @@
         <v>1.44</v>
       </c>
       <c r="AN106">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AO106">
+        <v>1.41</v>
+      </c>
+      <c r="AP106">
+        <v>0.97</v>
+      </c>
+      <c r="AQ106">
         <v>1.38</v>
-      </c>
-      <c r="AP106">
-        <v>1</v>
-      </c>
-      <c r="AQ106">
-        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
       </c>
       <c r="AS106">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT106">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="AU106">
         <v>6</v>
@@ -23260,25 +23260,25 @@
         <v>1.57</v>
       </c>
       <c r="AN107">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AO107">
-        <v>0.88</v>
+        <v>1.47</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR107">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AS107">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AT107">
-        <v>3.03</v>
+        <v>2.91</v>
       </c>
       <c r="AU107">
         <v>3</v>
@@ -23466,25 +23466,25 @@
         <v>1.5</v>
       </c>
       <c r="AN108">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO108">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AP108">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR108">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AS108">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AT108">
-        <v>2.52</v>
+        <v>2.79</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23672,25 +23672,25 @@
         <v>3.75</v>
       </c>
       <c r="AN109">
-        <v>2.44</v>
+        <v>2.11</v>
       </c>
       <c r="AO109">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR109">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT109">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23878,7 +23878,7 @@
         <v>5.5</v>
       </c>
       <c r="AN110">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AO110">
         <v>1.22</v>
@@ -23887,16 +23887,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ110">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR110">
-        <v>3.08</v>
+        <v>2.71</v>
       </c>
       <c r="AS110">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT110">
-        <v>4.63</v>
+        <v>4.23</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -24084,25 +24084,25 @@
         <v>1.55</v>
       </c>
       <c r="AN111">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO111">
-        <v>1.13</v>
+        <v>1.71</v>
       </c>
       <c r="AP111">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR111">
+        <v>1.3</v>
+      </c>
+      <c r="AS111">
         <v>1.25</v>
       </c>
-      <c r="AS111">
-        <v>1.13</v>
-      </c>
       <c r="AT111">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24290,25 +24290,25 @@
         <v>1.02</v>
       </c>
       <c r="AN112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO112">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="AP112">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ112">
         <v>2.88</v>
       </c>
       <c r="AR112">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="AT112">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="AU112">
         <v>2</v>
@@ -24496,25 +24496,25 @@
         <v>2</v>
       </c>
       <c r="AN113">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AO113">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AP113">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ113">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR113">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AT113">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="AU113">
         <v>6</v>
@@ -24705,22 +24705,22 @@
         <v>0.78</v>
       </c>
       <c r="AO114">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AP114">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ114">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR114">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AS114">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT114">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="AU114">
         <v>4</v>
@@ -24908,25 +24908,25 @@
         <v>1.44</v>
       </c>
       <c r="AN115">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="AO115">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AP115">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR115">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AS115">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT115">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25114,22 +25114,22 @@
         <v>1.4</v>
       </c>
       <c r="AN116">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="AO116">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ116">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR116">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS116">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AT116">
         <v>2.4</v>
@@ -25320,25 +25320,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO117">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="AP117">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR117">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS117">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AT117">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25526,25 +25526,25 @@
         <v>7.5</v>
       </c>
       <c r="AN118">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AO118">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AP118">
         <v>2.88</v>
       </c>
       <c r="AQ118">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
-        <v>2.87</v>
+        <v>2.57</v>
       </c>
       <c r="AS118">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AT118">
-        <v>4.53</v>
+        <v>4.13</v>
       </c>
       <c r="AU118">
         <v>10</v>
@@ -25732,25 +25732,25 @@
         <v>1.33</v>
       </c>
       <c r="AN119">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AO119">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="AP119">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR119">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AS119">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AT119">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25938,25 +25938,25 @@
         <v>1.33</v>
       </c>
       <c r="AN120">
-        <v>0.13</v>
+        <v>0.58</v>
       </c>
       <c r="AO120">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AP120">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR120">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AS120">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="AT120">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26144,25 +26144,25 @@
         <v>1.67</v>
       </c>
       <c r="AN121">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AO121">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AP121">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR121">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AS121">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT121">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26350,25 +26350,25 @@
         <v>2.3</v>
       </c>
       <c r="AN122">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AO122">
+        <v>0.74</v>
+      </c>
+      <c r="AP122">
+        <v>1.38</v>
+      </c>
+      <c r="AQ122">
         <v>0.78</v>
       </c>
-      <c r="AP122">
-        <v>1.61</v>
-      </c>
-      <c r="AQ122">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AR122">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AT122">
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26556,25 +26556,25 @@
         <v>1.12</v>
       </c>
       <c r="AN123">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO123">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="AP123">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ123">
         <v>2.88</v>
       </c>
       <c r="AR123">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AS123">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="AT123">
-        <v>4.17</v>
+        <v>4.4</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26762,22 +26762,22 @@
         <v>2.4</v>
       </c>
       <c r="AN124">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AO124">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ124">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR124">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS124">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT124">
         <v>2.8</v>
@@ -26968,22 +26968,22 @@
         <v>1.5</v>
       </c>
       <c r="AN125">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="AO125">
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ125">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR125">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AS125">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AT125">
         <v>2.4</v>
@@ -27174,25 +27174,25 @@
         <v>1.2</v>
       </c>
       <c r="AN126">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AO126">
+        <v>1.65</v>
+      </c>
+      <c r="AP126">
+        <v>1</v>
+      </c>
+      <c r="AQ126">
+        <v>1.33</v>
+      </c>
+      <c r="AR126">
+        <v>1.34</v>
+      </c>
+      <c r="AS126">
         <v>1.44</v>
       </c>
-      <c r="AP126">
-        <v>1.19</v>
-      </c>
-      <c r="AQ126">
-        <v>1.13</v>
-      </c>
-      <c r="AR126">
-        <v>1.39</v>
-      </c>
-      <c r="AS126">
-        <v>1.29</v>
-      </c>
       <c r="AT126">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="AU126">
         <v>8</v>
@@ -27380,25 +27380,25 @@
         <v>6.5</v>
       </c>
       <c r="AN127">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AO127">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="AP127">
         <v>2.88</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR127">
-        <v>2.81</v>
+        <v>2.53</v>
       </c>
       <c r="AS127">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AT127">
-        <v>3.93</v>
+        <v>3.74</v>
       </c>
       <c r="AU127">
         <v>12</v>
@@ -27586,25 +27586,25 @@
         <v>1.44</v>
       </c>
       <c r="AN128">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AO128">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AP128">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ128">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR128">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AS128">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AT128">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27792,25 +27792,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO129">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AP129">
+        <v>1.18</v>
+      </c>
+      <c r="AQ129">
         <v>1.38</v>
       </c>
-      <c r="AQ129">
-        <v>1.13</v>
-      </c>
       <c r="AR129">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AS129">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT129">
-        <v>2.87</v>
+        <v>2.69</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27998,25 +27998,25 @@
         <v>1.54</v>
       </c>
       <c r="AN130">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AO130">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="AP130">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ130">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR130">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS130">
         <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28204,25 +28204,25 @@
         <v>1.44</v>
       </c>
       <c r="AN131">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO131">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR131">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AS131">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AT131">
-        <v>2.83</v>
+        <v>2.58</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28410,25 +28410,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO132">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ132">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
       </c>
       <c r="AS132">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="AT132">
-        <v>3.34</v>
+        <v>3.26</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28616,25 +28616,25 @@
         <v>7</v>
       </c>
       <c r="AN133">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AO133">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AP133">
         <v>2.88</v>
       </c>
       <c r="AQ133">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR133">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="AS133">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AT133">
-        <v>4.08</v>
+        <v>3.97</v>
       </c>
       <c r="AU133">
         <v>-1</v>
@@ -29028,25 +29028,25 @@
         <v>1.22</v>
       </c>
       <c r="AN135">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="AO135">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AP135">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ135">
+        <v>1.34</v>
+      </c>
+      <c r="AR135">
         <v>1.13</v>
       </c>
-      <c r="AR135">
-        <v>1.14</v>
-      </c>
       <c r="AS135">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="AT135">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29234,25 +29234,25 @@
         <v>1.53</v>
       </c>
       <c r="AN136">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="AO136">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP136">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR136">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS136">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT136">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29652,19 +29652,19 @@
         <v>1.27</v>
       </c>
       <c r="AP138">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ138">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
       </c>
       <c r="AS138">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT138">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -30264,25 +30264,25 @@
         <v>1.75</v>
       </c>
       <c r="AN141">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AO141">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="AP141">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ141">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR141">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AS141">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AT141">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30470,25 +30470,25 @@
         <v>1.57</v>
       </c>
       <c r="AN142">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="AO142">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="AP142">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ142">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR142">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AS142">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT142">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AU142">
         <v>3</v>
@@ -30676,25 +30676,25 @@
         <v>2.4</v>
       </c>
       <c r="AN143">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AO143">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ143">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR143">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AS143">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT143">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="AU143">
         <v>4</v>
@@ -31294,25 +31294,25 @@
         <v>1.57</v>
       </c>
       <c r="AN146">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO146">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AP146">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR146">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS146">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="AT146">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31500,25 +31500,25 @@
         <v>2.3</v>
       </c>
       <c r="AN147">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO147">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AS147">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT147">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31912,25 +31912,25 @@
         <v>1.83</v>
       </c>
       <c r="AN149">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AO149">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ149">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR149">
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT149">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32942,25 +32942,25 @@
         <v>1.28</v>
       </c>
       <c r="AN154">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="AO154">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AP154">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ154">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR154">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AS154">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AT154">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33354,25 +33354,25 @@
         <v>1.38</v>
       </c>
       <c r="AN156">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="AO156">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP156">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ156">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR156">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AS156">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT156">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33560,25 +33560,25 @@
         <v>2.24</v>
       </c>
       <c r="AN157">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AO157">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="AP157">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ157">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR157">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS157">
         <v>1.34</v>
       </c>
       <c r="AT157">
-        <v>2.79</v>
+        <v>2.83</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33972,25 +33972,25 @@
         <v>1.45</v>
       </c>
       <c r="AN159">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AO159">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AP159">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ159">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR159">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="AS159">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT159">
-        <v>2.93</v>
+        <v>2.71</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34590,25 +34590,25 @@
         <v>1.87</v>
       </c>
       <c r="AN162">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO162">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP162">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ162">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR162">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS162">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT162">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -35002,25 +35002,25 @@
         <v>2.1</v>
       </c>
       <c r="AN164">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AO164">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="AP164">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ164">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR164">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AS164">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AT164">
-        <v>2.47</v>
+        <v>2.34</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35620,25 +35620,25 @@
         <v>2.57</v>
       </c>
       <c r="AN167">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO167">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ167">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR167">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS167">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT167">
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
       <c r="AU167">
         <v>12</v>
@@ -35826,25 +35826,25 @@
         <v>1.41</v>
       </c>
       <c r="AN168">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AO168">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP168">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ168">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR168">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS168">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AT168">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -36238,25 +36238,25 @@
         <v>1.35</v>
       </c>
       <c r="AN170">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO170">
+        <v>1.39</v>
+      </c>
+      <c r="AP170">
+        <v>1</v>
+      </c>
+      <c r="AQ170">
+        <v>1.53</v>
+      </c>
+      <c r="AR170">
+        <v>1.37</v>
+      </c>
+      <c r="AS170">
         <v>1.54</v>
       </c>
-      <c r="AP170">
-        <v>1.19</v>
-      </c>
-      <c r="AQ170">
-        <v>1.67</v>
-      </c>
-      <c r="AR170">
-        <v>1.43</v>
-      </c>
-      <c r="AS170">
-        <v>1.52</v>
-      </c>
       <c r="AT170">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="AU170">
         <v>2</v>
@@ -36444,25 +36444,25 @@
         <v>1.53</v>
       </c>
       <c r="AN171">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AO171">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="AP171">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ171">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR171">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AS171">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="AT171">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="AU171">
         <v>2</v>
@@ -36650,25 +36650,25 @@
         <v>1.6</v>
       </c>
       <c r="AN172">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="AO172">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="AP172">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ172">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR172">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS172">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT172">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AU172">
         <v>2</v>
@@ -37062,25 +37062,25 @@
         <v>1.77</v>
       </c>
       <c r="AN174">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AO174">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ174">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR174">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AS174">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT174">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="AU174">
         <v>9</v>
@@ -37886,25 +37886,25 @@
         <v>1.42</v>
       </c>
       <c r="AN178">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="AO178">
         <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ178">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR178">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AS178">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT178">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38092,25 +38092,25 @@
         <v>1.17</v>
       </c>
       <c r="AN179">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="AO179">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP179">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ179">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR179">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AS179">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AT179">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU179">
         <v>3</v>
@@ -38504,25 +38504,25 @@
         <v>1.65</v>
       </c>
       <c r="AN181">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AO181">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ181">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR181">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS181">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AT181">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38916,25 +38916,25 @@
         <v>2</v>
       </c>
       <c r="AN183">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AO183">
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AQ183">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AR183">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AS183">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT183">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39534,25 +39534,25 @@
         <v>1.42</v>
       </c>
       <c r="AN186">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="AO186">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP186">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR186">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="AT186">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU186">
         <v>7</v>
@@ -39740,25 +39740,25 @@
         <v>1.19</v>
       </c>
       <c r="AN187">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AO187">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ187">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AR187">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS187">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT187">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AU187">
         <v>0</v>
@@ -40564,25 +40564,25 @@
         <v>1.28</v>
       </c>
       <c r="AN191">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="AO191">
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AQ191">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AR191">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AS191">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT191">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40770,25 +40770,25 @@
         <v>1.82</v>
       </c>
       <c r="AN192">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AO192">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="AP192">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ192">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR192">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS192">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AT192">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -40976,25 +40976,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AO193">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AQ193">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AR193">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AS193">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="AT193">
-        <v>2.64</v>
+        <v>2.87</v>
       </c>
       <c r="AU193">
         <v>-1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ3">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2866,25 +2866,25 @@
         <v>1.55</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR8">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>4</v>
@@ -3078,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ9">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>8</v>
@@ -3278,25 +3278,25 @@
         <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3484,25 +3484,25 @@
         <v>1.3</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>2</v>
@@ -3690,25 +3690,25 @@
         <v>1.01</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.88</v>
       </c>
       <c r="AR12">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3902,19 +3902,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ13">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR13">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4102,25 +4102,25 @@
         <v>1.24</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="AS14">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="AT14">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4308,25 +4308,25 @@
         <v>1.42</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO15">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AS15">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AT15">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4514,25 +4514,25 @@
         <v>2</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR16">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="AS16">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT16">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4720,25 +4720,25 @@
         <v>1.71</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AS17">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="AT17">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="AU17">
         <v>9</v>
@@ -4929,22 +4929,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>2.88</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR18">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>0.97</v>
       </c>
       <c r="AT18">
-        <v>3.92</v>
+        <v>3.24</v>
       </c>
       <c r="AU18">
         <v>13</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ19">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AS19">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="AT19">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5338,25 +5338,25 @@
         <v>1.52</v>
       </c>
       <c r="AN20">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ20">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR20">
-        <v>1.32</v>
+        <v>2.03</v>
       </c>
       <c r="AS20">
-        <v>1.46</v>
+        <v>0.91</v>
       </c>
       <c r="AT20">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5544,25 +5544,25 @@
         <v>1.26</v>
       </c>
       <c r="AN21">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO21">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP21">
+        <v>1.61</v>
+      </c>
+      <c r="AQ21">
+        <v>1.5</v>
+      </c>
+      <c r="AR21">
         <v>1.38</v>
       </c>
-      <c r="AQ21">
-        <v>1.59</v>
-      </c>
-      <c r="AR21">
-        <v>1.62</v>
-      </c>
       <c r="AS21">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AT21">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5750,25 +5750,25 @@
         <v>1.01</v>
       </c>
       <c r="AN22">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22">
         <v>2.88</v>
       </c>
       <c r="AR22">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AS22">
-        <v>2.93</v>
+        <v>2.57</v>
       </c>
       <c r="AT22">
-        <v>4.23</v>
+        <v>3.97</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5956,25 +5956,25 @@
         <v>2.2</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="AS23">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="AU23">
         <v>7</v>
@@ -6162,25 +6162,25 @@
         <v>1.86</v>
       </c>
       <c r="AN24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="AS24">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AT24">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6368,25 +6368,25 @@
         <v>1.43</v>
       </c>
       <c r="AN25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ25">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR25">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AS25">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="AT25">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6574,25 +6574,25 @@
         <v>11</v>
       </c>
       <c r="AN26">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP26">
         <v>2.88</v>
       </c>
       <c r="AQ26">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
-        <v>2.87</v>
+        <v>3.12</v>
       </c>
       <c r="AS26">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AT26">
-        <v>3.77</v>
+        <v>4.01</v>
       </c>
       <c r="AU26">
         <v>15</v>
@@ -6783,22 +6783,22 @@
         <v>2</v>
       </c>
       <c r="AO27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ27">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="AS27">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="AT27">
-        <v>3.32</v>
+        <v>3.11</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6986,25 +6986,25 @@
         <v>1.42</v>
       </c>
       <c r="AN28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
         <v>1.18</v>
       </c>
-      <c r="AR28">
-        <v>1.25</v>
-      </c>
       <c r="AS28">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="AT28">
-        <v>2.37</v>
+        <v>2.16</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7192,25 +7192,25 @@
         <v>1.5</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO29">
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR29">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AS29">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7398,25 +7398,25 @@
         <v>1.52</v>
       </c>
       <c r="AN30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AS30">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="AT30">
-        <v>2.55</v>
+        <v>2.11</v>
       </c>
       <c r="AU30">
         <v>2</v>
@@ -7604,25 +7604,25 @@
         <v>1.62</v>
       </c>
       <c r="AN31">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO31">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR31">
+        <v>1.13</v>
+      </c>
+      <c r="AS31">
         <v>0.97</v>
       </c>
-      <c r="AQ31">
-        <v>1</v>
-      </c>
-      <c r="AR31">
-        <v>1.38</v>
-      </c>
-      <c r="AS31">
-        <v>1.29</v>
-      </c>
       <c r="AT31">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7810,25 +7810,25 @@
         <v>1.97</v>
       </c>
       <c r="AN32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR32">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AS32">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
-        <v>2.68</v>
+        <v>2.89</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -8016,25 +8016,25 @@
         <v>1.31</v>
       </c>
       <c r="AN33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AS33">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AT33">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="AU33">
         <v>9</v>
@@ -8222,25 +8222,25 @@
         <v>1.53</v>
       </c>
       <c r="AN34">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR34">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="AS34">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT34">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8428,25 +8428,25 @@
         <v>2.75</v>
       </c>
       <c r="AN35">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO35">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR35">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="AT35">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8634,25 +8634,25 @@
         <v>1.17</v>
       </c>
       <c r="AN36">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ36">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AS36">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8840,25 +8840,25 @@
         <v>1.08</v>
       </c>
       <c r="AN37">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ37">
         <v>2.88</v>
       </c>
       <c r="AR37">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="AT37">
-        <v>4.38</v>
+        <v>3.96</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -9046,25 +9046,25 @@
         <v>1.66</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP38">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ38">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="AS38">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="AT38">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AU38">
         <v>9</v>
@@ -9255,22 +9255,22 @@
         <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP39">
         <v>2.88</v>
       </c>
       <c r="AQ39">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
-        <v>2.85</v>
+        <v>3.26</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AT39">
-        <v>4.18</v>
+        <v>4.63</v>
       </c>
       <c r="AU39">
         <v>9</v>
@@ -9461,22 +9461,22 @@
         <v>1.33</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
+        <v>1.39</v>
+      </c>
+      <c r="AS40">
         <v>1.43</v>
       </c>
-      <c r="AS40">
-        <v>1.21</v>
-      </c>
       <c r="AT40">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9664,25 +9664,25 @@
         <v>2.08</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ41">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AS41">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AT41">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9870,25 +9870,25 @@
         <v>1.88</v>
       </c>
       <c r="AN42">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR42">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS42">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AT42">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="AU42">
         <v>7</v>
@@ -10079,22 +10079,22 @@
         <v>1.33</v>
       </c>
       <c r="AO43">
+        <v>2.33</v>
+      </c>
+      <c r="AP43">
+        <v>1.38</v>
+      </c>
+      <c r="AQ43">
+        <v>1.13</v>
+      </c>
+      <c r="AR43">
         <v>1.83</v>
       </c>
-      <c r="AP43">
-        <v>1.53</v>
-      </c>
-      <c r="AQ43">
-        <v>1.38</v>
-      </c>
-      <c r="AR43">
-        <v>1.74</v>
-      </c>
       <c r="AS43">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AT43">
-        <v>3.38</v>
+        <v>3.62</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10282,25 +10282,25 @@
         <v>1.07</v>
       </c>
       <c r="AN44">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="AO44">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>2.88</v>
       </c>
       <c r="AR44">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AS44">
-        <v>2.79</v>
+        <v>2.43</v>
       </c>
       <c r="AT44">
-        <v>3.89</v>
+        <v>3.7</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10488,25 +10488,25 @@
         <v>1.17</v>
       </c>
       <c r="AN45">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AS45">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="AT45">
-        <v>2.85</v>
+        <v>2.93</v>
       </c>
       <c r="AU45">
         <v>2</v>
@@ -10694,25 +10694,25 @@
         <v>1.3</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO46">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
       </c>
       <c r="AS46">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10900,25 +10900,25 @@
         <v>1.14</v>
       </c>
       <c r="AN47">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AO47">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ47">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AS47">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="AT47">
-        <v>2.55</v>
+        <v>2.91</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -11106,25 +11106,25 @@
         <v>1.14</v>
       </c>
       <c r="AN48">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO48">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AS48">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AT48">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11312,25 +11312,25 @@
         <v>1.52</v>
       </c>
       <c r="AN49">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ49">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS49">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT49">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11518,25 +11518,25 @@
         <v>1.36</v>
       </c>
       <c r="AN50">
+        <v>1.25</v>
+      </c>
+      <c r="AO50">
+        <v>1.5</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
         <v>1.13</v>
       </c>
-      <c r="AO50">
-        <v>1.63</v>
-      </c>
-      <c r="AP50">
-        <v>0.97</v>
-      </c>
-      <c r="AQ50">
-        <v>1.33</v>
-      </c>
       <c r="AR50">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS50">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT50">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11727,22 +11727,22 @@
         <v>1.75</v>
       </c>
       <c r="AO51">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR51">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="AS51">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11936,19 +11936,19 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ52">
         <v>2.88</v>
       </c>
       <c r="AR52">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AS52">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>4.27</v>
+        <v>3.81</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12136,25 +12136,25 @@
         <v>1.85</v>
       </c>
       <c r="AN53">
+        <v>1.75</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
         <v>1.38</v>
       </c>
-      <c r="AO53">
-        <v>0.75</v>
-      </c>
-      <c r="AP53">
-        <v>1.18</v>
-      </c>
       <c r="AQ53">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS53">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AT53">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12342,25 +12342,25 @@
         <v>3.75</v>
       </c>
       <c r="AN54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO54">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ54">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR54">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AS54">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AT54">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12548,25 +12548,25 @@
         <v>2.8</v>
       </c>
       <c r="AN55">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="AO55">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR55">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="AS55">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT55">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12754,25 +12754,25 @@
         <v>1.38</v>
       </c>
       <c r="AN56">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AO56">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AS56">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AT56">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -12960,25 +12960,25 @@
         <v>2</v>
       </c>
       <c r="AN57">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AP57">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AS57">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="AT57">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -13166,25 +13166,25 @@
         <v>1.42</v>
       </c>
       <c r="AN58">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AO58">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AS58">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AT58">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="AU58">
         <v>9</v>
@@ -13372,7 +13372,7 @@
         <v>5.75</v>
       </c>
       <c r="AN59">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AO59">
         <v>1</v>
@@ -13381,16 +13381,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ59">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
-        <v>2.69</v>
+        <v>3.07</v>
       </c>
       <c r="AS59">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT59">
-        <v>4.04</v>
+        <v>4.5</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13578,25 +13578,25 @@
         <v>1.32</v>
       </c>
       <c r="AN60">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AO60">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AS60">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="AT60">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13784,25 +13784,25 @@
         <v>1.72</v>
       </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ61">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="AT61">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13990,25 +13990,25 @@
         <v>1.61</v>
       </c>
       <c r="AN62">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO62">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP62">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR62">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS62">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AT62">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14196,25 +14196,25 @@
         <v>1.09</v>
       </c>
       <c r="AN63">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AP63">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ63">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT63">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14402,25 +14402,25 @@
         <v>1.65</v>
       </c>
       <c r="AN64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS64">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="AT64">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14608,25 +14608,25 @@
         <v>1.08</v>
       </c>
       <c r="AN65">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO65">
         <v>2.6</v>
       </c>
       <c r="AP65">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>2.88</v>
       </c>
       <c r="AR65">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="AS65">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="AT65">
-        <v>4.45</v>
+        <v>4.27</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -14814,25 +14814,25 @@
         <v>2.25</v>
       </c>
       <c r="AN66">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ66">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR66">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="AS66">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT66">
-        <v>2.53</v>
+        <v>2.2</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -15020,25 +15020,25 @@
         <v>1.42</v>
       </c>
       <c r="AN67">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO67">
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS67">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15226,25 +15226,25 @@
         <v>1.45</v>
       </c>
       <c r="AN68">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ68">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT68">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU68">
         <v>13</v>
@@ -15432,25 +15432,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ69">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AS69">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="AT69">
-        <v>2.52</v>
+        <v>2.23</v>
       </c>
       <c r="AU69">
         <v>7</v>
@@ -15638,25 +15638,25 @@
         <v>1.32</v>
       </c>
       <c r="AN70">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AO70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP70">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AT70">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15844,25 +15844,25 @@
         <v>1.35</v>
       </c>
       <c r="AN71">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AP71">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AS71">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT71">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16050,25 +16050,25 @@
         <v>2.39</v>
       </c>
       <c r="AN72">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="AO72">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="AP72">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ72">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS72">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AT72">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16259,22 +16259,22 @@
         <v>1.67</v>
       </c>
       <c r="AO73">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ73">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR73">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS73">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AT73">
-        <v>2.79</v>
+        <v>2.53</v>
       </c>
       <c r="AU73">
         <v>10</v>
@@ -16462,25 +16462,25 @@
         <v>1.16</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO74">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR74">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AS74">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AT74">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16668,25 +16668,25 @@
         <v>1.05</v>
       </c>
       <c r="AN75">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO75">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ75">
         <v>2.88</v>
       </c>
       <c r="AR75">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AS75">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="AT75">
-        <v>4.15</v>
+        <v>4.07</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16874,25 +16874,25 @@
         <v>1.95</v>
       </c>
       <c r="AN76">
-        <v>1.42</v>
+        <v>2.17</v>
       </c>
       <c r="AO76">
+        <v>0.83</v>
+      </c>
+      <c r="AP76">
+        <v>1.69</v>
+      </c>
+      <c r="AQ76">
+        <v>1.13</v>
+      </c>
+      <c r="AR76">
+        <v>1.16</v>
+      </c>
+      <c r="AS76">
         <v>1.08</v>
       </c>
-      <c r="AP76">
-        <v>1.59</v>
-      </c>
-      <c r="AQ76">
-        <v>1.34</v>
-      </c>
-      <c r="AR76">
-        <v>1.38</v>
-      </c>
-      <c r="AS76">
-        <v>1.2</v>
-      </c>
       <c r="AT76">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17080,25 +17080,25 @@
         <v>2.4</v>
       </c>
       <c r="AN77">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="AO77">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AS77">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AT77">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -17286,25 +17286,25 @@
         <v>2.88</v>
       </c>
       <c r="AN78">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AO78">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="AP78">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AS78">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="AT78">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17492,25 +17492,25 @@
         <v>1.5</v>
       </c>
       <c r="AN79">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AO79">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AP79">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR79">
+        <v>1.25</v>
+      </c>
+      <c r="AS79">
         <v>1.23</v>
       </c>
-      <c r="AS79">
-        <v>1.39</v>
-      </c>
       <c r="AT79">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17698,25 +17698,25 @@
         <v>2.1</v>
       </c>
       <c r="AN80">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR80">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AS80">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT80">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17904,25 +17904,25 @@
         <v>1.33</v>
       </c>
       <c r="AN81">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AO81">
-        <v>1.46</v>
+        <v>0.83</v>
       </c>
       <c r="AP81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AT81">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18110,25 +18110,25 @@
         <v>4.33</v>
       </c>
       <c r="AN82">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AO82">
-        <v>1.54</v>
+        <v>0.67</v>
       </c>
       <c r="AP82">
         <v>2.88</v>
       </c>
       <c r="AQ82">
+        <v>1.5</v>
+      </c>
+      <c r="AR82">
+        <v>3.05</v>
+      </c>
+      <c r="AS82">
         <v>1.59</v>
       </c>
-      <c r="AR82">
-        <v>2.75</v>
-      </c>
-      <c r="AS82">
-        <v>1.4</v>
-      </c>
       <c r="AT82">
-        <v>4.15</v>
+        <v>4.64</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18316,25 +18316,25 @@
         <v>5.75</v>
       </c>
       <c r="AN83">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AO83">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AP83">
         <v>2.88</v>
       </c>
       <c r="AQ83">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR83">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="AS83">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AT83">
-        <v>3.99</v>
+        <v>4.21</v>
       </c>
       <c r="AU83">
         <v>12</v>
@@ -18522,25 +18522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN84">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AO84">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ84">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AS84">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="AT84">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -18728,25 +18728,25 @@
         <v>1.09</v>
       </c>
       <c r="AN85">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AO85">
         <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85">
         <v>2.88</v>
       </c>
       <c r="AR85">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AS85">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="AT85">
-        <v>4.2</v>
+        <v>4.08</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -18934,25 +18934,25 @@
         <v>1.88</v>
       </c>
       <c r="AN86">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO86">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR86">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AS86">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AT86">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="AU86">
         <v>13</v>
@@ -19140,25 +19140,25 @@
         <v>2.14</v>
       </c>
       <c r="AN87">
-        <v>1.43</v>
+        <v>2.29</v>
       </c>
       <c r="AO87">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ87">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR87">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="AS87">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AU87">
         <v>2</v>
@@ -19346,25 +19346,25 @@
         <v>1.65</v>
       </c>
       <c r="AN88">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="AO88">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ88">
+        <v>1.67</v>
+      </c>
+      <c r="AR88">
         <v>1.53</v>
       </c>
-      <c r="AR88">
-        <v>1.61</v>
-      </c>
       <c r="AS88">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT88">
-        <v>3.23</v>
+        <v>3.18</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19552,25 +19552,25 @@
         <v>1.27</v>
       </c>
       <c r="AN89">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AP89">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR89">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AT89">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU89">
         <v>6</v>
@@ -19758,25 +19758,25 @@
         <v>1.14</v>
       </c>
       <c r="AN90">
-        <v>0.79</v>
+        <v>0.2</v>
       </c>
       <c r="AO90">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.07</v>
       </c>
       <c r="AS90">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AT90">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -19964,25 +19964,25 @@
         <v>1.15</v>
       </c>
       <c r="AN91">
-        <v>0.73</v>
+        <v>0.17</v>
       </c>
       <c r="AO91">
-        <v>1.4</v>
+        <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ91">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AS91">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AT91">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20170,25 +20170,25 @@
         <v>2.3</v>
       </c>
       <c r="AN92">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AO92">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AS92">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AT92">
-        <v>2.97</v>
+        <v>2.76</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20376,25 +20376,25 @@
         <v>3.94</v>
       </c>
       <c r="AN93">
-        <v>2.13</v>
+        <v>2.71</v>
       </c>
       <c r="AO93">
+        <v>0.75</v>
+      </c>
+      <c r="AP93">
+        <v>1.94</v>
+      </c>
+      <c r="AQ93">
         <v>1.13</v>
       </c>
-      <c r="AP93">
-        <v>1.84</v>
-      </c>
-      <c r="AQ93">
-        <v>1.34</v>
-      </c>
       <c r="AR93">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="AS93">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="AT93">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20585,22 +20585,22 @@
         <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AP94">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR94">
         <v>1.59</v>
       </c>
       <c r="AS94">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT94">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20788,25 +20788,25 @@
         <v>1.87</v>
       </c>
       <c r="AN95">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AO95">
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR95">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AS95">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -20994,22 +20994,22 @@
         <v>1.32</v>
       </c>
       <c r="AN96">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="AO96">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ96">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AS96">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AT96">
         <v>2.86</v>
@@ -21200,25 +21200,25 @@
         <v>1.47</v>
       </c>
       <c r="AN97">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AO97">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="AP97">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AS97">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT97">
-        <v>2.46</v>
+        <v>2.63</v>
       </c>
       <c r="AU97">
         <v>3</v>
@@ -21406,25 +21406,25 @@
         <v>1.7</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>2.13</v>
       </c>
       <c r="AO98">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AS98">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AT98">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21612,25 +21612,25 @@
         <v>2.15</v>
       </c>
       <c r="AN99">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="AO99">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR99">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AS99">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21818,25 +21818,25 @@
         <v>1.22</v>
       </c>
       <c r="AN100">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO100">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AS100">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT100">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22024,25 +22024,25 @@
         <v>1.01</v>
       </c>
       <c r="AN101">
-        <v>0.6899999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="AO101">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AP101">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101">
         <v>2.88</v>
       </c>
       <c r="AR101">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AS101">
-        <v>2.72</v>
+        <v>2.41</v>
       </c>
       <c r="AT101">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="AU101">
         <v>2</v>
@@ -22233,22 +22233,22 @@
         <v>0.88</v>
       </c>
       <c r="AO102">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP102">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ102">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR102">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AS102">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="AT102">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22436,25 +22436,25 @@
         <v>2.4</v>
       </c>
       <c r="AN103">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="AO103">
-        <v>0.65</v>
+        <v>1.11</v>
       </c>
       <c r="AP103">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AT103">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22642,25 +22642,25 @@
         <v>3.75</v>
       </c>
       <c r="AN104">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="AO104">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AS104">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT104">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22848,25 +22848,25 @@
         <v>2.4</v>
       </c>
       <c r="AN105">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AO105">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ105">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR105">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AS105">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT105">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
       <c r="AU105">
         <v>8</v>
@@ -23054,25 +23054,25 @@
         <v>1.44</v>
       </c>
       <c r="AN106">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AO106">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AP106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
       </c>
       <c r="AS106">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AT106">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="AU106">
         <v>6</v>
@@ -23260,25 +23260,25 @@
         <v>1.57</v>
       </c>
       <c r="AN107">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AO107">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AP107">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS107">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AT107">
-        <v>2.91</v>
+        <v>3.03</v>
       </c>
       <c r="AU107">
         <v>3</v>
@@ -23466,25 +23466,25 @@
         <v>1.5</v>
       </c>
       <c r="AN108">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO108">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ108">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AS108">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AT108">
-        <v>2.79</v>
+        <v>2.52</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23672,25 +23672,25 @@
         <v>3.75</v>
       </c>
       <c r="AN109">
-        <v>2.11</v>
+        <v>2.44</v>
       </c>
       <c r="AO109">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="AP109">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AS109">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23878,7 +23878,7 @@
         <v>5.5</v>
       </c>
       <c r="AN110">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AO110">
         <v>1.22</v>
@@ -23887,16 +23887,16 @@
         <v>2.88</v>
       </c>
       <c r="AQ110">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR110">
-        <v>2.71</v>
+        <v>3.08</v>
       </c>
       <c r="AS110">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AT110">
-        <v>4.23</v>
+        <v>4.63</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -24084,25 +24084,25 @@
         <v>1.55</v>
       </c>
       <c r="AN111">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO111">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="AP111">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ111">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR111">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AS111">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AT111">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24290,25 +24290,25 @@
         <v>1.02</v>
       </c>
       <c r="AN112">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO112">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AP112">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ112">
         <v>2.88</v>
       </c>
       <c r="AR112">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AS112">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="AT112">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="AU112">
         <v>2</v>
@@ -24496,25 +24496,25 @@
         <v>2</v>
       </c>
       <c r="AN113">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AO113">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AP113">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR113">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AS113">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AT113">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="AU113">
         <v>6</v>
@@ -24705,22 +24705,22 @@
         <v>0.78</v>
       </c>
       <c r="AO114">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AP114">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ114">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR114">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT114">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="AU114">
         <v>4</v>
@@ -24908,25 +24908,25 @@
         <v>1.44</v>
       </c>
       <c r="AN115">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="AO115">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AP115">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AS115">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT115">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25114,22 +25114,22 @@
         <v>1.4</v>
       </c>
       <c r="AN116">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="AO116">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR116">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS116">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT116">
         <v>2.4</v>
@@ -25320,25 +25320,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO117">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AQ117">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR117">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AS117">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AT117">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25526,25 +25526,25 @@
         <v>7.5</v>
       </c>
       <c r="AN118">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="AO118">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AP118">
         <v>2.88</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR118">
-        <v>2.57</v>
+        <v>2.87</v>
       </c>
       <c r="AS118">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AT118">
-        <v>4.13</v>
+        <v>4.53</v>
       </c>
       <c r="AU118">
         <v>10</v>
@@ -25732,25 +25732,25 @@
         <v>1.33</v>
       </c>
       <c r="AN119">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ119">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR119">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AS119">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AT119">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25938,25 +25938,25 @@
         <v>1.33</v>
       </c>
       <c r="AN120">
-        <v>0.58</v>
+        <v>0.13</v>
       </c>
       <c r="AO120">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AP120">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ120">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR120">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AS120">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="AT120">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26144,25 +26144,25 @@
         <v>1.67</v>
       </c>
       <c r="AN121">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO121">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR121">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AS121">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT121">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26350,25 +26350,25 @@
         <v>2.3</v>
       </c>
       <c r="AN122">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AO122">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AQ122">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR122">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AS122">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="AU122">
         <v>6</v>
@@ -26556,25 +26556,25 @@
         <v>1.12</v>
       </c>
       <c r="AN123">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AO123">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AP123">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AQ123">
         <v>2.88</v>
       </c>
       <c r="AR123">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AS123">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="AT123">
-        <v>4.4</v>
+        <v>4.17</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26762,22 +26762,22 @@
         <v>2.4</v>
       </c>
       <c r="AN124">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AO124">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP124">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS124">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT124">
         <v>2.8</v>
@@ -26968,22 +26968,22 @@
         <v>1.5</v>
       </c>
       <c r="AN125">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="AO125">
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ125">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR125">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS125">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT125">
         <v>2.4</v>
@@ -27174,25 +27174,25 @@
         <v>1.2</v>
       </c>
       <c r="AN126">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AO126">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ126">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR126">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS126">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AU126">
         <v>8</v>
@@ -27380,25 +27380,25 @@
         <v>6.5</v>
       </c>
       <c r="AN127">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="AO127">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="AP127">
         <v>2.88</v>
       </c>
       <c r="AQ127">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR127">
-        <v>2.53</v>
+        <v>2.81</v>
       </c>
       <c r="AS127">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AT127">
-        <v>3.74</v>
+        <v>3.93</v>
       </c>
       <c r="AU127">
         <v>12</v>
@@ -27586,25 +27586,25 @@
         <v>1.44</v>
       </c>
       <c r="AN128">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AO128">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="AP128">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR128">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS128">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT128">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27792,25 +27792,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1.4</v>
+      </c>
+      <c r="AP129">
+        <v>1.38</v>
+      </c>
+      <c r="AQ129">
+        <v>1.13</v>
+      </c>
+      <c r="AR129">
+        <v>1.3</v>
+      </c>
+      <c r="AS129">
         <v>1.57</v>
       </c>
-      <c r="AO129">
-        <v>1.43</v>
-      </c>
-      <c r="AP129">
-        <v>1.18</v>
-      </c>
-      <c r="AQ129">
-        <v>1.38</v>
-      </c>
-      <c r="AR129">
-        <v>1.16</v>
-      </c>
-      <c r="AS129">
-        <v>1.53</v>
-      </c>
       <c r="AT129">
-        <v>2.69</v>
+        <v>2.87</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27998,25 +27998,25 @@
         <v>1.54</v>
       </c>
       <c r="AN130">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AO130">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ130">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR130">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS130">
         <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28204,25 +28204,25 @@
         <v>1.44</v>
       </c>
       <c r="AN131">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO131">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AS131">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AT131">
-        <v>2.58</v>
+        <v>2.83</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28410,25 +28410,25 @@
         <v>1.25</v>
       </c>
       <c r="AN132">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO132">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AP132">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
       </c>
       <c r="AS132">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="AT132">
-        <v>3.26</v>
+        <v>3.34</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28616,25 +28616,25 @@
         <v>7</v>
       </c>
       <c r="AN133">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="AO133">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AP133">
         <v>2.88</v>
       </c>
       <c r="AQ133">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR133">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AS133">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AT133">
-        <v>3.97</v>
+        <v>4.08</v>
       </c>
       <c r="AU133">
         <v>-1</v>
@@ -29028,25 +29028,25 @@
         <v>1.22</v>
       </c>
       <c r="AN135">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="AO135">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AP135">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ135">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR135">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AS135">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AT135">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29234,25 +29234,25 @@
         <v>1.53</v>
       </c>
       <c r="AN136">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AO136">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ136">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR136">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AS136">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AT136">
-        <v>2.71</v>
+        <v>2.79</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29652,19 +29652,19 @@
         <v>1.27</v>
       </c>
       <c r="AP138">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ138">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
       </c>
       <c r="AS138">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT138">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="AU138">
         <v>10</v>
@@ -30264,25 +30264,25 @@
         <v>1.75</v>
       </c>
       <c r="AN141">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AO141">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AP141">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ141">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR141">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AS141">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT141">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30470,25 +30470,25 @@
         <v>1.57</v>
       </c>
       <c r="AN142">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="AO142">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ142">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR142">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AS142">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT142">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AU142">
         <v>3</v>
@@ -30676,25 +30676,25 @@
         <v>2.4</v>
       </c>
       <c r="AN143">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR143">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AS143">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT143">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="AU143">
         <v>4</v>
@@ -31294,25 +31294,25 @@
         <v>1.57</v>
       </c>
       <c r="AN146">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO146">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ146">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR146">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS146">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="AT146">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31500,25 +31500,25 @@
         <v>2.3</v>
       </c>
       <c r="AN147">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO147">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AP147">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR147">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AT147">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31912,25 +31912,25 @@
         <v>1.83</v>
       </c>
       <c r="AN149">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AO149">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AP149">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR149">
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT149">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32942,25 +32942,25 @@
         <v>1.28</v>
       </c>
       <c r="AN154">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="AO154">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ154">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR154">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AS154">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AT154">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33354,25 +33354,25 @@
         <v>1.38</v>
       </c>
       <c r="AN156">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="AO156">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP156">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR156">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AS156">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT156">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33560,25 +33560,25 @@
         <v>2.24</v>
       </c>
       <c r="AN157">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AO157">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="AP157">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ157">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR157">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS157">
         <v>1.34</v>
       </c>
       <c r="AT157">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33972,25 +33972,25 @@
         <v>1.45</v>
       </c>
       <c r="AN159">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AO159">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AP159">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ159">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR159">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="AS159">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT159">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34590,25 +34590,25 @@
         <v>1.87</v>
       </c>
       <c r="AN162">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO162">
+        <v>0.77</v>
+      </c>
+      <c r="AP162">
+        <v>1.19</v>
+      </c>
+      <c r="AQ162">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AP162">
-        <v>1</v>
-      </c>
-      <c r="AQ162">
-        <v>0.78</v>
-      </c>
       <c r="AR162">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT162">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -35002,25 +35002,25 @@
         <v>2.1</v>
       </c>
       <c r="AN164">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AO164">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="AP164">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ164">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR164">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS164">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AT164">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35620,25 +35620,25 @@
         <v>2.57</v>
       </c>
       <c r="AN167">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO167">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="AP167">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR167">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS167">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT167">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
       <c r="AU167">
         <v>12</v>
@@ -35826,25 +35826,25 @@
         <v>1.41</v>
       </c>
       <c r="AN168">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AO168">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP168">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR168">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS168">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT168">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -36238,25 +36238,25 @@
         <v>1.35</v>
       </c>
       <c r="AN170">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO170">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ170">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR170">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AS170">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AT170">
-        <v>2.91</v>
+        <v>2.95</v>
       </c>
       <c r="AU170">
         <v>2</v>
@@ -36444,25 +36444,25 @@
         <v>1.53</v>
       </c>
       <c r="AN171">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AO171">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AP171">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR171">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AS171">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="AT171">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="AU171">
         <v>2</v>
@@ -36650,25 +36650,25 @@
         <v>1.6</v>
       </c>
       <c r="AN172">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="AO172">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AP172">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ172">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR172">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS172">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT172">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AU172">
         <v>2</v>
@@ -37062,25 +37062,25 @@
         <v>1.77</v>
       </c>
       <c r="AN174">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AO174">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP174">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR174">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="AS174">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT174">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
       <c r="AU174">
         <v>9</v>
@@ -37886,25 +37886,25 @@
         <v>1.42</v>
       </c>
       <c r="AN178">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="AO178">
         <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ178">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR178">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AS178">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT178">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38092,25 +38092,25 @@
         <v>1.17</v>
       </c>
       <c r="AN179">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="AO179">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP179">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ179">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR179">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AS179">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AT179">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU179">
         <v>3</v>
@@ -38504,25 +38504,25 @@
         <v>1.65</v>
       </c>
       <c r="AN181">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AO181">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AP181">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ181">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR181">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS181">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AT181">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38916,25 +38916,25 @@
         <v>2</v>
       </c>
       <c r="AN183">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AO183">
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR183">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AS183">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT183">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39534,25 +39534,25 @@
         <v>1.42</v>
       </c>
       <c r="AN186">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="AO186">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AQ186">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR186">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS186">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AT186">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="AU186">
         <v>7</v>
@@ -39740,25 +39740,25 @@
         <v>1.19</v>
       </c>
       <c r="AN187">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AO187">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AP187">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AR187">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS187">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AT187">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="AU187">
         <v>0</v>
@@ -40564,25 +40564,25 @@
         <v>1.28</v>
       </c>
       <c r="AN191">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="AO191">
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="AQ191">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR191">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AS191">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AT191">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -40770,25 +40770,25 @@
         <v>1.82</v>
       </c>
       <c r="AN192">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AO192">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="AP192">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR192">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AS192">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AT192">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -40976,25 +40976,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AO193">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AQ193">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AR193">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AS193">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AT193">
-        <v>2.87</v>
+        <v>2.64</v>
       </c>
       <c r="AU193">
         <v>-1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20232024.xlsx
@@ -30091,10 +30091,10 @@
         <v>12</v>
       </c>
       <c r="AY140">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ140">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BA140">
         <v>5</v>
